--- a/Market Fundamentals/Transelectrica_data/Cons_Prod_final/Weekly_Consumption_2026.xlsx
+++ b/Market Fundamentals/Transelectrica_data/Cons_Prod_final/Weekly_Consumption_2026.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2404" uniqueCount="2404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2692" uniqueCount="2692">
   <si>
     <t>Date</t>
   </si>
@@ -7226,6 +7226,870 @@
   </si>
   <si>
     <t>25.02.202696.0</t>
+  </si>
+  <si>
+    <t>26.02.20261.0</t>
+  </si>
+  <si>
+    <t>26.02.20262.0</t>
+  </si>
+  <si>
+    <t>26.02.20263.0</t>
+  </si>
+  <si>
+    <t>26.02.20264.0</t>
+  </si>
+  <si>
+    <t>26.02.20265.0</t>
+  </si>
+  <si>
+    <t>26.02.20266.0</t>
+  </si>
+  <si>
+    <t>26.02.20267.0</t>
+  </si>
+  <si>
+    <t>26.02.20268.0</t>
+  </si>
+  <si>
+    <t>26.02.20269.0</t>
+  </si>
+  <si>
+    <t>26.02.202610.0</t>
+  </si>
+  <si>
+    <t>26.02.202611.0</t>
+  </si>
+  <si>
+    <t>26.02.202612.0</t>
+  </si>
+  <si>
+    <t>26.02.202613.0</t>
+  </si>
+  <si>
+    <t>26.02.202614.0</t>
+  </si>
+  <si>
+    <t>26.02.202615.0</t>
+  </si>
+  <si>
+    <t>26.02.202616.0</t>
+  </si>
+  <si>
+    <t>26.02.202617.0</t>
+  </si>
+  <si>
+    <t>26.02.202618.0</t>
+  </si>
+  <si>
+    <t>26.02.202619.0</t>
+  </si>
+  <si>
+    <t>26.02.202620.0</t>
+  </si>
+  <si>
+    <t>26.02.202621.0</t>
+  </si>
+  <si>
+    <t>26.02.202622.0</t>
+  </si>
+  <si>
+    <t>26.02.202623.0</t>
+  </si>
+  <si>
+    <t>26.02.202624.0</t>
+  </si>
+  <si>
+    <t>26.02.202625.0</t>
+  </si>
+  <si>
+    <t>26.02.202626.0</t>
+  </si>
+  <si>
+    <t>26.02.202627.0</t>
+  </si>
+  <si>
+    <t>26.02.202628.0</t>
+  </si>
+  <si>
+    <t>26.02.202629.0</t>
+  </si>
+  <si>
+    <t>26.02.202630.0</t>
+  </si>
+  <si>
+    <t>26.02.202631.0</t>
+  </si>
+  <si>
+    <t>26.02.202632.0</t>
+  </si>
+  <si>
+    <t>26.02.202633.0</t>
+  </si>
+  <si>
+    <t>26.02.202634.0</t>
+  </si>
+  <si>
+    <t>26.02.202635.0</t>
+  </si>
+  <si>
+    <t>26.02.202636.0</t>
+  </si>
+  <si>
+    <t>26.02.202637.0</t>
+  </si>
+  <si>
+    <t>26.02.202638.0</t>
+  </si>
+  <si>
+    <t>26.02.202639.0</t>
+  </si>
+  <si>
+    <t>26.02.202640.0</t>
+  </si>
+  <si>
+    <t>26.02.202641.0</t>
+  </si>
+  <si>
+    <t>26.02.202642.0</t>
+  </si>
+  <si>
+    <t>26.02.202643.0</t>
+  </si>
+  <si>
+    <t>26.02.202644.0</t>
+  </si>
+  <si>
+    <t>26.02.202645.0</t>
+  </si>
+  <si>
+    <t>26.02.202646.0</t>
+  </si>
+  <si>
+    <t>26.02.202647.0</t>
+  </si>
+  <si>
+    <t>26.02.202648.0</t>
+  </si>
+  <si>
+    <t>26.02.202649.0</t>
+  </si>
+  <si>
+    <t>26.02.202650.0</t>
+  </si>
+  <si>
+    <t>26.02.202651.0</t>
+  </si>
+  <si>
+    <t>26.02.202652.0</t>
+  </si>
+  <si>
+    <t>26.02.202653.0</t>
+  </si>
+  <si>
+    <t>26.02.202654.0</t>
+  </si>
+  <si>
+    <t>26.02.202655.0</t>
+  </si>
+  <si>
+    <t>26.02.202656.0</t>
+  </si>
+  <si>
+    <t>26.02.202657.0</t>
+  </si>
+  <si>
+    <t>26.02.202658.0</t>
+  </si>
+  <si>
+    <t>26.02.202659.0</t>
+  </si>
+  <si>
+    <t>26.02.202660.0</t>
+  </si>
+  <si>
+    <t>26.02.202661.0</t>
+  </si>
+  <si>
+    <t>26.02.202662.0</t>
+  </si>
+  <si>
+    <t>26.02.202663.0</t>
+  </si>
+  <si>
+    <t>26.02.202664.0</t>
+  </si>
+  <si>
+    <t>26.02.202665.0</t>
+  </si>
+  <si>
+    <t>26.02.202666.0</t>
+  </si>
+  <si>
+    <t>26.02.202667.0</t>
+  </si>
+  <si>
+    <t>26.02.202668.0</t>
+  </si>
+  <si>
+    <t>26.02.202669.0</t>
+  </si>
+  <si>
+    <t>26.02.202670.0</t>
+  </si>
+  <si>
+    <t>26.02.202671.0</t>
+  </si>
+  <si>
+    <t>26.02.202672.0</t>
+  </si>
+  <si>
+    <t>26.02.202673.0</t>
+  </si>
+  <si>
+    <t>26.02.202674.0</t>
+  </si>
+  <si>
+    <t>26.02.202675.0</t>
+  </si>
+  <si>
+    <t>26.02.202676.0</t>
+  </si>
+  <si>
+    <t>26.02.202677.0</t>
+  </si>
+  <si>
+    <t>26.02.202678.0</t>
+  </si>
+  <si>
+    <t>26.02.202679.0</t>
+  </si>
+  <si>
+    <t>26.02.202680.0</t>
+  </si>
+  <si>
+    <t>26.02.202681.0</t>
+  </si>
+  <si>
+    <t>26.02.202682.0</t>
+  </si>
+  <si>
+    <t>26.02.202683.0</t>
+  </si>
+  <si>
+    <t>26.02.202684.0</t>
+  </si>
+  <si>
+    <t>26.02.202685.0</t>
+  </si>
+  <si>
+    <t>26.02.202686.0</t>
+  </si>
+  <si>
+    <t>26.02.202687.0</t>
+  </si>
+  <si>
+    <t>26.02.202688.0</t>
+  </si>
+  <si>
+    <t>26.02.202689.0</t>
+  </si>
+  <si>
+    <t>26.02.202690.0</t>
+  </si>
+  <si>
+    <t>26.02.202691.0</t>
+  </si>
+  <si>
+    <t>26.02.202692.0</t>
+  </si>
+  <si>
+    <t>26.02.202693.0</t>
+  </si>
+  <si>
+    <t>26.02.202694.0</t>
+  </si>
+  <si>
+    <t>26.02.202695.0</t>
+  </si>
+  <si>
+    <t>26.02.202696.0</t>
+  </si>
+  <si>
+    <t>27.02.20261.0</t>
+  </si>
+  <si>
+    <t>27.02.20262.0</t>
+  </si>
+  <si>
+    <t>27.02.20263.0</t>
+  </si>
+  <si>
+    <t>27.02.20264.0</t>
+  </si>
+  <si>
+    <t>27.02.20265.0</t>
+  </si>
+  <si>
+    <t>27.02.20266.0</t>
+  </si>
+  <si>
+    <t>27.02.20267.0</t>
+  </si>
+  <si>
+    <t>27.02.20268.0</t>
+  </si>
+  <si>
+    <t>27.02.20269.0</t>
+  </si>
+  <si>
+    <t>27.02.202610.0</t>
+  </si>
+  <si>
+    <t>27.02.202611.0</t>
+  </si>
+  <si>
+    <t>27.02.202612.0</t>
+  </si>
+  <si>
+    <t>27.02.202613.0</t>
+  </si>
+  <si>
+    <t>27.02.202614.0</t>
+  </si>
+  <si>
+    <t>27.02.202615.0</t>
+  </si>
+  <si>
+    <t>27.02.202616.0</t>
+  </si>
+  <si>
+    <t>27.02.202617.0</t>
+  </si>
+  <si>
+    <t>27.02.202618.0</t>
+  </si>
+  <si>
+    <t>27.02.202619.0</t>
+  </si>
+  <si>
+    <t>27.02.202620.0</t>
+  </si>
+  <si>
+    <t>27.02.202621.0</t>
+  </si>
+  <si>
+    <t>27.02.202622.0</t>
+  </si>
+  <si>
+    <t>27.02.202623.0</t>
+  </si>
+  <si>
+    <t>27.02.202624.0</t>
+  </si>
+  <si>
+    <t>27.02.202625.0</t>
+  </si>
+  <si>
+    <t>27.02.202626.0</t>
+  </si>
+  <si>
+    <t>27.02.202627.0</t>
+  </si>
+  <si>
+    <t>27.02.202628.0</t>
+  </si>
+  <si>
+    <t>27.02.202629.0</t>
+  </si>
+  <si>
+    <t>27.02.202630.0</t>
+  </si>
+  <si>
+    <t>27.02.202631.0</t>
+  </si>
+  <si>
+    <t>27.02.202632.0</t>
+  </si>
+  <si>
+    <t>27.02.202633.0</t>
+  </si>
+  <si>
+    <t>27.02.202634.0</t>
+  </si>
+  <si>
+    <t>27.02.202635.0</t>
+  </si>
+  <si>
+    <t>27.02.202636.0</t>
+  </si>
+  <si>
+    <t>27.02.202637.0</t>
+  </si>
+  <si>
+    <t>27.02.202638.0</t>
+  </si>
+  <si>
+    <t>27.02.202639.0</t>
+  </si>
+  <si>
+    <t>27.02.202640.0</t>
+  </si>
+  <si>
+    <t>27.02.202641.0</t>
+  </si>
+  <si>
+    <t>27.02.202642.0</t>
+  </si>
+  <si>
+    <t>27.02.202643.0</t>
+  </si>
+  <si>
+    <t>27.02.202644.0</t>
+  </si>
+  <si>
+    <t>27.02.202645.0</t>
+  </si>
+  <si>
+    <t>27.02.202646.0</t>
+  </si>
+  <si>
+    <t>27.02.202647.0</t>
+  </si>
+  <si>
+    <t>27.02.202648.0</t>
+  </si>
+  <si>
+    <t>27.02.202649.0</t>
+  </si>
+  <si>
+    <t>27.02.202650.0</t>
+  </si>
+  <si>
+    <t>27.02.202651.0</t>
+  </si>
+  <si>
+    <t>27.02.202652.0</t>
+  </si>
+  <si>
+    <t>27.02.202653.0</t>
+  </si>
+  <si>
+    <t>27.02.202654.0</t>
+  </si>
+  <si>
+    <t>27.02.202655.0</t>
+  </si>
+  <si>
+    <t>27.02.202656.0</t>
+  </si>
+  <si>
+    <t>27.02.202657.0</t>
+  </si>
+  <si>
+    <t>27.02.202658.0</t>
+  </si>
+  <si>
+    <t>27.02.202659.0</t>
+  </si>
+  <si>
+    <t>27.02.202660.0</t>
+  </si>
+  <si>
+    <t>27.02.202661.0</t>
+  </si>
+  <si>
+    <t>27.02.202662.0</t>
+  </si>
+  <si>
+    <t>27.02.202663.0</t>
+  </si>
+  <si>
+    <t>27.02.202664.0</t>
+  </si>
+  <si>
+    <t>27.02.202665.0</t>
+  </si>
+  <si>
+    <t>27.02.202666.0</t>
+  </si>
+  <si>
+    <t>27.02.202667.0</t>
+  </si>
+  <si>
+    <t>27.02.202668.0</t>
+  </si>
+  <si>
+    <t>27.02.202669.0</t>
+  </si>
+  <si>
+    <t>27.02.202670.0</t>
+  </si>
+  <si>
+    <t>27.02.202671.0</t>
+  </si>
+  <si>
+    <t>27.02.202672.0</t>
+  </si>
+  <si>
+    <t>27.02.202673.0</t>
+  </si>
+  <si>
+    <t>27.02.202674.0</t>
+  </si>
+  <si>
+    <t>27.02.202675.0</t>
+  </si>
+  <si>
+    <t>27.02.202676.0</t>
+  </si>
+  <si>
+    <t>27.02.202677.0</t>
+  </si>
+  <si>
+    <t>27.02.202678.0</t>
+  </si>
+  <si>
+    <t>27.02.202679.0</t>
+  </si>
+  <si>
+    <t>27.02.202680.0</t>
+  </si>
+  <si>
+    <t>27.02.202681.0</t>
+  </si>
+  <si>
+    <t>27.02.202682.0</t>
+  </si>
+  <si>
+    <t>27.02.202683.0</t>
+  </si>
+  <si>
+    <t>27.02.202684.0</t>
+  </si>
+  <si>
+    <t>27.02.202685.0</t>
+  </si>
+  <si>
+    <t>27.02.202686.0</t>
+  </si>
+  <si>
+    <t>27.02.202687.0</t>
+  </si>
+  <si>
+    <t>27.02.202688.0</t>
+  </si>
+  <si>
+    <t>27.02.202689.0</t>
+  </si>
+  <si>
+    <t>27.02.202690.0</t>
+  </si>
+  <si>
+    <t>27.02.202691.0</t>
+  </si>
+  <si>
+    <t>27.02.202692.0</t>
+  </si>
+  <si>
+    <t>27.02.202693.0</t>
+  </si>
+  <si>
+    <t>27.02.202694.0</t>
+  </si>
+  <si>
+    <t>27.02.202695.0</t>
+  </si>
+  <si>
+    <t>27.02.202696.0</t>
+  </si>
+  <si>
+    <t>28.02.20261.0</t>
+  </si>
+  <si>
+    <t>28.02.20262.0</t>
+  </si>
+  <si>
+    <t>28.02.20263.0</t>
+  </si>
+  <si>
+    <t>28.02.20264.0</t>
+  </si>
+  <si>
+    <t>28.02.20265.0</t>
+  </si>
+  <si>
+    <t>28.02.20266.0</t>
+  </si>
+  <si>
+    <t>28.02.20267.0</t>
+  </si>
+  <si>
+    <t>28.02.20268.0</t>
+  </si>
+  <si>
+    <t>28.02.20269.0</t>
+  </si>
+  <si>
+    <t>28.02.202610.0</t>
+  </si>
+  <si>
+    <t>28.02.202611.0</t>
+  </si>
+  <si>
+    <t>28.02.202612.0</t>
+  </si>
+  <si>
+    <t>28.02.202613.0</t>
+  </si>
+  <si>
+    <t>28.02.202614.0</t>
+  </si>
+  <si>
+    <t>28.02.202615.0</t>
+  </si>
+  <si>
+    <t>28.02.202616.0</t>
+  </si>
+  <si>
+    <t>28.02.202617.0</t>
+  </si>
+  <si>
+    <t>28.02.202618.0</t>
+  </si>
+  <si>
+    <t>28.02.202619.0</t>
+  </si>
+  <si>
+    <t>28.02.202620.0</t>
+  </si>
+  <si>
+    <t>28.02.202621.0</t>
+  </si>
+  <si>
+    <t>28.02.202622.0</t>
+  </si>
+  <si>
+    <t>28.02.202623.0</t>
+  </si>
+  <si>
+    <t>28.02.202624.0</t>
+  </si>
+  <si>
+    <t>28.02.202625.0</t>
+  </si>
+  <si>
+    <t>28.02.202626.0</t>
+  </si>
+  <si>
+    <t>28.02.202627.0</t>
+  </si>
+  <si>
+    <t>28.02.202628.0</t>
+  </si>
+  <si>
+    <t>28.02.202629.0</t>
+  </si>
+  <si>
+    <t>28.02.202630.0</t>
+  </si>
+  <si>
+    <t>28.02.202631.0</t>
+  </si>
+  <si>
+    <t>28.02.202632.0</t>
+  </si>
+  <si>
+    <t>28.02.202633.0</t>
+  </si>
+  <si>
+    <t>28.02.202634.0</t>
+  </si>
+  <si>
+    <t>28.02.202635.0</t>
+  </si>
+  <si>
+    <t>28.02.202636.0</t>
+  </si>
+  <si>
+    <t>28.02.202637.0</t>
+  </si>
+  <si>
+    <t>28.02.202638.0</t>
+  </si>
+  <si>
+    <t>28.02.202639.0</t>
+  </si>
+  <si>
+    <t>28.02.202640.0</t>
+  </si>
+  <si>
+    <t>28.02.202641.0</t>
+  </si>
+  <si>
+    <t>28.02.202642.0</t>
+  </si>
+  <si>
+    <t>28.02.202643.0</t>
+  </si>
+  <si>
+    <t>28.02.202644.0</t>
+  </si>
+  <si>
+    <t>28.02.202645.0</t>
+  </si>
+  <si>
+    <t>28.02.202646.0</t>
+  </si>
+  <si>
+    <t>28.02.202647.0</t>
+  </si>
+  <si>
+    <t>28.02.202648.0</t>
+  </si>
+  <si>
+    <t>28.02.202649.0</t>
+  </si>
+  <si>
+    <t>28.02.202650.0</t>
+  </si>
+  <si>
+    <t>28.02.202651.0</t>
+  </si>
+  <si>
+    <t>28.02.202652.0</t>
+  </si>
+  <si>
+    <t>28.02.202653.0</t>
+  </si>
+  <si>
+    <t>28.02.202654.0</t>
+  </si>
+  <si>
+    <t>28.02.202655.0</t>
+  </si>
+  <si>
+    <t>28.02.202656.0</t>
+  </si>
+  <si>
+    <t>28.02.202657.0</t>
+  </si>
+  <si>
+    <t>28.02.202658.0</t>
+  </si>
+  <si>
+    <t>28.02.202659.0</t>
+  </si>
+  <si>
+    <t>28.02.202660.0</t>
+  </si>
+  <si>
+    <t>28.02.202661.0</t>
+  </si>
+  <si>
+    <t>28.02.202662.0</t>
+  </si>
+  <si>
+    <t>28.02.202663.0</t>
+  </si>
+  <si>
+    <t>28.02.202664.0</t>
+  </si>
+  <si>
+    <t>28.02.202665.0</t>
+  </si>
+  <si>
+    <t>28.02.202666.0</t>
+  </si>
+  <si>
+    <t>28.02.202667.0</t>
+  </si>
+  <si>
+    <t>28.02.202668.0</t>
+  </si>
+  <si>
+    <t>28.02.202669.0</t>
+  </si>
+  <si>
+    <t>28.02.202670.0</t>
+  </si>
+  <si>
+    <t>28.02.202671.0</t>
+  </si>
+  <si>
+    <t>28.02.202672.0</t>
+  </si>
+  <si>
+    <t>28.02.202673.0</t>
+  </si>
+  <si>
+    <t>28.02.202674.0</t>
+  </si>
+  <si>
+    <t>28.02.202675.0</t>
+  </si>
+  <si>
+    <t>28.02.202676.0</t>
+  </si>
+  <si>
+    <t>28.02.202677.0</t>
+  </si>
+  <si>
+    <t>28.02.202678.0</t>
+  </si>
+  <si>
+    <t>28.02.202679.0</t>
+  </si>
+  <si>
+    <t>28.02.202680.0</t>
+  </si>
+  <si>
+    <t>28.02.202681.0</t>
+  </si>
+  <si>
+    <t>28.02.202682.0</t>
+  </si>
+  <si>
+    <t>28.02.202683.0</t>
+  </si>
+  <si>
+    <t>28.02.202684.0</t>
+  </si>
+  <si>
+    <t>28.02.202685.0</t>
+  </si>
+  <si>
+    <t>28.02.202686.0</t>
+  </si>
+  <si>
+    <t>28.02.202687.0</t>
+  </si>
+  <si>
+    <t>28.02.202688.0</t>
+  </si>
+  <si>
+    <t>28.02.202689.0</t>
+  </si>
+  <si>
+    <t>28.02.202690.0</t>
+  </si>
+  <si>
+    <t>28.02.202691.0</t>
+  </si>
+  <si>
+    <t>28.02.202692.0</t>
+  </si>
+  <si>
+    <t>28.02.202693.0</t>
+  </si>
+  <si>
+    <t>28.02.202694.0</t>
+  </si>
+  <si>
+    <t>28.02.202695.0</t>
+  </si>
+  <si>
+    <t>28.02.202696.0</t>
   </si>
 </sst>
 </file>
@@ -7587,7 +8451,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2401"/>
+  <dimension ref="A1:D2689"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -33151,7 +34015,7 @@
         <v>1</v>
       </c>
       <c r="C1826">
-        <v>6500</v>
+        <v>6450</v>
       </c>
       <c r="D1826" t="s">
         <v>1828</v>
@@ -33165,7 +34029,7 @@
         <v>2</v>
       </c>
       <c r="C1827">
-        <v>6440</v>
+        <v>6400</v>
       </c>
       <c r="D1827" t="s">
         <v>1829</v>
@@ -33179,7 +34043,7 @@
         <v>3</v>
       </c>
       <c r="C1828">
-        <v>6390</v>
+        <v>6350</v>
       </c>
       <c r="D1828" t="s">
         <v>1830</v>
@@ -33193,7 +34057,7 @@
         <v>4</v>
       </c>
       <c r="C1829">
-        <v>6340</v>
+        <v>6310</v>
       </c>
       <c r="D1829" t="s">
         <v>1831</v>
@@ -33207,7 +34071,7 @@
         <v>5</v>
       </c>
       <c r="C1830">
-        <v>6310</v>
+        <v>6250</v>
       </c>
       <c r="D1830" t="s">
         <v>1832</v>
@@ -33221,7 +34085,7 @@
         <v>6</v>
       </c>
       <c r="C1831">
-        <v>6280</v>
+        <v>6220</v>
       </c>
       <c r="D1831" t="s">
         <v>1833</v>
@@ -33235,7 +34099,7 @@
         <v>7</v>
       </c>
       <c r="C1832">
-        <v>6250</v>
+        <v>6210</v>
       </c>
       <c r="D1832" t="s">
         <v>1834</v>
@@ -33249,7 +34113,7 @@
         <v>8</v>
       </c>
       <c r="C1833">
-        <v>6230</v>
+        <v>6190</v>
       </c>
       <c r="D1833" t="s">
         <v>1835</v>
@@ -33263,7 +34127,7 @@
         <v>9</v>
       </c>
       <c r="C1834">
-        <v>6210</v>
+        <v>6160</v>
       </c>
       <c r="D1834" t="s">
         <v>1836</v>
@@ -33277,7 +34141,7 @@
         <v>10</v>
       </c>
       <c r="C1835">
-        <v>6200</v>
+        <v>6130</v>
       </c>
       <c r="D1835" t="s">
         <v>1837</v>
@@ -33291,7 +34155,7 @@
         <v>11</v>
       </c>
       <c r="C1836">
-        <v>6200</v>
+        <v>6120</v>
       </c>
       <c r="D1836" t="s">
         <v>1838</v>
@@ -33305,7 +34169,7 @@
         <v>12</v>
       </c>
       <c r="C1837">
-        <v>6200</v>
+        <v>6110</v>
       </c>
       <c r="D1837" t="s">
         <v>1839</v>
@@ -33319,7 +34183,7 @@
         <v>13</v>
       </c>
       <c r="C1838">
-        <v>6210</v>
+        <v>6100</v>
       </c>
       <c r="D1838" t="s">
         <v>1840</v>
@@ -33333,7 +34197,7 @@
         <v>14</v>
       </c>
       <c r="C1839">
-        <v>6210</v>
+        <v>6100</v>
       </c>
       <c r="D1839" t="s">
         <v>1841</v>
@@ -33347,7 +34211,7 @@
         <v>15</v>
       </c>
       <c r="C1840">
-        <v>6220</v>
+        <v>6100</v>
       </c>
       <c r="D1840" t="s">
         <v>1842</v>
@@ -33361,7 +34225,7 @@
         <v>16</v>
       </c>
       <c r="C1841">
-        <v>6230</v>
+        <v>6110</v>
       </c>
       <c r="D1841" t="s">
         <v>1843</v>
@@ -33375,7 +34239,7 @@
         <v>17</v>
       </c>
       <c r="C1842">
-        <v>6230</v>
+        <v>6130</v>
       </c>
       <c r="D1842" t="s">
         <v>1844</v>
@@ -33389,7 +34253,7 @@
         <v>18</v>
       </c>
       <c r="C1843">
-        <v>6250</v>
+        <v>6140</v>
       </c>
       <c r="D1843" t="s">
         <v>1845</v>
@@ -33403,7 +34267,7 @@
         <v>19</v>
       </c>
       <c r="C1844">
-        <v>6270</v>
+        <v>6160</v>
       </c>
       <c r="D1844" t="s">
         <v>1846</v>
@@ -33417,7 +34281,7 @@
         <v>20</v>
       </c>
       <c r="C1845">
-        <v>6300</v>
+        <v>6190</v>
       </c>
       <c r="D1845" t="s">
         <v>1847</v>
@@ -33431,7 +34295,7 @@
         <v>21</v>
       </c>
       <c r="C1846">
-        <v>6350</v>
+        <v>6250</v>
       </c>
       <c r="D1846" t="s">
         <v>1848</v>
@@ -33445,7 +34309,7 @@
         <v>22</v>
       </c>
       <c r="C1847">
-        <v>6420</v>
+        <v>6330</v>
       </c>
       <c r="D1847" t="s">
         <v>1849</v>
@@ -33459,7 +34323,7 @@
         <v>23</v>
       </c>
       <c r="C1848">
-        <v>6520</v>
+        <v>6440</v>
       </c>
       <c r="D1848" t="s">
         <v>1850</v>
@@ -33473,7 +34337,7 @@
         <v>24</v>
       </c>
       <c r="C1849">
-        <v>6640</v>
+        <v>6580</v>
       </c>
       <c r="D1849" t="s">
         <v>1851</v>
@@ -33487,7 +34351,7 @@
         <v>25</v>
       </c>
       <c r="C1850">
-        <v>6780</v>
+        <v>6750</v>
       </c>
       <c r="D1850" t="s">
         <v>1852</v>
@@ -33501,7 +34365,7 @@
         <v>26</v>
       </c>
       <c r="C1851">
-        <v>6940</v>
+        <v>6920</v>
       </c>
       <c r="D1851" t="s">
         <v>1853</v>
@@ -33515,7 +34379,7 @@
         <v>27</v>
       </c>
       <c r="C1852">
-        <v>7120</v>
+        <v>7080</v>
       </c>
       <c r="D1852" t="s">
         <v>1854</v>
@@ -33529,7 +34393,7 @@
         <v>28</v>
       </c>
       <c r="C1853">
-        <v>7310</v>
+        <v>7260</v>
       </c>
       <c r="D1853" t="s">
         <v>1855</v>
@@ -33543,7 +34407,7 @@
         <v>29</v>
       </c>
       <c r="C1854">
-        <v>7500</v>
+        <v>7460</v>
       </c>
       <c r="D1854" t="s">
         <v>1856</v>
@@ -33557,7 +34421,7 @@
         <v>30</v>
       </c>
       <c r="C1855">
-        <v>7690</v>
+        <v>7630</v>
       </c>
       <c r="D1855" t="s">
         <v>1857</v>
@@ -33571,7 +34435,7 @@
         <v>31</v>
       </c>
       <c r="C1856">
-        <v>7860</v>
+        <v>7780</v>
       </c>
       <c r="D1856" t="s">
         <v>1858</v>
@@ -33585,7 +34449,7 @@
         <v>32</v>
       </c>
       <c r="C1857">
-        <v>8010</v>
+        <v>7910</v>
       </c>
       <c r="D1857" t="s">
         <v>1859</v>
@@ -33599,7 +34463,7 @@
         <v>33</v>
       </c>
       <c r="C1858">
-        <v>8150</v>
+        <v>8030</v>
       </c>
       <c r="D1858" t="s">
         <v>1860</v>
@@ -33613,7 +34477,7 @@
         <v>34</v>
       </c>
       <c r="C1859">
-        <v>8250</v>
+        <v>8130</v>
       </c>
       <c r="D1859" t="s">
         <v>1861</v>
@@ -33627,7 +34491,7 @@
         <v>35</v>
       </c>
       <c r="C1860">
-        <v>8330</v>
+        <v>8190</v>
       </c>
       <c r="D1860" t="s">
         <v>1862</v>
@@ -33641,7 +34505,7 @@
         <v>36</v>
       </c>
       <c r="C1861">
-        <v>8380</v>
+        <v>8210</v>
       </c>
       <c r="D1861" t="s">
         <v>1863</v>
@@ -33655,7 +34519,7 @@
         <v>37</v>
       </c>
       <c r="C1862">
-        <v>8400</v>
+        <v>8210</v>
       </c>
       <c r="D1862" t="s">
         <v>1864</v>
@@ -33669,7 +34533,7 @@
         <v>38</v>
       </c>
       <c r="C1863">
-        <v>8400</v>
+        <v>8200</v>
       </c>
       <c r="D1863" t="s">
         <v>1865</v>
@@ -33683,7 +34547,7 @@
         <v>39</v>
       </c>
       <c r="C1864">
-        <v>8400</v>
+        <v>8180</v>
       </c>
       <c r="D1864" t="s">
         <v>1866</v>
@@ -33697,7 +34561,7 @@
         <v>40</v>
       </c>
       <c r="C1865">
-        <v>8370</v>
+        <v>8150</v>
       </c>
       <c r="D1865" t="s">
         <v>1867</v>
@@ -33711,7 +34575,7 @@
         <v>41</v>
       </c>
       <c r="C1866">
-        <v>8340</v>
+        <v>8100</v>
       </c>
       <c r="D1866" t="s">
         <v>1868</v>
@@ -33725,7 +34589,7 @@
         <v>42</v>
       </c>
       <c r="C1867">
-        <v>8310</v>
+        <v>8060</v>
       </c>
       <c r="D1867" t="s">
         <v>1869</v>
@@ -33739,7 +34603,7 @@
         <v>43</v>
       </c>
       <c r="C1868">
-        <v>8280</v>
+        <v>8030</v>
       </c>
       <c r="D1868" t="s">
         <v>1870</v>
@@ -33753,7 +34617,7 @@
         <v>44</v>
       </c>
       <c r="C1869">
-        <v>8250</v>
+        <v>7980</v>
       </c>
       <c r="D1869" t="s">
         <v>1871</v>
@@ -33767,7 +34631,7 @@
         <v>45</v>
       </c>
       <c r="C1870">
-        <v>8230</v>
+        <v>7930</v>
       </c>
       <c r="D1870" t="s">
         <v>1872</v>
@@ -33781,7 +34645,7 @@
         <v>46</v>
       </c>
       <c r="C1871">
-        <v>8220</v>
+        <v>7900</v>
       </c>
       <c r="D1871" t="s">
         <v>1873</v>
@@ -33795,7 +34659,7 @@
         <v>47</v>
       </c>
       <c r="C1872">
-        <v>8210</v>
+        <v>7890</v>
       </c>
       <c r="D1872" t="s">
         <v>1874</v>
@@ -33809,7 +34673,7 @@
         <v>48</v>
       </c>
       <c r="C1873">
-        <v>8190</v>
+        <v>7880</v>
       </c>
       <c r="D1873" t="s">
         <v>1875</v>
@@ -33823,7 +34687,7 @@
         <v>49</v>
       </c>
       <c r="C1874">
-        <v>8180</v>
+        <v>7850</v>
       </c>
       <c r="D1874" t="s">
         <v>1876</v>
@@ -33837,7 +34701,7 @@
         <v>50</v>
       </c>
       <c r="C1875">
-        <v>8170</v>
+        <v>7850</v>
       </c>
       <c r="D1875" t="s">
         <v>1877</v>
@@ -33851,7 +34715,7 @@
         <v>51</v>
       </c>
       <c r="C1876">
-        <v>8150</v>
+        <v>7850</v>
       </c>
       <c r="D1876" t="s">
         <v>1878</v>
@@ -33865,7 +34729,7 @@
         <v>52</v>
       </c>
       <c r="C1877">
-        <v>8130</v>
+        <v>7850</v>
       </c>
       <c r="D1877" t="s">
         <v>1879</v>
@@ -33879,7 +34743,7 @@
         <v>53</v>
       </c>
       <c r="C1878">
-        <v>8120</v>
+        <v>7910</v>
       </c>
       <c r="D1878" t="s">
         <v>1880</v>
@@ -33893,7 +34757,7 @@
         <v>54</v>
       </c>
       <c r="C1879">
-        <v>8100</v>
+        <v>7930</v>
       </c>
       <c r="D1879" t="s">
         <v>1881</v>
@@ -33907,7 +34771,7 @@
         <v>55</v>
       </c>
       <c r="C1880">
-        <v>8100</v>
+        <v>7930</v>
       </c>
       <c r="D1880" t="s">
         <v>1882</v>
@@ -33921,7 +34785,7 @@
         <v>56</v>
       </c>
       <c r="C1881">
-        <v>8090</v>
+        <v>7910</v>
       </c>
       <c r="D1881" t="s">
         <v>1883</v>
@@ -33935,7 +34799,7 @@
         <v>57</v>
       </c>
       <c r="C1882">
-        <v>8100</v>
+        <v>7880</v>
       </c>
       <c r="D1882" t="s">
         <v>1884</v>
@@ -33949,7 +34813,7 @@
         <v>58</v>
       </c>
       <c r="C1883">
-        <v>8100</v>
+        <v>7850</v>
       </c>
       <c r="D1883" t="s">
         <v>1885</v>
@@ -33963,7 +34827,7 @@
         <v>59</v>
       </c>
       <c r="C1884">
-        <v>8110</v>
+        <v>7850</v>
       </c>
       <c r="D1884" t="s">
         <v>1886</v>
@@ -33977,7 +34841,7 @@
         <v>60</v>
       </c>
       <c r="C1885">
-        <v>8120</v>
+        <v>7850</v>
       </c>
       <c r="D1885" t="s">
         <v>1887</v>
@@ -33991,7 +34855,7 @@
         <v>61</v>
       </c>
       <c r="C1886">
-        <v>8120</v>
+        <v>7890</v>
       </c>
       <c r="D1886" t="s">
         <v>1888</v>
@@ -34005,7 +34869,7 @@
         <v>62</v>
       </c>
       <c r="C1887">
-        <v>8120</v>
+        <v>7910</v>
       </c>
       <c r="D1887" t="s">
         <v>1889</v>
@@ -34019,7 +34883,7 @@
         <v>63</v>
       </c>
       <c r="C1888">
-        <v>8110</v>
+        <v>7930</v>
       </c>
       <c r="D1888" t="s">
         <v>1890</v>
@@ -34033,7 +34897,7 @@
         <v>64</v>
       </c>
       <c r="C1889">
-        <v>8110</v>
+        <v>7960</v>
       </c>
       <c r="D1889" t="s">
         <v>1891</v>
@@ -34047,7 +34911,7 @@
         <v>65</v>
       </c>
       <c r="C1890">
-        <v>8120</v>
+        <v>8000</v>
       </c>
       <c r="D1890" t="s">
         <v>1892</v>
@@ -34061,7 +34925,7 @@
         <v>66</v>
       </c>
       <c r="C1891">
-        <v>8130</v>
+        <v>8040</v>
       </c>
       <c r="D1891" t="s">
         <v>1893</v>
@@ -34075,7 +34939,7 @@
         <v>67</v>
       </c>
       <c r="C1892">
-        <v>8160</v>
+        <v>8080</v>
       </c>
       <c r="D1892" t="s">
         <v>1894</v>
@@ -34089,7 +34953,7 @@
         <v>68</v>
       </c>
       <c r="C1893">
-        <v>8210</v>
+        <v>8130</v>
       </c>
       <c r="D1893" t="s">
         <v>1895</v>
@@ -34103,7 +34967,7 @@
         <v>69</v>
       </c>
       <c r="C1894">
-        <v>8260</v>
+        <v>8170</v>
       </c>
       <c r="D1894" t="s">
         <v>1896</v>
@@ -34117,7 +34981,7 @@
         <v>70</v>
       </c>
       <c r="C1895">
-        <v>8330</v>
+        <v>8230</v>
       </c>
       <c r="D1895" t="s">
         <v>1897</v>
@@ -34131,7 +34995,7 @@
         <v>71</v>
       </c>
       <c r="C1896">
-        <v>8390</v>
+        <v>8290</v>
       </c>
       <c r="D1896" t="s">
         <v>1898</v>
@@ -34145,7 +35009,7 @@
         <v>72</v>
       </c>
       <c r="C1897">
-        <v>8440</v>
+        <v>8360</v>
       </c>
       <c r="D1897" t="s">
         <v>1899</v>
@@ -34159,7 +35023,7 @@
         <v>73</v>
       </c>
       <c r="C1898">
-        <v>8480</v>
+        <v>8450</v>
       </c>
       <c r="D1898" t="s">
         <v>1900</v>
@@ -34187,7 +35051,7 @@
         <v>75</v>
       </c>
       <c r="C1900">
-        <v>8500</v>
+        <v>8510</v>
       </c>
       <c r="D1900" t="s">
         <v>1902</v>
@@ -34201,7 +35065,7 @@
         <v>76</v>
       </c>
       <c r="C1901">
-        <v>8500</v>
+        <v>8520</v>
       </c>
       <c r="D1901" t="s">
         <v>1903</v>
@@ -34229,7 +35093,7 @@
         <v>78</v>
       </c>
       <c r="C1903">
-        <v>8500</v>
+        <v>8480</v>
       </c>
       <c r="D1903" t="s">
         <v>1905</v>
@@ -34243,7 +35107,7 @@
         <v>79</v>
       </c>
       <c r="C1904">
-        <v>8480</v>
+        <v>8440</v>
       </c>
       <c r="D1904" t="s">
         <v>1906</v>
@@ -34257,7 +35121,7 @@
         <v>80</v>
       </c>
       <c r="C1905">
-        <v>8450</v>
+        <v>8400</v>
       </c>
       <c r="D1905" t="s">
         <v>1907</v>
@@ -34271,7 +35135,7 @@
         <v>81</v>
       </c>
       <c r="C1906">
-        <v>8420</v>
+        <v>8340</v>
       </c>
       <c r="D1906" t="s">
         <v>1908</v>
@@ -34285,7 +35149,7 @@
         <v>82</v>
       </c>
       <c r="C1907">
-        <v>8360</v>
+        <v>8290</v>
       </c>
       <c r="D1907" t="s">
         <v>1909</v>
@@ -34299,7 +35163,7 @@
         <v>83</v>
       </c>
       <c r="C1908">
-        <v>8270</v>
+        <v>8230</v>
       </c>
       <c r="D1908" t="s">
         <v>1910</v>
@@ -34313,7 +35177,7 @@
         <v>84</v>
       </c>
       <c r="C1909">
-        <v>8190</v>
+        <v>8160</v>
       </c>
       <c r="D1909" t="s">
         <v>1911</v>
@@ -34327,7 +35191,7 @@
         <v>85</v>
       </c>
       <c r="C1910">
-        <v>8060</v>
+        <v>8040</v>
       </c>
       <c r="D1910" t="s">
         <v>1912</v>
@@ -34341,7 +35205,7 @@
         <v>86</v>
       </c>
       <c r="C1911">
-        <v>7900</v>
+        <v>7920</v>
       </c>
       <c r="D1911" t="s">
         <v>1913</v>
@@ -34355,7 +35219,7 @@
         <v>87</v>
       </c>
       <c r="C1912">
-        <v>7800</v>
+        <v>7820</v>
       </c>
       <c r="D1912" t="s">
         <v>1914</v>
@@ -34383,7 +35247,7 @@
         <v>89</v>
       </c>
       <c r="C1914">
-        <v>7550</v>
+        <v>7520</v>
       </c>
       <c r="D1914" t="s">
         <v>1916</v>
@@ -34397,7 +35261,7 @@
         <v>90</v>
       </c>
       <c r="C1915">
-        <v>7440</v>
+        <v>7370</v>
       </c>
       <c r="D1915" t="s">
         <v>1917</v>
@@ -34411,7 +35275,7 @@
         <v>91</v>
       </c>
       <c r="C1916">
-        <v>7280</v>
+        <v>7200</v>
       </c>
       <c r="D1916" t="s">
         <v>1918</v>
@@ -34425,7 +35289,7 @@
         <v>92</v>
       </c>
       <c r="C1917">
-        <v>7110</v>
+        <v>7060</v>
       </c>
       <c r="D1917" t="s">
         <v>1919</v>
@@ -34439,7 +35303,7 @@
         <v>93</v>
       </c>
       <c r="C1918">
-        <v>6900</v>
+        <v>6940</v>
       </c>
       <c r="D1918" t="s">
         <v>1920</v>
@@ -34453,7 +35317,7 @@
         <v>94</v>
       </c>
       <c r="C1919">
-        <v>6710</v>
+        <v>6810</v>
       </c>
       <c r="D1919" t="s">
         <v>1921</v>
@@ -34467,7 +35331,7 @@
         <v>95</v>
       </c>
       <c r="C1920">
-        <v>6630</v>
+        <v>6690</v>
       </c>
       <c r="D1920" t="s">
         <v>1922</v>
@@ -34481,7 +35345,7 @@
         <v>96</v>
       </c>
       <c r="C1921">
-        <v>6520</v>
+        <v>6580</v>
       </c>
       <c r="D1921" t="s">
         <v>1923</v>
@@ -34495,7 +35359,7 @@
         <v>1</v>
       </c>
       <c r="C1922">
-        <v>6500</v>
+        <v>6440</v>
       </c>
       <c r="D1922" t="s">
         <v>1924</v>
@@ -34509,7 +35373,7 @@
         <v>2</v>
       </c>
       <c r="C1923">
-        <v>6460</v>
+        <v>6380</v>
       </c>
       <c r="D1923" t="s">
         <v>1925</v>
@@ -34523,7 +35387,7 @@
         <v>3</v>
       </c>
       <c r="C1924">
-        <v>6430</v>
+        <v>6330</v>
       </c>
       <c r="D1924" t="s">
         <v>1926</v>
@@ -34537,7 +35401,7 @@
         <v>4</v>
       </c>
       <c r="C1925">
-        <v>6370</v>
+        <v>6280</v>
       </c>
       <c r="D1925" t="s">
         <v>1927</v>
@@ -34551,7 +35415,7 @@
         <v>5</v>
       </c>
       <c r="C1926">
-        <v>6310</v>
+        <v>6230</v>
       </c>
       <c r="D1926" t="s">
         <v>1928</v>
@@ -34565,7 +35429,7 @@
         <v>6</v>
       </c>
       <c r="C1927">
-        <v>6270</v>
+        <v>6180</v>
       </c>
       <c r="D1927" t="s">
         <v>1929</v>
@@ -34579,7 +35443,7 @@
         <v>7</v>
       </c>
       <c r="C1928">
-        <v>6230</v>
+        <v>6150</v>
       </c>
       <c r="D1928" t="s">
         <v>1930</v>
@@ -34593,7 +35457,7 @@
         <v>8</v>
       </c>
       <c r="C1929">
-        <v>6200</v>
+        <v>6120</v>
       </c>
       <c r="D1929" t="s">
         <v>1931</v>
@@ -34607,7 +35471,7 @@
         <v>9</v>
       </c>
       <c r="C1930">
-        <v>6170</v>
+        <v>6090</v>
       </c>
       <c r="D1930" t="s">
         <v>1932</v>
@@ -34621,7 +35485,7 @@
         <v>10</v>
       </c>
       <c r="C1931">
-        <v>6160</v>
+        <v>6060</v>
       </c>
       <c r="D1931" t="s">
         <v>1933</v>
@@ -34635,7 +35499,7 @@
         <v>11</v>
       </c>
       <c r="C1932">
-        <v>6140</v>
+        <v>6040</v>
       </c>
       <c r="D1932" t="s">
         <v>1934</v>
@@ -34649,7 +35513,7 @@
         <v>12</v>
       </c>
       <c r="C1933">
-        <v>6130</v>
+        <v>6020</v>
       </c>
       <c r="D1933" t="s">
         <v>1935</v>
@@ -34663,7 +35527,7 @@
         <v>13</v>
       </c>
       <c r="C1934">
-        <v>6120</v>
+        <v>6010</v>
       </c>
       <c r="D1934" t="s">
         <v>1936</v>
@@ -34677,7 +35541,7 @@
         <v>14</v>
       </c>
       <c r="C1935">
-        <v>6100</v>
+        <v>6000</v>
       </c>
       <c r="D1935" t="s">
         <v>1937</v>
@@ -34691,7 +35555,7 @@
         <v>15</v>
       </c>
       <c r="C1936">
-        <v>6110</v>
+        <v>6000</v>
       </c>
       <c r="D1936" t="s">
         <v>1938</v>
@@ -34705,7 +35569,7 @@
         <v>16</v>
       </c>
       <c r="C1937">
-        <v>6120</v>
+        <v>6000</v>
       </c>
       <c r="D1937" t="s">
         <v>1939</v>
@@ -34719,7 +35583,7 @@
         <v>17</v>
       </c>
       <c r="C1938">
-        <v>6120</v>
+        <v>6010</v>
       </c>
       <c r="D1938" t="s">
         <v>1940</v>
@@ -34733,7 +35597,7 @@
         <v>18</v>
       </c>
       <c r="C1939">
-        <v>6140</v>
+        <v>6020</v>
       </c>
       <c r="D1939" t="s">
         <v>1941</v>
@@ -34747,7 +35611,7 @@
         <v>19</v>
       </c>
       <c r="C1940">
-        <v>6160</v>
+        <v>6040</v>
       </c>
       <c r="D1940" t="s">
         <v>1942</v>
@@ -34761,7 +35625,7 @@
         <v>20</v>
       </c>
       <c r="C1941">
-        <v>6180</v>
+        <v>6070</v>
       </c>
       <c r="D1941" t="s">
         <v>1943</v>
@@ -34775,7 +35639,7 @@
         <v>21</v>
       </c>
       <c r="C1942">
-        <v>6210</v>
+        <v>6110</v>
       </c>
       <c r="D1942" t="s">
         <v>1944</v>
@@ -34789,7 +35653,7 @@
         <v>22</v>
       </c>
       <c r="C1943">
-        <v>6240</v>
+        <v>6150</v>
       </c>
       <c r="D1943" t="s">
         <v>1945</v>
@@ -34803,7 +35667,7 @@
         <v>23</v>
       </c>
       <c r="C1944">
-        <v>6270</v>
+        <v>6200</v>
       </c>
       <c r="D1944" t="s">
         <v>1946</v>
@@ -34817,7 +35681,7 @@
         <v>24</v>
       </c>
       <c r="C1945">
-        <v>6320</v>
+        <v>6250</v>
       </c>
       <c r="D1945" t="s">
         <v>1947</v>
@@ -34831,7 +35695,7 @@
         <v>25</v>
       </c>
       <c r="C1946">
-        <v>6370</v>
+        <v>6310</v>
       </c>
       <c r="D1946" t="s">
         <v>1948</v>
@@ -34845,7 +35709,7 @@
         <v>26</v>
       </c>
       <c r="C1947">
-        <v>6430</v>
+        <v>6370</v>
       </c>
       <c r="D1947" t="s">
         <v>1949</v>
@@ -34859,7 +35723,7 @@
         <v>27</v>
       </c>
       <c r="C1948">
-        <v>6500</v>
+        <v>6430</v>
       </c>
       <c r="D1948" t="s">
         <v>1950</v>
@@ -34873,7 +35737,7 @@
         <v>28</v>
       </c>
       <c r="C1949">
-        <v>6580</v>
+        <v>6500</v>
       </c>
       <c r="D1949" t="s">
         <v>1951</v>
@@ -34887,7 +35751,7 @@
         <v>29</v>
       </c>
       <c r="C1950">
-        <v>6670</v>
+        <v>6580</v>
       </c>
       <c r="D1950" t="s">
         <v>1952</v>
@@ -34901,7 +35765,7 @@
         <v>30</v>
       </c>
       <c r="C1951">
-        <v>6760</v>
+        <v>6660</v>
       </c>
       <c r="D1951" t="s">
         <v>1953</v>
@@ -34915,7 +35779,7 @@
         <v>31</v>
       </c>
       <c r="C1952">
-        <v>6860</v>
+        <v>6750</v>
       </c>
       <c r="D1952" t="s">
         <v>1954</v>
@@ -34929,7 +35793,7 @@
         <v>32</v>
       </c>
       <c r="C1953">
-        <v>6970</v>
+        <v>6850</v>
       </c>
       <c r="D1953" t="s">
         <v>1955</v>
@@ -34943,7 +35807,7 @@
         <v>33</v>
       </c>
       <c r="C1954">
-        <v>7070</v>
+        <v>6950</v>
       </c>
       <c r="D1954" t="s">
         <v>1956</v>
@@ -34957,7 +35821,7 @@
         <v>34</v>
       </c>
       <c r="C1955">
-        <v>7160</v>
+        <v>7060</v>
       </c>
       <c r="D1955" t="s">
         <v>1957</v>
@@ -34971,7 +35835,7 @@
         <v>35</v>
       </c>
       <c r="C1956">
-        <v>7250</v>
+        <v>7150</v>
       </c>
       <c r="D1956" t="s">
         <v>1958</v>
@@ -34985,7 +35849,7 @@
         <v>36</v>
       </c>
       <c r="C1957">
-        <v>7320</v>
+        <v>7250</v>
       </c>
       <c r="D1957" t="s">
         <v>1959</v>
@@ -34999,7 +35863,7 @@
         <v>37</v>
       </c>
       <c r="C1958">
-        <v>7380</v>
+        <v>7330</v>
       </c>
       <c r="D1958" t="s">
         <v>1960</v>
@@ -35013,7 +35877,7 @@
         <v>38</v>
       </c>
       <c r="C1959">
-        <v>7430</v>
+        <v>7390</v>
       </c>
       <c r="D1959" t="s">
         <v>1961</v>
@@ -35027,7 +35891,7 @@
         <v>39</v>
       </c>
       <c r="C1960">
-        <v>7460</v>
+        <v>7440</v>
       </c>
       <c r="D1960" t="s">
         <v>1962</v>
@@ -35069,7 +35933,7 @@
         <v>42</v>
       </c>
       <c r="C1963">
-        <v>7500</v>
+        <v>7520</v>
       </c>
       <c r="D1963" t="s">
         <v>1965</v>
@@ -35083,7 +35947,7 @@
         <v>43</v>
       </c>
       <c r="C1964">
-        <v>7490</v>
+        <v>7520</v>
       </c>
       <c r="D1964" t="s">
         <v>1966</v>
@@ -35097,7 +35961,7 @@
         <v>44</v>
       </c>
       <c r="C1965">
-        <v>7480</v>
+        <v>7520</v>
       </c>
       <c r="D1965" t="s">
         <v>1967</v>
@@ -35111,7 +35975,7 @@
         <v>45</v>
       </c>
       <c r="C1966">
-        <v>7470</v>
+        <v>7510</v>
       </c>
       <c r="D1966" t="s">
         <v>1968</v>
@@ -35125,7 +35989,7 @@
         <v>46</v>
       </c>
       <c r="C1967">
-        <v>7450</v>
+        <v>7500</v>
       </c>
       <c r="D1967" t="s">
         <v>1969</v>
@@ -35139,7 +36003,7 @@
         <v>47</v>
       </c>
       <c r="C1968">
-        <v>7420</v>
+        <v>7500</v>
       </c>
       <c r="D1968" t="s">
         <v>1970</v>
@@ -35153,7 +36017,7 @@
         <v>48</v>
       </c>
       <c r="C1969">
-        <v>7400</v>
+        <v>7490</v>
       </c>
       <c r="D1969" t="s">
         <v>1971</v>
@@ -35167,7 +36031,7 @@
         <v>49</v>
       </c>
       <c r="C1970">
-        <v>7370</v>
+        <v>7480</v>
       </c>
       <c r="D1970" t="s">
         <v>1972</v>
@@ -35181,7 +36045,7 @@
         <v>50</v>
       </c>
       <c r="C1971">
-        <v>7340</v>
+        <v>7470</v>
       </c>
       <c r="D1971" t="s">
         <v>1973</v>
@@ -35195,7 +36059,7 @@
         <v>51</v>
       </c>
       <c r="C1972">
-        <v>7310</v>
+        <v>7460</v>
       </c>
       <c r="D1972" t="s">
         <v>1974</v>
@@ -35209,7 +36073,7 @@
         <v>52</v>
       </c>
       <c r="C1973">
-        <v>7280</v>
+        <v>7450</v>
       </c>
       <c r="D1973" t="s">
         <v>1975</v>
@@ -35223,7 +36087,7 @@
         <v>53</v>
       </c>
       <c r="C1974">
-        <v>7260</v>
+        <v>7440</v>
       </c>
       <c r="D1974" t="s">
         <v>1976</v>
@@ -35237,7 +36101,7 @@
         <v>54</v>
       </c>
       <c r="C1975">
-        <v>7250</v>
+        <v>7430</v>
       </c>
       <c r="D1975" t="s">
         <v>1977</v>
@@ -35251,7 +36115,7 @@
         <v>55</v>
       </c>
       <c r="C1976">
-        <v>7250</v>
+        <v>7420</v>
       </c>
       <c r="D1976" t="s">
         <v>1978</v>
@@ -35265,7 +36129,7 @@
         <v>56</v>
       </c>
       <c r="C1977">
-        <v>7240</v>
+        <v>7410</v>
       </c>
       <c r="D1977" t="s">
         <v>1979</v>
@@ -35279,7 +36143,7 @@
         <v>57</v>
       </c>
       <c r="C1978">
-        <v>7250</v>
+        <v>7410</v>
       </c>
       <c r="D1978" t="s">
         <v>1980</v>
@@ -35293,7 +36157,7 @@
         <v>58</v>
       </c>
       <c r="C1979">
-        <v>7250</v>
+        <v>7410</v>
       </c>
       <c r="D1979" t="s">
         <v>1981</v>
@@ -35307,7 +36171,7 @@
         <v>59</v>
       </c>
       <c r="C1980">
-        <v>7250</v>
+        <v>7410</v>
       </c>
       <c r="D1980" t="s">
         <v>1982</v>
@@ -35321,7 +36185,7 @@
         <v>60</v>
       </c>
       <c r="C1981">
-        <v>7250</v>
+        <v>7410</v>
       </c>
       <c r="D1981" t="s">
         <v>1983</v>
@@ -35335,7 +36199,7 @@
         <v>61</v>
       </c>
       <c r="C1982">
-        <v>7240</v>
+        <v>7410</v>
       </c>
       <c r="D1982" t="s">
         <v>1984</v>
@@ -35349,7 +36213,7 @@
         <v>62</v>
       </c>
       <c r="C1983">
-        <v>7230</v>
+        <v>7420</v>
       </c>
       <c r="D1983" t="s">
         <v>1985</v>
@@ -35363,7 +36227,7 @@
         <v>63</v>
       </c>
       <c r="C1984">
-        <v>7220</v>
+        <v>7420</v>
       </c>
       <c r="D1984" t="s">
         <v>1986</v>
@@ -35377,7 +36241,7 @@
         <v>64</v>
       </c>
       <c r="C1985">
-        <v>7220</v>
+        <v>7430</v>
       </c>
       <c r="D1985" t="s">
         <v>1987</v>
@@ -35391,7 +36255,7 @@
         <v>65</v>
       </c>
       <c r="C1986">
-        <v>7240</v>
+        <v>7440</v>
       </c>
       <c r="D1986" t="s">
         <v>1988</v>
@@ -35405,7 +36269,7 @@
         <v>66</v>
       </c>
       <c r="C1987">
-        <v>7270</v>
+        <v>7470</v>
       </c>
       <c r="D1987" t="s">
         <v>1989</v>
@@ -35419,7 +36283,7 @@
         <v>67</v>
       </c>
       <c r="C1988">
-        <v>7330</v>
+        <v>7510</v>
       </c>
       <c r="D1988" t="s">
         <v>1990</v>
@@ -35433,7 +36297,7 @@
         <v>68</v>
       </c>
       <c r="C1989">
-        <v>7400</v>
+        <v>7560</v>
       </c>
       <c r="D1989" t="s">
         <v>1991</v>
@@ -35447,7 +36311,7 @@
         <v>69</v>
       </c>
       <c r="C1990">
-        <v>7500</v>
+        <v>7620</v>
       </c>
       <c r="D1990" t="s">
         <v>1992</v>
@@ -35461,7 +36325,7 @@
         <v>70</v>
       </c>
       <c r="C1991">
-        <v>7600</v>
+        <v>7700</v>
       </c>
       <c r="D1991" t="s">
         <v>1993</v>
@@ -35475,7 +36339,7 @@
         <v>71</v>
       </c>
       <c r="C1992">
-        <v>7700</v>
+        <v>7770</v>
       </c>
       <c r="D1992" t="s">
         <v>1994</v>
@@ -35489,7 +36353,7 @@
         <v>72</v>
       </c>
       <c r="C1993">
-        <v>7800</v>
+        <v>7840</v>
       </c>
       <c r="D1993" t="s">
         <v>1995</v>
@@ -35503,7 +36367,7 @@
         <v>73</v>
       </c>
       <c r="C1994">
-        <v>7880</v>
+        <v>7900</v>
       </c>
       <c r="D1994" t="s">
         <v>1996</v>
@@ -35517,7 +36381,7 @@
         <v>74</v>
       </c>
       <c r="C1995">
-        <v>7940</v>
+        <v>7950</v>
       </c>
       <c r="D1995" t="s">
         <v>1997</v>
@@ -35545,7 +36409,7 @@
         <v>76</v>
       </c>
       <c r="C1997">
-        <v>8000</v>
+        <v>8010</v>
       </c>
       <c r="D1997" t="s">
         <v>1999</v>
@@ -35559,7 +36423,7 @@
         <v>77</v>
       </c>
       <c r="C1998">
-        <v>8000</v>
+        <v>8020</v>
       </c>
       <c r="D1998" t="s">
         <v>2000</v>
@@ -35573,7 +36437,7 @@
         <v>78</v>
       </c>
       <c r="C1999">
-        <v>8000</v>
+        <v>8010</v>
       </c>
       <c r="D1999" t="s">
         <v>2001</v>
@@ -35587,7 +36451,7 @@
         <v>79</v>
       </c>
       <c r="C2000">
-        <v>8000</v>
+        <v>7980</v>
       </c>
       <c r="D2000" t="s">
         <v>2002</v>
@@ -35601,7 +36465,7 @@
         <v>80</v>
       </c>
       <c r="C2001">
-        <v>7960</v>
+        <v>7940</v>
       </c>
       <c r="D2001" t="s">
         <v>2003</v>
@@ -35615,7 +36479,7 @@
         <v>81</v>
       </c>
       <c r="C2002">
-        <v>7920</v>
+        <v>7880</v>
       </c>
       <c r="D2002" t="s">
         <v>2004</v>
@@ -35629,7 +36493,7 @@
         <v>82</v>
       </c>
       <c r="C2003">
-        <v>7880</v>
+        <v>7830</v>
       </c>
       <c r="D2003" t="s">
         <v>2005</v>
@@ -35643,7 +36507,7 @@
         <v>83</v>
       </c>
       <c r="C2004">
-        <v>7820</v>
+        <v>7760</v>
       </c>
       <c r="D2004" t="s">
         <v>2006</v>
@@ -35657,7 +36521,7 @@
         <v>84</v>
       </c>
       <c r="C2005">
-        <v>7760</v>
+        <v>7680</v>
       </c>
       <c r="D2005" t="s">
         <v>2007</v>
@@ -35671,7 +36535,7 @@
         <v>85</v>
       </c>
       <c r="C2006">
-        <v>7640</v>
+        <v>7580</v>
       </c>
       <c r="D2006" t="s">
         <v>2008</v>
@@ -35685,7 +36549,7 @@
         <v>86</v>
       </c>
       <c r="C2007">
-        <v>7500</v>
+        <v>7470</v>
       </c>
       <c r="D2007" t="s">
         <v>2009</v>
@@ -35699,7 +36563,7 @@
         <v>87</v>
       </c>
       <c r="C2008">
-        <v>7420</v>
+        <v>7360</v>
       </c>
       <c r="D2008" t="s">
         <v>2010</v>
@@ -35713,7 +36577,7 @@
         <v>88</v>
       </c>
       <c r="C2009">
-        <v>7310</v>
+        <v>7250</v>
       </c>
       <c r="D2009" t="s">
         <v>2011</v>
@@ -35727,7 +36591,7 @@
         <v>89</v>
       </c>
       <c r="C2010">
-        <v>7160</v>
+        <v>7110</v>
       </c>
       <c r="D2010" t="s">
         <v>2012</v>
@@ -35741,7 +36605,7 @@
         <v>90</v>
       </c>
       <c r="C2011">
-        <v>7030</v>
+        <v>6980</v>
       </c>
       <c r="D2011" t="s">
         <v>2013</v>
@@ -35755,7 +36619,7 @@
         <v>91</v>
       </c>
       <c r="C2012">
-        <v>6860</v>
+        <v>6840</v>
       </c>
       <c r="D2012" t="s">
         <v>2014</v>
@@ -35769,7 +36633,7 @@
         <v>92</v>
       </c>
       <c r="C2013">
-        <v>6750</v>
+        <v>6700</v>
       </c>
       <c r="D2013" t="s">
         <v>2015</v>
@@ -35783,7 +36647,7 @@
         <v>93</v>
       </c>
       <c r="C2014">
-        <v>6650</v>
+        <v>6580</v>
       </c>
       <c r="D2014" t="s">
         <v>2016</v>
@@ -35797,7 +36661,7 @@
         <v>94</v>
       </c>
       <c r="C2015">
-        <v>6500</v>
+        <v>6460</v>
       </c>
       <c r="D2015" t="s">
         <v>2017</v>
@@ -35811,7 +36675,7 @@
         <v>95</v>
       </c>
       <c r="C2016">
-        <v>6410</v>
+        <v>6350</v>
       </c>
       <c r="D2016" t="s">
         <v>2018</v>
@@ -35825,7 +36689,7 @@
         <v>96</v>
       </c>
       <c r="C2017">
-        <v>6300</v>
+        <v>6250</v>
       </c>
       <c r="D2017" t="s">
         <v>2019</v>
@@ -35839,7 +36703,7 @@
         <v>1</v>
       </c>
       <c r="C2018">
-        <v>6080</v>
+        <v>6230</v>
       </c>
       <c r="D2018" t="s">
         <v>2020</v>
@@ -35853,7 +36717,7 @@
         <v>2</v>
       </c>
       <c r="C2019">
-        <v>6000</v>
+        <v>6200</v>
       </c>
       <c r="D2019" t="s">
         <v>2021</v>
@@ -35867,7 +36731,7 @@
         <v>3</v>
       </c>
       <c r="C2020">
-        <v>5930</v>
+        <v>6160</v>
       </c>
       <c r="D2020" t="s">
         <v>2022</v>
@@ -35881,7 +36745,7 @@
         <v>4</v>
       </c>
       <c r="C2021">
-        <v>5860</v>
+        <v>6100</v>
       </c>
       <c r="D2021" t="s">
         <v>2023</v>
@@ -35895,7 +36759,7 @@
         <v>5</v>
       </c>
       <c r="C2022">
-        <v>5800</v>
+        <v>6030</v>
       </c>
       <c r="D2022" t="s">
         <v>2024</v>
@@ -35909,7 +36773,7 @@
         <v>6</v>
       </c>
       <c r="C2023">
-        <v>5750</v>
+        <v>5970</v>
       </c>
       <c r="D2023" t="s">
         <v>2025</v>
@@ -35923,7 +36787,7 @@
         <v>7</v>
       </c>
       <c r="C2024">
-        <v>5720</v>
+        <v>5920</v>
       </c>
       <c r="D2024" t="s">
         <v>2026</v>
@@ -35937,7 +36801,7 @@
         <v>8</v>
       </c>
       <c r="C2025">
-        <v>5690</v>
+        <v>5870</v>
       </c>
       <c r="D2025" t="s">
         <v>2027</v>
@@ -35951,7 +36815,7 @@
         <v>9</v>
       </c>
       <c r="C2026">
-        <v>5670</v>
+        <v>5830</v>
       </c>
       <c r="D2026" t="s">
         <v>2028</v>
@@ -35965,7 +36829,7 @@
         <v>10</v>
       </c>
       <c r="C2027">
-        <v>5660</v>
+        <v>5790</v>
       </c>
       <c r="D2027" t="s">
         <v>2029</v>
@@ -35979,7 +36843,7 @@
         <v>11</v>
       </c>
       <c r="C2028">
-        <v>5630</v>
+        <v>5760</v>
       </c>
       <c r="D2028" t="s">
         <v>2030</v>
@@ -35993,7 +36857,7 @@
         <v>12</v>
       </c>
       <c r="C2029">
-        <v>5590</v>
+        <v>5740</v>
       </c>
       <c r="D2029" t="s">
         <v>2031</v>
@@ -36007,7 +36871,7 @@
         <v>13</v>
       </c>
       <c r="C2030">
-        <v>5550</v>
+        <v>5720</v>
       </c>
       <c r="D2030" t="s">
         <v>2032</v>
@@ -36021,7 +36885,7 @@
         <v>14</v>
       </c>
       <c r="C2031">
-        <v>5530</v>
+        <v>5700</v>
       </c>
       <c r="D2031" t="s">
         <v>2033</v>
@@ -36035,7 +36899,7 @@
         <v>15</v>
       </c>
       <c r="C2032">
-        <v>5500</v>
+        <v>5710</v>
       </c>
       <c r="D2032" t="s">
         <v>2034</v>
@@ -36049,7 +36913,7 @@
         <v>16</v>
       </c>
       <c r="C2033">
-        <v>5510</v>
+        <v>5710</v>
       </c>
       <c r="D2033" t="s">
         <v>2035</v>
@@ -36063,7 +36927,7 @@
         <v>17</v>
       </c>
       <c r="C2034">
-        <v>5530</v>
+        <v>5710</v>
       </c>
       <c r="D2034" t="s">
         <v>2036</v>
@@ -36077,7 +36941,7 @@
         <v>18</v>
       </c>
       <c r="C2035">
-        <v>5550</v>
+        <v>5720</v>
       </c>
       <c r="D2035" t="s">
         <v>2037</v>
@@ -36091,7 +36955,7 @@
         <v>19</v>
       </c>
       <c r="C2036">
-        <v>5590</v>
+        <v>5730</v>
       </c>
       <c r="D2036" t="s">
         <v>2038</v>
@@ -36105,7 +36969,7 @@
         <v>20</v>
       </c>
       <c r="C2037">
-        <v>5630</v>
+        <v>5750</v>
       </c>
       <c r="D2037" t="s">
         <v>2039</v>
@@ -36119,7 +36983,7 @@
         <v>21</v>
       </c>
       <c r="C2038">
-        <v>5660</v>
+        <v>5770</v>
       </c>
       <c r="D2038" t="s">
         <v>2040</v>
@@ -36133,7 +36997,7 @@
         <v>22</v>
       </c>
       <c r="C2039">
-        <v>5700</v>
+        <v>5790</v>
       </c>
       <c r="D2039" t="s">
         <v>2041</v>
@@ -36147,7 +37011,7 @@
         <v>23</v>
       </c>
       <c r="C2040">
-        <v>5730</v>
+        <v>5820</v>
       </c>
       <c r="D2040" t="s">
         <v>2042</v>
@@ -36161,7 +37025,7 @@
         <v>24</v>
       </c>
       <c r="C2041">
-        <v>5770</v>
+        <v>5850</v>
       </c>
       <c r="D2041" t="s">
         <v>2043</v>
@@ -36175,7 +37039,7 @@
         <v>25</v>
       </c>
       <c r="C2042">
-        <v>5800</v>
+        <v>5890</v>
       </c>
       <c r="D2042" t="s">
         <v>2044</v>
@@ -36189,7 +37053,7 @@
         <v>26</v>
       </c>
       <c r="C2043">
-        <v>5840</v>
+        <v>5940</v>
       </c>
       <c r="D2043" t="s">
         <v>2045</v>
@@ -36203,7 +37067,7 @@
         <v>27</v>
       </c>
       <c r="C2044">
-        <v>5880</v>
+        <v>6000</v>
       </c>
       <c r="D2044" t="s">
         <v>2046</v>
@@ -36217,7 +37081,7 @@
         <v>28</v>
       </c>
       <c r="C2045">
-        <v>5910</v>
+        <v>6050</v>
       </c>
       <c r="D2045" t="s">
         <v>2047</v>
@@ -36231,7 +37095,7 @@
         <v>29</v>
       </c>
       <c r="C2046">
-        <v>5940</v>
+        <v>6110</v>
       </c>
       <c r="D2046" t="s">
         <v>2048</v>
@@ -36245,7 +37109,7 @@
         <v>30</v>
       </c>
       <c r="C2047">
-        <v>5970</v>
+        <v>6170</v>
       </c>
       <c r="D2047" t="s">
         <v>2049</v>
@@ -36259,7 +37123,7 @@
         <v>31</v>
       </c>
       <c r="C2048">
-        <v>6010</v>
+        <v>6220</v>
       </c>
       <c r="D2048" t="s">
         <v>2050</v>
@@ -36273,7 +37137,7 @@
         <v>32</v>
       </c>
       <c r="C2049">
-        <v>6040</v>
+        <v>6270</v>
       </c>
       <c r="D2049" t="s">
         <v>2051</v>
@@ -36287,7 +37151,7 @@
         <v>33</v>
       </c>
       <c r="C2050">
-        <v>6070</v>
+        <v>6310</v>
       </c>
       <c r="D2050" t="s">
         <v>2052</v>
@@ -36301,7 +37165,7 @@
         <v>34</v>
       </c>
       <c r="C2051">
-        <v>6090</v>
+        <v>6330</v>
       </c>
       <c r="D2051" t="s">
         <v>2053</v>
@@ -36315,7 +37179,7 @@
         <v>35</v>
       </c>
       <c r="C2052">
-        <v>6100</v>
+        <v>6340</v>
       </c>
       <c r="D2052" t="s">
         <v>2054</v>
@@ -36329,7 +37193,7 @@
         <v>36</v>
       </c>
       <c r="C2053">
-        <v>6090</v>
+        <v>6350</v>
       </c>
       <c r="D2053" t="s">
         <v>2055</v>
@@ -36343,7 +37207,7 @@
         <v>37</v>
       </c>
       <c r="C2054">
-        <v>6070</v>
+        <v>6320</v>
       </c>
       <c r="D2054" t="s">
         <v>2056</v>
@@ -36357,7 +37221,7 @@
         <v>38</v>
       </c>
       <c r="C2055">
-        <v>6030</v>
+        <v>6290</v>
       </c>
       <c r="D2055" t="s">
         <v>2057</v>
@@ -36371,7 +37235,7 @@
         <v>39</v>
       </c>
       <c r="C2056">
-        <v>5990</v>
+        <v>6250</v>
       </c>
       <c r="D2056" t="s">
         <v>2058</v>
@@ -36385,7 +37249,7 @@
         <v>40</v>
       </c>
       <c r="C2057">
-        <v>5940</v>
+        <v>6200</v>
       </c>
       <c r="D2057" t="s">
         <v>2059</v>
@@ -36399,7 +37263,7 @@
         <v>41</v>
       </c>
       <c r="C2058">
-        <v>5870</v>
+        <v>6140</v>
       </c>
       <c r="D2058" t="s">
         <v>2060</v>
@@ -36413,7 +37277,7 @@
         <v>42</v>
       </c>
       <c r="C2059">
-        <v>5820</v>
+        <v>6090</v>
       </c>
       <c r="D2059" t="s">
         <v>2061</v>
@@ -36427,7 +37291,7 @@
         <v>43</v>
       </c>
       <c r="C2060">
-        <v>5770</v>
+        <v>6030</v>
       </c>
       <c r="D2060" t="s">
         <v>2062</v>
@@ -36441,7 +37305,7 @@
         <v>44</v>
       </c>
       <c r="C2061">
-        <v>5720</v>
+        <v>5980</v>
       </c>
       <c r="D2061" t="s">
         <v>2063</v>
@@ -36455,7 +37319,7 @@
         <v>45</v>
       </c>
       <c r="C2062">
-        <v>5680</v>
+        <v>5940</v>
       </c>
       <c r="D2062" t="s">
         <v>2064</v>
@@ -36469,7 +37333,7 @@
         <v>46</v>
       </c>
       <c r="C2063">
-        <v>5650</v>
+        <v>5900</v>
       </c>
       <c r="D2063" t="s">
         <v>2065</v>
@@ -36483,7 +37347,7 @@
         <v>47</v>
       </c>
       <c r="C2064">
-        <v>5620</v>
+        <v>5880</v>
       </c>
       <c r="D2064" t="s">
         <v>2066</v>
@@ -36497,7 +37361,7 @@
         <v>48</v>
       </c>
       <c r="C2065">
-        <v>5590</v>
+        <v>5860</v>
       </c>
       <c r="D2065" t="s">
         <v>2067</v>
@@ -36511,7 +37375,7 @@
         <v>49</v>
       </c>
       <c r="C2066">
-        <v>5560</v>
+        <v>5840</v>
       </c>
       <c r="D2066" t="s">
         <v>2068</v>
@@ -36525,7 +37389,7 @@
         <v>50</v>
       </c>
       <c r="C2067">
-        <v>5540</v>
+        <v>5830</v>
       </c>
       <c r="D2067" t="s">
         <v>2069</v>
@@ -36539,7 +37403,7 @@
         <v>51</v>
       </c>
       <c r="C2068">
-        <v>5530</v>
+        <v>5820</v>
       </c>
       <c r="D2068" t="s">
         <v>2070</v>
@@ -36553,7 +37417,7 @@
         <v>52</v>
       </c>
       <c r="C2069">
-        <v>5530</v>
+        <v>5820</v>
       </c>
       <c r="D2069" t="s">
         <v>2071</v>
@@ -36567,7 +37431,7 @@
         <v>53</v>
       </c>
       <c r="C2070">
-        <v>5530</v>
+        <v>5810</v>
       </c>
       <c r="D2070" t="s">
         <v>2072</v>
@@ -36581,7 +37445,7 @@
         <v>54</v>
       </c>
       <c r="C2071">
-        <v>5530</v>
+        <v>5810</v>
       </c>
       <c r="D2071" t="s">
         <v>2073</v>
@@ -36595,7 +37459,7 @@
         <v>55</v>
       </c>
       <c r="C2072">
-        <v>5530</v>
+        <v>5800</v>
       </c>
       <c r="D2072" t="s">
         <v>2074</v>
@@ -36609,7 +37473,7 @@
         <v>56</v>
       </c>
       <c r="C2073">
-        <v>5530</v>
+        <v>5810</v>
       </c>
       <c r="D2073" t="s">
         <v>2075</v>
@@ -36623,7 +37487,7 @@
         <v>57</v>
       </c>
       <c r="C2074">
-        <v>5530</v>
+        <v>5810</v>
       </c>
       <c r="D2074" t="s">
         <v>2076</v>
@@ -36637,7 +37501,7 @@
         <v>58</v>
       </c>
       <c r="C2075">
-        <v>5540</v>
+        <v>5830</v>
       </c>
       <c r="D2075" t="s">
         <v>2077</v>
@@ -36651,7 +37515,7 @@
         <v>59</v>
       </c>
       <c r="C2076">
-        <v>5560</v>
+        <v>5860</v>
       </c>
       <c r="D2076" t="s">
         <v>2078</v>
@@ -36665,7 +37529,7 @@
         <v>60</v>
       </c>
       <c r="C2077">
-        <v>5600</v>
+        <v>5890</v>
       </c>
       <c r="D2077" t="s">
         <v>2079</v>
@@ -36679,7 +37543,7 @@
         <v>61</v>
       </c>
       <c r="C2078">
-        <v>5650</v>
+        <v>5950</v>
       </c>
       <c r="D2078" t="s">
         <v>2080</v>
@@ -36693,7 +37557,7 @@
         <v>62</v>
       </c>
       <c r="C2079">
-        <v>5720</v>
+        <v>6010</v>
       </c>
       <c r="D2079" t="s">
         <v>2081</v>
@@ -36707,7 +37571,7 @@
         <v>63</v>
       </c>
       <c r="C2080">
-        <v>5810</v>
+        <v>6090</v>
       </c>
       <c r="D2080" t="s">
         <v>2082</v>
@@ -36721,7 +37585,7 @@
         <v>64</v>
       </c>
       <c r="C2081">
-        <v>5920</v>
+        <v>6180</v>
       </c>
       <c r="D2081" t="s">
         <v>2083</v>
@@ -36735,7 +37599,7 @@
         <v>65</v>
       </c>
       <c r="C2082">
-        <v>6050</v>
+        <v>6280</v>
       </c>
       <c r="D2082" t="s">
         <v>2084</v>
@@ -36749,7 +37613,7 @@
         <v>66</v>
       </c>
       <c r="C2083">
-        <v>6170</v>
+        <v>6390</v>
       </c>
       <c r="D2083" t="s">
         <v>2085</v>
@@ -36763,7 +37627,7 @@
         <v>67</v>
       </c>
       <c r="C2084">
-        <v>6290</v>
+        <v>6510</v>
       </c>
       <c r="D2084" t="s">
         <v>2086</v>
@@ -36777,7 +37641,7 @@
         <v>68</v>
       </c>
       <c r="C2085">
-        <v>6390</v>
+        <v>6640</v>
       </c>
       <c r="D2085" t="s">
         <v>2087</v>
@@ -36791,7 +37655,7 @@
         <v>69</v>
       </c>
       <c r="C2086">
-        <v>6490</v>
+        <v>6770</v>
       </c>
       <c r="D2086" t="s">
         <v>2088</v>
@@ -36805,7 +37669,7 @@
         <v>70</v>
       </c>
       <c r="C2087">
-        <v>6600</v>
+        <v>6900</v>
       </c>
       <c r="D2087" t="s">
         <v>2089</v>
@@ -36819,7 +37683,7 @@
         <v>71</v>
       </c>
       <c r="C2088">
-        <v>6740</v>
+        <v>7030</v>
       </c>
       <c r="D2088" t="s">
         <v>2090</v>
@@ -36833,7 +37697,7 @@
         <v>72</v>
       </c>
       <c r="C2089">
-        <v>6890</v>
+        <v>7150</v>
       </c>
       <c r="D2089" t="s">
         <v>2091</v>
@@ -36847,7 +37711,7 @@
         <v>73</v>
       </c>
       <c r="C2090">
-        <v>7070</v>
+        <v>7250</v>
       </c>
       <c r="D2090" t="s">
         <v>2092</v>
@@ -36861,7 +37725,7 @@
         <v>74</v>
       </c>
       <c r="C2091">
-        <v>7210</v>
+        <v>7340</v>
       </c>
       <c r="D2091" t="s">
         <v>2093</v>
@@ -36875,7 +37739,7 @@
         <v>75</v>
       </c>
       <c r="C2092">
-        <v>7280</v>
+        <v>7410</v>
       </c>
       <c r="D2092" t="s">
         <v>2094</v>
@@ -36889,7 +37753,7 @@
         <v>76</v>
       </c>
       <c r="C2093">
-        <v>7300</v>
+        <v>7450</v>
       </c>
       <c r="D2093" t="s">
         <v>2095</v>
@@ -36903,7 +37767,7 @@
         <v>77</v>
       </c>
       <c r="C2094">
-        <v>7300</v>
+        <v>7450</v>
       </c>
       <c r="D2094" t="s">
         <v>2096</v>
@@ -36917,7 +37781,7 @@
         <v>78</v>
       </c>
       <c r="C2095">
-        <v>7280</v>
+        <v>7450</v>
       </c>
       <c r="D2095" t="s">
         <v>2097</v>
@@ -36931,7 +37795,7 @@
         <v>79</v>
       </c>
       <c r="C2096">
-        <v>7260</v>
+        <v>7450</v>
       </c>
       <c r="D2096" t="s">
         <v>2098</v>
@@ -36945,7 +37809,7 @@
         <v>80</v>
       </c>
       <c r="C2097">
-        <v>7250</v>
+        <v>7430</v>
       </c>
       <c r="D2097" t="s">
         <v>2099</v>
@@ -36959,7 +37823,7 @@
         <v>81</v>
       </c>
       <c r="C2098">
-        <v>7230</v>
+        <v>7420</v>
       </c>
       <c r="D2098" t="s">
         <v>2100</v>
@@ -36973,7 +37837,7 @@
         <v>82</v>
       </c>
       <c r="C2099">
-        <v>7190</v>
+        <v>7410</v>
       </c>
       <c r="D2099" t="s">
         <v>2101</v>
@@ -36987,7 +37851,7 @@
         <v>83</v>
       </c>
       <c r="C2100">
-        <v>7150</v>
+        <v>7370</v>
       </c>
       <c r="D2100" t="s">
         <v>2102</v>
@@ -37001,7 +37865,7 @@
         <v>84</v>
       </c>
       <c r="C2101">
-        <v>7090</v>
+        <v>7320</v>
       </c>
       <c r="D2101" t="s">
         <v>2103</v>
@@ -37015,7 +37879,7 @@
         <v>85</v>
       </c>
       <c r="C2102">
-        <v>7020</v>
+        <v>7200</v>
       </c>
       <c r="D2102" t="s">
         <v>2104</v>
@@ -37029,7 +37893,7 @@
         <v>86</v>
       </c>
       <c r="C2103">
-        <v>6940</v>
+        <v>7060</v>
       </c>
       <c r="D2103" t="s">
         <v>2105</v>
@@ -37043,7 +37907,7 @@
         <v>87</v>
       </c>
       <c r="C2104">
-        <v>6840</v>
+        <v>6990</v>
       </c>
       <c r="D2104" t="s">
         <v>2106</v>
@@ -37057,7 +37921,7 @@
         <v>88</v>
       </c>
       <c r="C2105">
-        <v>6730</v>
+        <v>6940</v>
       </c>
       <c r="D2105" t="s">
         <v>2107</v>
@@ -37071,7 +37935,7 @@
         <v>89</v>
       </c>
       <c r="C2106">
-        <v>6620</v>
+        <v>6840</v>
       </c>
       <c r="D2106" t="s">
         <v>2108</v>
@@ -37085,7 +37949,7 @@
         <v>90</v>
       </c>
       <c r="C2107">
-        <v>6530</v>
+        <v>6750</v>
       </c>
       <c r="D2107" t="s">
         <v>2109</v>
@@ -37099,7 +37963,7 @@
         <v>91</v>
       </c>
       <c r="C2108">
-        <v>6420</v>
+        <v>6580</v>
       </c>
       <c r="D2108" t="s">
         <v>2110</v>
@@ -37113,7 +37977,7 @@
         <v>92</v>
       </c>
       <c r="C2109">
-        <v>6310</v>
+        <v>6470</v>
       </c>
       <c r="D2109" t="s">
         <v>2111</v>
@@ -37127,7 +37991,7 @@
         <v>93</v>
       </c>
       <c r="C2110">
-        <v>6210</v>
+        <v>6390</v>
       </c>
       <c r="D2110" t="s">
         <v>2112</v>
@@ -37141,7 +38005,7 @@
         <v>94</v>
       </c>
       <c r="C2111">
-        <v>6120</v>
+        <v>6240</v>
       </c>
       <c r="D2111" t="s">
         <v>2113</v>
@@ -37155,7 +38019,7 @@
         <v>95</v>
       </c>
       <c r="C2112">
-        <v>6020</v>
+        <v>6150</v>
       </c>
       <c r="D2112" t="s">
         <v>2114</v>
@@ -37169,7 +38033,7 @@
         <v>96</v>
       </c>
       <c r="C2113">
-        <v>5940</v>
+        <v>6040</v>
       </c>
       <c r="D2113" t="s">
         <v>2115</v>
@@ -37183,7 +38047,7 @@
         <v>1</v>
       </c>
       <c r="C2114">
-        <v>6060</v>
+        <v>5980</v>
       </c>
       <c r="D2114" t="s">
         <v>2116</v>
@@ -37197,7 +38061,7 @@
         <v>2</v>
       </c>
       <c r="C2115">
-        <v>5990</v>
+        <v>5950</v>
       </c>
       <c r="D2115" t="s">
         <v>2117</v>
@@ -37211,7 +38075,7 @@
         <v>3</v>
       </c>
       <c r="C2116">
-        <v>5930</v>
+        <v>5890</v>
       </c>
       <c r="D2116" t="s">
         <v>2118</v>
@@ -37225,7 +38089,7 @@
         <v>4</v>
       </c>
       <c r="C2117">
-        <v>5880</v>
+        <v>5830</v>
       </c>
       <c r="D2117" t="s">
         <v>2119</v>
@@ -37239,7 +38103,7 @@
         <v>5</v>
       </c>
       <c r="C2118">
-        <v>5840</v>
+        <v>5790</v>
       </c>
       <c r="D2118" t="s">
         <v>2120</v>
@@ -37253,7 +38117,7 @@
         <v>6</v>
       </c>
       <c r="C2119">
-        <v>5810</v>
+        <v>5760</v>
       </c>
       <c r="D2119" t="s">
         <v>2121</v>
@@ -37267,7 +38131,7 @@
         <v>7</v>
       </c>
       <c r="C2120">
-        <v>5780</v>
+        <v>5730</v>
       </c>
       <c r="D2120" t="s">
         <v>2122</v>
@@ -37281,7 +38145,7 @@
         <v>8</v>
       </c>
       <c r="C2121">
-        <v>5770</v>
+        <v>5690</v>
       </c>
       <c r="D2121" t="s">
         <v>2123</v>
@@ -37295,7 +38159,7 @@
         <v>9</v>
       </c>
       <c r="C2122">
-        <v>5760</v>
+        <v>5660</v>
       </c>
       <c r="D2122" t="s">
         <v>2124</v>
@@ -37309,7 +38173,7 @@
         <v>10</v>
       </c>
       <c r="C2123">
-        <v>5760</v>
+        <v>5640</v>
       </c>
       <c r="D2123" t="s">
         <v>2125</v>
@@ -37323,7 +38187,7 @@
         <v>11</v>
       </c>
       <c r="C2124">
-        <v>5750</v>
+        <v>5620</v>
       </c>
       <c r="D2124" t="s">
         <v>2126</v>
@@ -37337,7 +38201,7 @@
         <v>12</v>
       </c>
       <c r="C2125">
-        <v>5750</v>
+        <v>5610</v>
       </c>
       <c r="D2125" t="s">
         <v>2127</v>
@@ -37351,7 +38215,7 @@
         <v>13</v>
       </c>
       <c r="C2126">
-        <v>5740</v>
+        <v>5600</v>
       </c>
       <c r="D2126" t="s">
         <v>2128</v>
@@ -37365,7 +38229,7 @@
         <v>14</v>
       </c>
       <c r="C2127">
-        <v>5740</v>
+        <v>5610</v>
       </c>
       <c r="D2127" t="s">
         <v>2129</v>
@@ -37379,7 +38243,7 @@
         <v>15</v>
       </c>
       <c r="C2128">
-        <v>5750</v>
+        <v>5630</v>
       </c>
       <c r="D2128" t="s">
         <v>2130</v>
@@ -37393,7 +38257,7 @@
         <v>16</v>
       </c>
       <c r="C2129">
-        <v>5750</v>
+        <v>5630</v>
       </c>
       <c r="D2129" t="s">
         <v>2131</v>
@@ -37407,7 +38271,7 @@
         <v>17</v>
       </c>
       <c r="C2130">
-        <v>5770</v>
+        <v>5640</v>
       </c>
       <c r="D2130" t="s">
         <v>2132</v>
@@ -37421,7 +38285,7 @@
         <v>18</v>
       </c>
       <c r="C2131">
-        <v>5790</v>
+        <v>5650</v>
       </c>
       <c r="D2131" t="s">
         <v>2133</v>
@@ -37435,7 +38299,7 @@
         <v>19</v>
       </c>
       <c r="C2132">
-        <v>5830</v>
+        <v>5680</v>
       </c>
       <c r="D2132" t="s">
         <v>2134</v>
@@ -37449,7 +38313,7 @@
         <v>20</v>
       </c>
       <c r="C2133">
-        <v>5870</v>
+        <v>5740</v>
       </c>
       <c r="D2133" t="s">
         <v>2135</v>
@@ -37463,7 +38327,7 @@
         <v>21</v>
       </c>
       <c r="C2134">
-        <v>5930</v>
+        <v>5820</v>
       </c>
       <c r="D2134" t="s">
         <v>2136</v>
@@ -37477,7 +38341,7 @@
         <v>22</v>
       </c>
       <c r="C2135">
-        <v>6010</v>
+        <v>5940</v>
       </c>
       <c r="D2135" t="s">
         <v>2137</v>
@@ -37491,7 +38355,7 @@
         <v>23</v>
       </c>
       <c r="C2136">
-        <v>6130</v>
+        <v>6090</v>
       </c>
       <c r="D2136" t="s">
         <v>2138</v>
@@ -37505,7 +38369,7 @@
         <v>24</v>
       </c>
       <c r="C2137">
-        <v>6270</v>
+        <v>6280</v>
       </c>
       <c r="D2137" t="s">
         <v>2139</v>
@@ -37519,7 +38383,7 @@
         <v>25</v>
       </c>
       <c r="C2138">
-        <v>6450</v>
+        <v>6500</v>
       </c>
       <c r="D2138" t="s">
         <v>2140</v>
@@ -37533,7 +38397,7 @@
         <v>26</v>
       </c>
       <c r="C2139">
-        <v>6660</v>
+        <v>6730</v>
       </c>
       <c r="D2139" t="s">
         <v>2141</v>
@@ -37547,7 +38411,7 @@
         <v>27</v>
       </c>
       <c r="C2140">
-        <v>6900</v>
+        <v>6970</v>
       </c>
       <c r="D2140" t="s">
         <v>2142</v>
@@ -37561,7 +38425,7 @@
         <v>28</v>
       </c>
       <c r="C2141">
-        <v>7170</v>
+        <v>7210</v>
       </c>
       <c r="D2141" t="s">
         <v>2143</v>
@@ -37575,7 +38439,7 @@
         <v>29</v>
       </c>
       <c r="C2142">
-        <v>7460</v>
+        <v>7440</v>
       </c>
       <c r="D2142" t="s">
         <v>2144</v>
@@ -37589,7 +38453,7 @@
         <v>30</v>
       </c>
       <c r="C2143">
-        <v>7700</v>
+        <v>7650</v>
       </c>
       <c r="D2143" t="s">
         <v>2145</v>
@@ -37603,7 +38467,7 @@
         <v>31</v>
       </c>
       <c r="C2144">
-        <v>7890</v>
+        <v>7830</v>
       </c>
       <c r="D2144" t="s">
         <v>2146</v>
@@ -37617,7 +38481,7 @@
         <v>32</v>
       </c>
       <c r="C2145">
-        <v>8020</v>
+        <v>7980</v>
       </c>
       <c r="D2145" t="s">
         <v>2147</v>
@@ -37645,7 +38509,7 @@
         <v>34</v>
       </c>
       <c r="C2147">
-        <v>8150</v>
+        <v>8170</v>
       </c>
       <c r="D2147" t="s">
         <v>2149</v>
@@ -37659,7 +38523,7 @@
         <v>35</v>
       </c>
       <c r="C2148">
-        <v>8170</v>
+        <v>8200</v>
       </c>
       <c r="D2148" t="s">
         <v>2150</v>
@@ -37673,7 +38537,7 @@
         <v>36</v>
       </c>
       <c r="C2149">
-        <v>8170</v>
+        <v>8200</v>
       </c>
       <c r="D2149" t="s">
         <v>2151</v>
@@ -37687,7 +38551,7 @@
         <v>37</v>
       </c>
       <c r="C2150">
-        <v>8150</v>
+        <v>8200</v>
       </c>
       <c r="D2150" t="s">
         <v>2152</v>
@@ -37701,7 +38565,7 @@
         <v>38</v>
       </c>
       <c r="C2151">
-        <v>8110</v>
+        <v>8200</v>
       </c>
       <c r="D2151" t="s">
         <v>2153</v>
@@ -37715,7 +38579,7 @@
         <v>39</v>
       </c>
       <c r="C2152">
-        <v>8060</v>
+        <v>8160</v>
       </c>
       <c r="D2152" t="s">
         <v>2154</v>
@@ -37729,7 +38593,7 @@
         <v>40</v>
       </c>
       <c r="C2153">
-        <v>7990</v>
+        <v>8120</v>
       </c>
       <c r="D2153" t="s">
         <v>2155</v>
@@ -37743,7 +38607,7 @@
         <v>41</v>
       </c>
       <c r="C2154">
-        <v>7910</v>
+        <v>8070</v>
       </c>
       <c r="D2154" t="s">
         <v>2156</v>
@@ -37757,7 +38621,7 @@
         <v>42</v>
       </c>
       <c r="C2155">
-        <v>7820</v>
+        <v>8030</v>
       </c>
       <c r="D2155" t="s">
         <v>2157</v>
@@ -37771,7 +38635,7 @@
         <v>43</v>
       </c>
       <c r="C2156">
-        <v>7730</v>
+        <v>7980</v>
       </c>
       <c r="D2156" t="s">
         <v>2158</v>
@@ -37785,7 +38649,7 @@
         <v>44</v>
       </c>
       <c r="C2157">
-        <v>7630</v>
+        <v>7940</v>
       </c>
       <c r="D2157" t="s">
         <v>2159</v>
@@ -37799,7 +38663,7 @@
         <v>45</v>
       </c>
       <c r="C2158">
-        <v>7530</v>
+        <v>7910</v>
       </c>
       <c r="D2158" t="s">
         <v>2160</v>
@@ -37813,7 +38677,7 @@
         <v>46</v>
       </c>
       <c r="C2159">
-        <v>7450</v>
+        <v>7880</v>
       </c>
       <c r="D2159" t="s">
         <v>2161</v>
@@ -37827,7 +38691,7 @@
         <v>47</v>
       </c>
       <c r="C2160">
-        <v>7380</v>
+        <v>7850</v>
       </c>
       <c r="D2160" t="s">
         <v>2162</v>
@@ -37841,7 +38705,7 @@
         <v>48</v>
       </c>
       <c r="C2161">
-        <v>7340</v>
+        <v>7820</v>
       </c>
       <c r="D2161" t="s">
         <v>2163</v>
@@ -37855,7 +38719,7 @@
         <v>49</v>
       </c>
       <c r="C2162">
-        <v>7310</v>
+        <v>7800</v>
       </c>
       <c r="D2162" t="s">
         <v>2164</v>
@@ -37869,7 +38733,7 @@
         <v>50</v>
       </c>
       <c r="C2163">
-        <v>7280</v>
+        <v>7770</v>
       </c>
       <c r="D2163" t="s">
         <v>2165</v>
@@ -37883,7 +38747,7 @@
         <v>51</v>
       </c>
       <c r="C2164">
-        <v>7270</v>
+        <v>7750</v>
       </c>
       <c r="D2164" t="s">
         <v>2166</v>
@@ -37897,7 +38761,7 @@
         <v>52</v>
       </c>
       <c r="C2165">
-        <v>7250</v>
+        <v>7730</v>
       </c>
       <c r="D2165" t="s">
         <v>2167</v>
@@ -37911,7 +38775,7 @@
         <v>53</v>
       </c>
       <c r="C2166">
-        <v>7250</v>
+        <v>7710</v>
       </c>
       <c r="D2166" t="s">
         <v>2168</v>
@@ -37925,7 +38789,7 @@
         <v>54</v>
       </c>
       <c r="C2167">
-        <v>7250</v>
+        <v>7700</v>
       </c>
       <c r="D2167" t="s">
         <v>2169</v>
@@ -37939,7 +38803,7 @@
         <v>55</v>
       </c>
       <c r="C2168">
-        <v>7240</v>
+        <v>7690</v>
       </c>
       <c r="D2168" t="s">
         <v>2170</v>
@@ -37953,7 +38817,7 @@
         <v>56</v>
       </c>
       <c r="C2169">
-        <v>7240</v>
+        <v>7680</v>
       </c>
       <c r="D2169" t="s">
         <v>2171</v>
@@ -37967,7 +38831,7 @@
         <v>57</v>
       </c>
       <c r="C2170">
-        <v>7240</v>
+        <v>7680</v>
       </c>
       <c r="D2170" t="s">
         <v>2172</v>
@@ -37981,7 +38845,7 @@
         <v>58</v>
       </c>
       <c r="C2171">
-        <v>7240</v>
+        <v>7670</v>
       </c>
       <c r="D2171" t="s">
         <v>2173</v>
@@ -37995,7 +38859,7 @@
         <v>59</v>
       </c>
       <c r="C2172">
-        <v>7260</v>
+        <v>7670</v>
       </c>
       <c r="D2172" t="s">
         <v>2174</v>
@@ -38009,7 +38873,7 @@
         <v>60</v>
       </c>
       <c r="C2173">
-        <v>7280</v>
+        <v>7660</v>
       </c>
       <c r="D2173" t="s">
         <v>2175</v>
@@ -38023,7 +38887,7 @@
         <v>61</v>
       </c>
       <c r="C2174">
-        <v>7310</v>
+        <v>7650</v>
       </c>
       <c r="D2174" t="s">
         <v>2176</v>
@@ -38037,7 +38901,7 @@
         <v>62</v>
       </c>
       <c r="C2175">
-        <v>7360</v>
+        <v>7640</v>
       </c>
       <c r="D2175" t="s">
         <v>2177</v>
@@ -38051,7 +38915,7 @@
         <v>63</v>
       </c>
       <c r="C2176">
-        <v>7420</v>
+        <v>7630</v>
       </c>
       <c r="D2176" t="s">
         <v>2178</v>
@@ -38065,7 +38929,7 @@
         <v>64</v>
       </c>
       <c r="C2177">
-        <v>7500</v>
+        <v>7630</v>
       </c>
       <c r="D2177" t="s">
         <v>2179</v>
@@ -38079,7 +38943,7 @@
         <v>65</v>
       </c>
       <c r="C2178">
-        <v>7590</v>
+        <v>7650</v>
       </c>
       <c r="D2178" t="s">
         <v>2180</v>
@@ -38107,7 +38971,7 @@
         <v>67</v>
       </c>
       <c r="C2180">
-        <v>7760</v>
+        <v>7730</v>
       </c>
       <c r="D2180" t="s">
         <v>2182</v>
@@ -38121,7 +38985,7 @@
         <v>68</v>
       </c>
       <c r="C2181">
-        <v>7830</v>
+        <v>7800</v>
       </c>
       <c r="D2181" t="s">
         <v>2183</v>
@@ -38135,7 +38999,7 @@
         <v>69</v>
       </c>
       <c r="C2182">
-        <v>7910</v>
+        <v>7880</v>
       </c>
       <c r="D2182" t="s">
         <v>2184</v>
@@ -38149,7 +39013,7 @@
         <v>70</v>
       </c>
       <c r="C2183">
-        <v>7990</v>
+        <v>7970</v>
       </c>
       <c r="D2183" t="s">
         <v>2185</v>
@@ -38163,7 +39027,7 @@
         <v>71</v>
       </c>
       <c r="C2184">
-        <v>8090</v>
+        <v>8060</v>
       </c>
       <c r="D2184" t="s">
         <v>2186</v>
@@ -38177,7 +39041,7 @@
         <v>72</v>
       </c>
       <c r="C2185">
-        <v>8210</v>
+        <v>8150</v>
       </c>
       <c r="D2185" t="s">
         <v>2187</v>
@@ -38191,7 +39055,7 @@
         <v>73</v>
       </c>
       <c r="C2186">
-        <v>8320</v>
+        <v>8220</v>
       </c>
       <c r="D2186" t="s">
         <v>2188</v>
@@ -38205,7 +39069,7 @@
         <v>74</v>
       </c>
       <c r="C2187">
-        <v>8420</v>
+        <v>8290</v>
       </c>
       <c r="D2187" t="s">
         <v>2189</v>
@@ -38219,7 +39083,7 @@
         <v>75</v>
       </c>
       <c r="C2188">
-        <v>8480</v>
+        <v>8350</v>
       </c>
       <c r="D2188" t="s">
         <v>2190</v>
@@ -38233,7 +39097,7 @@
         <v>76</v>
       </c>
       <c r="C2189">
-        <v>8500</v>
+        <v>8400</v>
       </c>
       <c r="D2189" t="s">
         <v>2191</v>
@@ -38247,7 +39111,7 @@
         <v>77</v>
       </c>
       <c r="C2190">
-        <v>8500</v>
+        <v>8440</v>
       </c>
       <c r="D2190" t="s">
         <v>2192</v>
@@ -38261,7 +39125,7 @@
         <v>78</v>
       </c>
       <c r="C2191">
-        <v>8490</v>
+        <v>8450</v>
       </c>
       <c r="D2191" t="s">
         <v>2193</v>
@@ -38275,7 +39139,7 @@
         <v>79</v>
       </c>
       <c r="C2192">
-        <v>8460</v>
+        <v>8450</v>
       </c>
       <c r="D2192" t="s">
         <v>2194</v>
@@ -38317,7 +39181,7 @@
         <v>82</v>
       </c>
       <c r="C2195">
-        <v>8330</v>
+        <v>8350</v>
       </c>
       <c r="D2195" t="s">
         <v>2197</v>
@@ -38331,7 +39195,7 @@
         <v>83</v>
       </c>
       <c r="C2196">
-        <v>8260</v>
+        <v>8280</v>
       </c>
       <c r="D2196" t="s">
         <v>2198</v>
@@ -38345,7 +39209,7 @@
         <v>84</v>
       </c>
       <c r="C2197">
-        <v>8170</v>
+        <v>8210</v>
       </c>
       <c r="D2197" t="s">
         <v>2199</v>
@@ -38359,7 +39223,7 @@
         <v>85</v>
       </c>
       <c r="C2198">
-        <v>8060</v>
+        <v>8090</v>
       </c>
       <c r="D2198" t="s">
         <v>2200</v>
@@ -38373,7 +39237,7 @@
         <v>86</v>
       </c>
       <c r="C2199">
-        <v>7940</v>
+        <v>7930</v>
       </c>
       <c r="D2199" t="s">
         <v>2201</v>
@@ -38387,7 +39251,7 @@
         <v>87</v>
       </c>
       <c r="C2200">
-        <v>7800</v>
+        <v>7830</v>
       </c>
       <c r="D2200" t="s">
         <v>2202</v>
@@ -38401,7 +39265,7 @@
         <v>88</v>
       </c>
       <c r="C2201">
-        <v>7640</v>
+        <v>7710</v>
       </c>
       <c r="D2201" t="s">
         <v>2203</v>
@@ -38415,7 +39279,7 @@
         <v>89</v>
       </c>
       <c r="C2202">
-        <v>7470</v>
+        <v>7560</v>
       </c>
       <c r="D2202" t="s">
         <v>2204</v>
@@ -38429,7 +39293,7 @@
         <v>90</v>
       </c>
       <c r="C2203">
-        <v>7310</v>
+        <v>7440</v>
       </c>
       <c r="D2203" t="s">
         <v>2205</v>
@@ -38443,7 +39307,7 @@
         <v>91</v>
       </c>
       <c r="C2204">
-        <v>7150</v>
+        <v>7270</v>
       </c>
       <c r="D2204" t="s">
         <v>2206</v>
@@ -38457,7 +39321,7 @@
         <v>92</v>
       </c>
       <c r="C2205">
-        <v>7010</v>
+        <v>7100</v>
       </c>
       <c r="D2205" t="s">
         <v>2207</v>
@@ -38471,7 +39335,7 @@
         <v>93</v>
       </c>
       <c r="C2206">
-        <v>6870</v>
+        <v>6910</v>
       </c>
       <c r="D2206" t="s">
         <v>2208</v>
@@ -38485,7 +39349,7 @@
         <v>94</v>
       </c>
       <c r="C2207">
-        <v>6750</v>
+        <v>6710</v>
       </c>
       <c r="D2207" t="s">
         <v>2209</v>
@@ -38499,7 +39363,7 @@
         <v>95</v>
       </c>
       <c r="C2208">
-        <v>6650</v>
+        <v>6630</v>
       </c>
       <c r="D2208" t="s">
         <v>2210</v>
@@ -38513,7 +39377,7 @@
         <v>96</v>
       </c>
       <c r="C2209">
-        <v>6550</v>
+        <v>6520</v>
       </c>
       <c r="D2209" t="s">
         <v>2211</v>
@@ -38527,7 +39391,7 @@
         <v>1</v>
       </c>
       <c r="C2210">
-        <v>6420</v>
+        <v>6500</v>
       </c>
       <c r="D2210" t="s">
         <v>2212</v>
@@ -38541,7 +39405,7 @@
         <v>2</v>
       </c>
       <c r="C2211">
-        <v>6370</v>
+        <v>6440</v>
       </c>
       <c r="D2211" t="s">
         <v>2213</v>
@@ -38555,7 +39419,7 @@
         <v>3</v>
       </c>
       <c r="C2212">
-        <v>6320</v>
+        <v>6390</v>
       </c>
       <c r="D2212" t="s">
         <v>2214</v>
@@ -38569,7 +39433,7 @@
         <v>4</v>
       </c>
       <c r="C2213">
-        <v>6260</v>
+        <v>6330</v>
       </c>
       <c r="D2213" t="s">
         <v>2215</v>
@@ -38583,7 +39447,7 @@
         <v>5</v>
       </c>
       <c r="C2214">
-        <v>6200</v>
+        <v>6280</v>
       </c>
       <c r="D2214" t="s">
         <v>2216</v>
@@ -38597,7 +39461,7 @@
         <v>6</v>
       </c>
       <c r="C2215">
-        <v>6160</v>
+        <v>6230</v>
       </c>
       <c r="D2215" t="s">
         <v>2217</v>
@@ -38611,7 +39475,7 @@
         <v>7</v>
       </c>
       <c r="C2216">
-        <v>6130</v>
+        <v>6190</v>
       </c>
       <c r="D2216" t="s">
         <v>2218</v>
@@ -38625,7 +39489,7 @@
         <v>8</v>
       </c>
       <c r="C2217">
-        <v>6100</v>
+        <v>6160</v>
       </c>
       <c r="D2217" t="s">
         <v>2219</v>
@@ -38639,7 +39503,7 @@
         <v>9</v>
       </c>
       <c r="C2218">
-        <v>6090</v>
+        <v>6140</v>
       </c>
       <c r="D2218" t="s">
         <v>2220</v>
@@ -38653,7 +39517,7 @@
         <v>10</v>
       </c>
       <c r="C2219">
-        <v>6070</v>
+        <v>6130</v>
       </c>
       <c r="D2219" t="s">
         <v>2221</v>
@@ -38667,7 +39531,7 @@
         <v>11</v>
       </c>
       <c r="C2220">
-        <v>6070</v>
+        <v>6100</v>
       </c>
       <c r="D2220" t="s">
         <v>2222</v>
@@ -38681,7 +39545,7 @@
         <v>12</v>
       </c>
       <c r="C2221">
-        <v>6060</v>
+        <v>6100</v>
       </c>
       <c r="D2221" t="s">
         <v>2223</v>
@@ -38695,7 +39559,7 @@
         <v>13</v>
       </c>
       <c r="C2222">
-        <v>6060</v>
+        <v>6100</v>
       </c>
       <c r="D2222" t="s">
         <v>2224</v>
@@ -38709,7 +39573,7 @@
         <v>14</v>
       </c>
       <c r="C2223">
-        <v>6060</v>
+        <v>6100</v>
       </c>
       <c r="D2223" t="s">
         <v>2225</v>
@@ -38723,7 +39587,7 @@
         <v>15</v>
       </c>
       <c r="C2224">
-        <v>6070</v>
+        <v>6110</v>
       </c>
       <c r="D2224" t="s">
         <v>2226</v>
@@ -38737,7 +39601,7 @@
         <v>16</v>
       </c>
       <c r="C2225">
-        <v>6080</v>
+        <v>6110</v>
       </c>
       <c r="D2225" t="s">
         <v>2227</v>
@@ -38751,7 +39615,7 @@
         <v>17</v>
       </c>
       <c r="C2226">
-        <v>6090</v>
+        <v>6120</v>
       </c>
       <c r="D2226" t="s">
         <v>2228</v>
@@ -38765,7 +39629,7 @@
         <v>18</v>
       </c>
       <c r="C2227">
-        <v>6120</v>
+        <v>6140</v>
       </c>
       <c r="D2227" t="s">
         <v>2229</v>
@@ -38779,7 +39643,7 @@
         <v>19</v>
       </c>
       <c r="C2228">
-        <v>6160</v>
+        <v>6170</v>
       </c>
       <c r="D2228" t="s">
         <v>2230</v>
@@ -38793,7 +39657,7 @@
         <v>20</v>
       </c>
       <c r="C2229">
-        <v>6210</v>
+        <v>6220</v>
       </c>
       <c r="D2229" t="s">
         <v>2231</v>
@@ -38919,7 +39783,7 @@
         <v>29</v>
       </c>
       <c r="C2238">
-        <v>7390</v>
+        <v>7400</v>
       </c>
       <c r="D2238" t="s">
         <v>2240</v>
@@ -38947,7 +39811,7 @@
         <v>31</v>
       </c>
       <c r="C2240">
-        <v>7710</v>
+        <v>7720</v>
       </c>
       <c r="D2240" t="s">
         <v>2242</v>
@@ -38989,7 +39853,7 @@
         <v>34</v>
       </c>
       <c r="C2243">
-        <v>8050</v>
+        <v>8000</v>
       </c>
       <c r="D2243" t="s">
         <v>2245</v>
@@ -39003,7 +39867,7 @@
         <v>35</v>
       </c>
       <c r="C2244">
-        <v>8120</v>
+        <v>8000</v>
       </c>
       <c r="D2244" t="s">
         <v>2246</v>
@@ -39017,7 +39881,7 @@
         <v>36</v>
       </c>
       <c r="C2245">
-        <v>8160</v>
+        <v>8000</v>
       </c>
       <c r="D2245" t="s">
         <v>2247</v>
@@ -39031,7 +39895,7 @@
         <v>37</v>
       </c>
       <c r="C2246">
-        <v>8170</v>
+        <v>8000</v>
       </c>
       <c r="D2246" t="s">
         <v>2248</v>
@@ -39045,7 +39909,7 @@
         <v>38</v>
       </c>
       <c r="C2247">
-        <v>8160</v>
+        <v>7960</v>
       </c>
       <c r="D2247" t="s">
         <v>2249</v>
@@ -39059,7 +39923,7 @@
         <v>39</v>
       </c>
       <c r="C2248">
-        <v>8130</v>
+        <v>7900</v>
       </c>
       <c r="D2248" t="s">
         <v>2250</v>
@@ -39073,7 +39937,7 @@
         <v>40</v>
       </c>
       <c r="C2249">
-        <v>8090</v>
+        <v>7840</v>
       </c>
       <c r="D2249" t="s">
         <v>2251</v>
@@ -39087,7 +39951,7 @@
         <v>41</v>
       </c>
       <c r="C2250">
-        <v>8040</v>
+        <v>7820</v>
       </c>
       <c r="D2250" t="s">
         <v>2252</v>
@@ -39101,7 +39965,7 @@
         <v>42</v>
       </c>
       <c r="C2251">
-        <v>7980</v>
+        <v>7750</v>
       </c>
       <c r="D2251" t="s">
         <v>2253</v>
@@ -39115,7 +39979,7 @@
         <v>43</v>
       </c>
       <c r="C2252">
-        <v>7930</v>
+        <v>7650</v>
       </c>
       <c r="D2252" t="s">
         <v>2254</v>
@@ -39129,7 +39993,7 @@
         <v>44</v>
       </c>
       <c r="C2253">
-        <v>7880</v>
+        <v>7560</v>
       </c>
       <c r="D2253" t="s">
         <v>2255</v>
@@ -39143,7 +40007,7 @@
         <v>45</v>
       </c>
       <c r="C2254">
-        <v>7840</v>
+        <v>7470</v>
       </c>
       <c r="D2254" t="s">
         <v>2256</v>
@@ -39157,7 +40021,7 @@
         <v>46</v>
       </c>
       <c r="C2255">
-        <v>7810</v>
+        <v>7390</v>
       </c>
       <c r="D2255" t="s">
         <v>2257</v>
@@ -39171,7 +40035,7 @@
         <v>47</v>
       </c>
       <c r="C2256">
-        <v>7780</v>
+        <v>7330</v>
       </c>
       <c r="D2256" t="s">
         <v>2258</v>
@@ -39185,7 +40049,7 @@
         <v>48</v>
       </c>
       <c r="C2257">
-        <v>7760</v>
+        <v>7270</v>
       </c>
       <c r="D2257" t="s">
         <v>2259</v>
@@ -39199,7 +40063,7 @@
         <v>49</v>
       </c>
       <c r="C2258">
-        <v>7750</v>
+        <v>7230</v>
       </c>
       <c r="D2258" t="s">
         <v>2260</v>
@@ -39213,7 +40077,7 @@
         <v>50</v>
       </c>
       <c r="C2259">
-        <v>7740</v>
+        <v>7190</v>
       </c>
       <c r="D2259" t="s">
         <v>2261</v>
@@ -39227,7 +40091,7 @@
         <v>51</v>
       </c>
       <c r="C2260">
-        <v>7720</v>
+        <v>7160</v>
       </c>
       <c r="D2260" t="s">
         <v>2262</v>
@@ -39241,7 +40105,7 @@
         <v>52</v>
       </c>
       <c r="C2261">
-        <v>7710</v>
+        <v>7140</v>
       </c>
       <c r="D2261" t="s">
         <v>2263</v>
@@ -39255,7 +40119,7 @@
         <v>53</v>
       </c>
       <c r="C2262">
-        <v>7700</v>
+        <v>7120</v>
       </c>
       <c r="D2262" t="s">
         <v>2264</v>
@@ -39269,7 +40133,7 @@
         <v>54</v>
       </c>
       <c r="C2263">
-        <v>7690</v>
+        <v>7110</v>
       </c>
       <c r="D2263" t="s">
         <v>2265</v>
@@ -39283,7 +40147,7 @@
         <v>55</v>
       </c>
       <c r="C2264">
-        <v>7680</v>
+        <v>7100</v>
       </c>
       <c r="D2264" t="s">
         <v>2266</v>
@@ -39297,7 +40161,7 @@
         <v>56</v>
       </c>
       <c r="C2265">
-        <v>7670</v>
+        <v>7100</v>
       </c>
       <c r="D2265" t="s">
         <v>2267</v>
@@ -39311,7 +40175,7 @@
         <v>57</v>
       </c>
       <c r="C2266">
-        <v>7670</v>
+        <v>7100</v>
       </c>
       <c r="D2266" t="s">
         <v>2268</v>
@@ -39325,7 +40189,7 @@
         <v>58</v>
       </c>
       <c r="C2267">
-        <v>7660</v>
+        <v>7100</v>
       </c>
       <c r="D2267" t="s">
         <v>2269</v>
@@ -39339,7 +40203,7 @@
         <v>59</v>
       </c>
       <c r="C2268">
-        <v>7660</v>
+        <v>7100</v>
       </c>
       <c r="D2268" t="s">
         <v>2270</v>
@@ -39353,7 +40217,7 @@
         <v>60</v>
       </c>
       <c r="C2269">
-        <v>7660</v>
+        <v>7100</v>
       </c>
       <c r="D2269" t="s">
         <v>2271</v>
@@ -39367,7 +40231,7 @@
         <v>61</v>
       </c>
       <c r="C2270">
-        <v>7660</v>
+        <v>7110</v>
       </c>
       <c r="D2270" t="s">
         <v>2272</v>
@@ -39381,7 +40245,7 @@
         <v>62</v>
       </c>
       <c r="C2271">
-        <v>7670</v>
+        <v>7130</v>
       </c>
       <c r="D2271" t="s">
         <v>2273</v>
@@ -39395,7 +40259,7 @@
         <v>63</v>
       </c>
       <c r="C2272">
-        <v>7680</v>
+        <v>7150</v>
       </c>
       <c r="D2272" t="s">
         <v>2274</v>
@@ -39409,7 +40273,7 @@
         <v>64</v>
       </c>
       <c r="C2273">
-        <v>7700</v>
+        <v>7200</v>
       </c>
       <c r="D2273" t="s">
         <v>2275</v>
@@ -39423,7 +40287,7 @@
         <v>65</v>
       </c>
       <c r="C2274">
-        <v>7720</v>
+        <v>7260</v>
       </c>
       <c r="D2274" t="s">
         <v>2276</v>
@@ -39437,7 +40301,7 @@
         <v>66</v>
       </c>
       <c r="C2275">
-        <v>7760</v>
+        <v>7350</v>
       </c>
       <c r="D2275" t="s">
         <v>2277</v>
@@ -39451,7 +40315,7 @@
         <v>67</v>
       </c>
       <c r="C2276">
-        <v>7810</v>
+        <v>7450</v>
       </c>
       <c r="D2276" t="s">
         <v>2278</v>
@@ -39465,7 +40329,7 @@
         <v>68</v>
       </c>
       <c r="C2277">
-        <v>7870</v>
+        <v>7580</v>
       </c>
       <c r="D2277" t="s">
         <v>2279</v>
@@ -39479,7 +40343,7 @@
         <v>69</v>
       </c>
       <c r="C2278">
-        <v>7940</v>
+        <v>7710</v>
       </c>
       <c r="D2278" t="s">
         <v>2280</v>
@@ -39493,7 +40357,7 @@
         <v>70</v>
       </c>
       <c r="C2279">
-        <v>8020</v>
+        <v>7840</v>
       </c>
       <c r="D2279" t="s">
         <v>2281</v>
@@ -39507,7 +40371,7 @@
         <v>71</v>
       </c>
       <c r="C2280">
-        <v>8090</v>
+        <v>7960</v>
       </c>
       <c r="D2280" t="s">
         <v>2282</v>
@@ -39521,7 +40385,7 @@
         <v>72</v>
       </c>
       <c r="C2281">
-        <v>8170</v>
+        <v>8070</v>
       </c>
       <c r="D2281" t="s">
         <v>2283</v>
@@ -39535,7 +40399,7 @@
         <v>73</v>
       </c>
       <c r="C2282">
-        <v>8230</v>
+        <v>8160</v>
       </c>
       <c r="D2282" t="s">
         <v>2284</v>
@@ -39549,7 +40413,7 @@
         <v>74</v>
       </c>
       <c r="C2283">
-        <v>8290</v>
+        <v>8240</v>
       </c>
       <c r="D2283" t="s">
         <v>2285</v>
@@ -39563,7 +40427,7 @@
         <v>75</v>
       </c>
       <c r="C2284">
-        <v>8340</v>
+        <v>8300</v>
       </c>
       <c r="D2284" t="s">
         <v>2286</v>
@@ -39577,7 +40441,7 @@
         <v>76</v>
       </c>
       <c r="C2285">
-        <v>8380</v>
+        <v>8350</v>
       </c>
       <c r="D2285" t="s">
         <v>2287</v>
@@ -39591,7 +40455,7 @@
         <v>77</v>
       </c>
       <c r="C2286">
-        <v>8400</v>
+        <v>8390</v>
       </c>
       <c r="D2286" t="s">
         <v>2288</v>
@@ -39605,7 +40469,7 @@
         <v>78</v>
       </c>
       <c r="C2287">
-        <v>8410</v>
+        <v>8400</v>
       </c>
       <c r="D2287" t="s">
         <v>2289</v>
@@ -39619,7 +40483,7 @@
         <v>79</v>
       </c>
       <c r="C2288">
-        <v>8390</v>
+        <v>8400</v>
       </c>
       <c r="D2288" t="s">
         <v>2290</v>
@@ -39633,7 +40497,7 @@
         <v>80</v>
       </c>
       <c r="C2289">
-        <v>8350</v>
+        <v>8380</v>
       </c>
       <c r="D2289" t="s">
         <v>2291</v>
@@ -39647,7 +40511,7 @@
         <v>81</v>
       </c>
       <c r="C2290">
-        <v>8320</v>
+        <v>8330</v>
       </c>
       <c r="D2290" t="s">
         <v>2292</v>
@@ -39661,7 +40525,7 @@
         <v>82</v>
       </c>
       <c r="C2291">
-        <v>8280</v>
+        <v>8290</v>
       </c>
       <c r="D2291" t="s">
         <v>2293</v>
@@ -39689,7 +40553,7 @@
         <v>84</v>
       </c>
       <c r="C2293">
-        <v>8140</v>
+        <v>8130</v>
       </c>
       <c r="D2293" t="s">
         <v>2295</v>
@@ -39745,7 +40609,7 @@
         <v>88</v>
       </c>
       <c r="C2297">
-        <v>7630</v>
+        <v>7640</v>
       </c>
       <c r="D2297" t="s">
         <v>2299</v>
@@ -39759,7 +40623,7 @@
         <v>89</v>
       </c>
       <c r="C2298">
-        <v>7490</v>
+        <v>7480</v>
       </c>
       <c r="D2298" t="s">
         <v>2300</v>
@@ -39773,7 +40637,7 @@
         <v>90</v>
       </c>
       <c r="C2299">
-        <v>7380</v>
+        <v>7370</v>
       </c>
       <c r="D2299" t="s">
         <v>2301</v>
@@ -39815,7 +40679,7 @@
         <v>93</v>
       </c>
       <c r="C2302">
-        <v>6860</v>
+        <v>6850</v>
       </c>
       <c r="D2302" t="s">
         <v>2304</v>
@@ -41205,6 +42069,4038 @@
       </c>
       <c r="D2401" t="s">
         <v>2403</v>
+      </c>
+    </row>
+    <row r="2402" spans="1:4">
+      <c r="A2402" s="2">
+        <v>46079</v>
+      </c>
+      <c r="B2402">
+        <v>1</v>
+      </c>
+      <c r="C2402">
+        <v>6290</v>
+      </c>
+      <c r="D2402" t="s">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="2403" spans="1:4">
+      <c r="A2403" s="2">
+        <v>46079</v>
+      </c>
+      <c r="B2403">
+        <v>2</v>
+      </c>
+      <c r="C2403">
+        <v>6220</v>
+      </c>
+      <c r="D2403" t="s">
+        <v>2405</v>
+      </c>
+    </row>
+    <row r="2404" spans="1:4">
+      <c r="A2404" s="2">
+        <v>46079</v>
+      </c>
+      <c r="B2404">
+        <v>3</v>
+      </c>
+      <c r="C2404">
+        <v>6160</v>
+      </c>
+      <c r="D2404" t="s">
+        <v>2406</v>
+      </c>
+    </row>
+    <row r="2405" spans="1:4">
+      <c r="A2405" s="2">
+        <v>46079</v>
+      </c>
+      <c r="B2405">
+        <v>4</v>
+      </c>
+      <c r="C2405">
+        <v>6110</v>
+      </c>
+      <c r="D2405" t="s">
+        <v>2407</v>
+      </c>
+    </row>
+    <row r="2406" spans="1:4">
+      <c r="A2406" s="2">
+        <v>46079</v>
+      </c>
+      <c r="B2406">
+        <v>5</v>
+      </c>
+      <c r="C2406">
+        <v>6070</v>
+      </c>
+      <c r="D2406" t="s">
+        <v>2408</v>
+      </c>
+    </row>
+    <row r="2407" spans="1:4">
+      <c r="A2407" s="2">
+        <v>46079</v>
+      </c>
+      <c r="B2407">
+        <v>6</v>
+      </c>
+      <c r="C2407">
+        <v>6030</v>
+      </c>
+      <c r="D2407" t="s">
+        <v>2409</v>
+      </c>
+    </row>
+    <row r="2408" spans="1:4">
+      <c r="A2408" s="2">
+        <v>46079</v>
+      </c>
+      <c r="B2408">
+        <v>7</v>
+      </c>
+      <c r="C2408">
+        <v>6000</v>
+      </c>
+      <c r="D2408" t="s">
+        <v>2410</v>
+      </c>
+    </row>
+    <row r="2409" spans="1:4">
+      <c r="A2409" s="2">
+        <v>46079</v>
+      </c>
+      <c r="B2409">
+        <v>8</v>
+      </c>
+      <c r="C2409">
+        <v>5980</v>
+      </c>
+      <c r="D2409" t="s">
+        <v>2411</v>
+      </c>
+    </row>
+    <row r="2410" spans="1:4">
+      <c r="A2410" s="2">
+        <v>46079</v>
+      </c>
+      <c r="B2410">
+        <v>9</v>
+      </c>
+      <c r="C2410">
+        <v>5950</v>
+      </c>
+      <c r="D2410" t="s">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="2411" spans="1:4">
+      <c r="A2411" s="2">
+        <v>46079</v>
+      </c>
+      <c r="B2411">
+        <v>10</v>
+      </c>
+      <c r="C2411">
+        <v>5940</v>
+      </c>
+      <c r="D2411" t="s">
+        <v>2413</v>
+      </c>
+    </row>
+    <row r="2412" spans="1:4">
+      <c r="A2412" s="2">
+        <v>46079</v>
+      </c>
+      <c r="B2412">
+        <v>11</v>
+      </c>
+      <c r="C2412">
+        <v>5930</v>
+      </c>
+      <c r="D2412" t="s">
+        <v>2414</v>
+      </c>
+    </row>
+    <row r="2413" spans="1:4">
+      <c r="A2413" s="2">
+        <v>46079</v>
+      </c>
+      <c r="B2413">
+        <v>12</v>
+      </c>
+      <c r="C2413">
+        <v>5920</v>
+      </c>
+      <c r="D2413" t="s">
+        <v>2415</v>
+      </c>
+    </row>
+    <row r="2414" spans="1:4">
+      <c r="A2414" s="2">
+        <v>46079</v>
+      </c>
+      <c r="B2414">
+        <v>13</v>
+      </c>
+      <c r="C2414">
+        <v>5920</v>
+      </c>
+      <c r="D2414" t="s">
+        <v>2416</v>
+      </c>
+    </row>
+    <row r="2415" spans="1:4">
+      <c r="A2415" s="2">
+        <v>46079</v>
+      </c>
+      <c r="B2415">
+        <v>14</v>
+      </c>
+      <c r="C2415">
+        <v>5920</v>
+      </c>
+      <c r="D2415" t="s">
+        <v>2417</v>
+      </c>
+    </row>
+    <row r="2416" spans="1:4">
+      <c r="A2416" s="2">
+        <v>46079</v>
+      </c>
+      <c r="B2416">
+        <v>15</v>
+      </c>
+      <c r="C2416">
+        <v>5930</v>
+      </c>
+      <c r="D2416" t="s">
+        <v>2418</v>
+      </c>
+    </row>
+    <row r="2417" spans="1:4">
+      <c r="A2417" s="2">
+        <v>46079</v>
+      </c>
+      <c r="B2417">
+        <v>16</v>
+      </c>
+      <c r="C2417">
+        <v>5940</v>
+      </c>
+      <c r="D2417" t="s">
+        <v>2419</v>
+      </c>
+    </row>
+    <row r="2418" spans="1:4">
+      <c r="A2418" s="2">
+        <v>46079</v>
+      </c>
+      <c r="B2418">
+        <v>17</v>
+      </c>
+      <c r="C2418">
+        <v>5950</v>
+      </c>
+      <c r="D2418" t="s">
+        <v>2420</v>
+      </c>
+    </row>
+    <row r="2419" spans="1:4">
+      <c r="A2419" s="2">
+        <v>46079</v>
+      </c>
+      <c r="B2419">
+        <v>18</v>
+      </c>
+      <c r="C2419">
+        <v>5980</v>
+      </c>
+      <c r="D2419" t="s">
+        <v>2421</v>
+      </c>
+    </row>
+    <row r="2420" spans="1:4">
+      <c r="A2420" s="2">
+        <v>46079</v>
+      </c>
+      <c r="B2420">
+        <v>19</v>
+      </c>
+      <c r="C2420">
+        <v>6010</v>
+      </c>
+      <c r="D2420" t="s">
+        <v>2422</v>
+      </c>
+    </row>
+    <row r="2421" spans="1:4">
+      <c r="A2421" s="2">
+        <v>46079</v>
+      </c>
+      <c r="B2421">
+        <v>20</v>
+      </c>
+      <c r="C2421">
+        <v>6060</v>
+      </c>
+      <c r="D2421" t="s">
+        <v>2423</v>
+      </c>
+    </row>
+    <row r="2422" spans="1:4">
+      <c r="A2422" s="2">
+        <v>46079</v>
+      </c>
+      <c r="B2422">
+        <v>21</v>
+      </c>
+      <c r="C2422">
+        <v>6110</v>
+      </c>
+      <c r="D2422" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="2423" spans="1:4">
+      <c r="A2423" s="2">
+        <v>46079</v>
+      </c>
+      <c r="B2423">
+        <v>22</v>
+      </c>
+      <c r="C2423">
+        <v>6180</v>
+      </c>
+      <c r="D2423" t="s">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="2424" spans="1:4">
+      <c r="A2424" s="2">
+        <v>46079</v>
+      </c>
+      <c r="B2424">
+        <v>23</v>
+      </c>
+      <c r="C2424">
+        <v>6280</v>
+      </c>
+      <c r="D2424" t="s">
+        <v>2426</v>
+      </c>
+    </row>
+    <row r="2425" spans="1:4">
+      <c r="A2425" s="2">
+        <v>46079</v>
+      </c>
+      <c r="B2425">
+        <v>24</v>
+      </c>
+      <c r="C2425">
+        <v>6390</v>
+      </c>
+      <c r="D2425" t="s">
+        <v>2427</v>
+      </c>
+    </row>
+    <row r="2426" spans="1:4">
+      <c r="A2426" s="2">
+        <v>46079</v>
+      </c>
+      <c r="B2426">
+        <v>25</v>
+      </c>
+      <c r="C2426">
+        <v>6520</v>
+      </c>
+      <c r="D2426" t="s">
+        <v>2428</v>
+      </c>
+    </row>
+    <row r="2427" spans="1:4">
+      <c r="A2427" s="2">
+        <v>46079</v>
+      </c>
+      <c r="B2427">
+        <v>26</v>
+      </c>
+      <c r="C2427">
+        <v>6680</v>
+      </c>
+      <c r="D2427" t="s">
+        <v>2429</v>
+      </c>
+    </row>
+    <row r="2428" spans="1:4">
+      <c r="A2428" s="2">
+        <v>46079</v>
+      </c>
+      <c r="B2428">
+        <v>27</v>
+      </c>
+      <c r="C2428">
+        <v>6870</v>
+      </c>
+      <c r="D2428" t="s">
+        <v>2430</v>
+      </c>
+    </row>
+    <row r="2429" spans="1:4">
+      <c r="A2429" s="2">
+        <v>46079</v>
+      </c>
+      <c r="B2429">
+        <v>28</v>
+      </c>
+      <c r="C2429">
+        <v>7090</v>
+      </c>
+      <c r="D2429" t="s">
+        <v>2431</v>
+      </c>
+    </row>
+    <row r="2430" spans="1:4">
+      <c r="A2430" s="2">
+        <v>46079</v>
+      </c>
+      <c r="B2430">
+        <v>29</v>
+      </c>
+      <c r="C2430">
+        <v>7340</v>
+      </c>
+      <c r="D2430" t="s">
+        <v>2432</v>
+      </c>
+    </row>
+    <row r="2431" spans="1:4">
+      <c r="A2431" s="2">
+        <v>46079</v>
+      </c>
+      <c r="B2431">
+        <v>30</v>
+      </c>
+      <c r="C2431">
+        <v>7530</v>
+      </c>
+      <c r="D2431" t="s">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="2432" spans="1:4">
+      <c r="A2432" s="2">
+        <v>46079</v>
+      </c>
+      <c r="B2432">
+        <v>31</v>
+      </c>
+      <c r="C2432">
+        <v>7670</v>
+      </c>
+      <c r="D2432" t="s">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="2433" spans="1:4">
+      <c r="A2433" s="2">
+        <v>46079</v>
+      </c>
+      <c r="B2433">
+        <v>32</v>
+      </c>
+      <c r="C2433">
+        <v>7740</v>
+      </c>
+      <c r="D2433" t="s">
+        <v>2435</v>
+      </c>
+    </row>
+    <row r="2434" spans="1:4">
+      <c r="A2434" s="2">
+        <v>46079</v>
+      </c>
+      <c r="B2434">
+        <v>33</v>
+      </c>
+      <c r="C2434">
+        <v>7760</v>
+      </c>
+      <c r="D2434" t="s">
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="2435" spans="1:4">
+      <c r="A2435" s="2">
+        <v>46079</v>
+      </c>
+      <c r="B2435">
+        <v>34</v>
+      </c>
+      <c r="C2435">
+        <v>7750</v>
+      </c>
+      <c r="D2435" t="s">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="2436" spans="1:4">
+      <c r="A2436" s="2">
+        <v>46079</v>
+      </c>
+      <c r="B2436">
+        <v>35</v>
+      </c>
+      <c r="C2436">
+        <v>7730</v>
+      </c>
+      <c r="D2436" t="s">
+        <v>2438</v>
+      </c>
+    </row>
+    <row r="2437" spans="1:4">
+      <c r="A2437" s="2">
+        <v>46079</v>
+      </c>
+      <c r="B2437">
+        <v>36</v>
+      </c>
+      <c r="C2437">
+        <v>7690</v>
+      </c>
+      <c r="D2437" t="s">
+        <v>2439</v>
+      </c>
+    </row>
+    <row r="2438" spans="1:4">
+      <c r="A2438" s="2">
+        <v>46079</v>
+      </c>
+      <c r="B2438">
+        <v>37</v>
+      </c>
+      <c r="C2438">
+        <v>7640</v>
+      </c>
+      <c r="D2438" t="s">
+        <v>2440</v>
+      </c>
+    </row>
+    <row r="2439" spans="1:4">
+      <c r="A2439" s="2">
+        <v>46079</v>
+      </c>
+      <c r="B2439">
+        <v>38</v>
+      </c>
+      <c r="C2439">
+        <v>7570</v>
+      </c>
+      <c r="D2439" t="s">
+        <v>2441</v>
+      </c>
+    </row>
+    <row r="2440" spans="1:4">
+      <c r="A2440" s="2">
+        <v>46079</v>
+      </c>
+      <c r="B2440">
+        <v>39</v>
+      </c>
+      <c r="C2440">
+        <v>7480</v>
+      </c>
+      <c r="D2440" t="s">
+        <v>2442</v>
+      </c>
+    </row>
+    <row r="2441" spans="1:4">
+      <c r="A2441" s="2">
+        <v>46079</v>
+      </c>
+      <c r="B2441">
+        <v>40</v>
+      </c>
+      <c r="C2441">
+        <v>7380</v>
+      </c>
+      <c r="D2441" t="s">
+        <v>2443</v>
+      </c>
+    </row>
+    <row r="2442" spans="1:4">
+      <c r="A2442" s="2">
+        <v>46079</v>
+      </c>
+      <c r="B2442">
+        <v>41</v>
+      </c>
+      <c r="C2442">
+        <v>7270</v>
+      </c>
+      <c r="D2442" t="s">
+        <v>2444</v>
+      </c>
+    </row>
+    <row r="2443" spans="1:4">
+      <c r="A2443" s="2">
+        <v>46079</v>
+      </c>
+      <c r="B2443">
+        <v>42</v>
+      </c>
+      <c r="C2443">
+        <v>7160</v>
+      </c>
+      <c r="D2443" t="s">
+        <v>2445</v>
+      </c>
+    </row>
+    <row r="2444" spans="1:4">
+      <c r="A2444" s="2">
+        <v>46079</v>
+      </c>
+      <c r="B2444">
+        <v>43</v>
+      </c>
+      <c r="C2444">
+        <v>7040</v>
+      </c>
+      <c r="D2444" t="s">
+        <v>2446</v>
+      </c>
+    </row>
+    <row r="2445" spans="1:4">
+      <c r="A2445" s="2">
+        <v>46079</v>
+      </c>
+      <c r="B2445">
+        <v>44</v>
+      </c>
+      <c r="C2445">
+        <v>6920</v>
+      </c>
+      <c r="D2445" t="s">
+        <v>2447</v>
+      </c>
+    </row>
+    <row r="2446" spans="1:4">
+      <c r="A2446" s="2">
+        <v>46079</v>
+      </c>
+      <c r="B2446">
+        <v>45</v>
+      </c>
+      <c r="C2446">
+        <v>6800</v>
+      </c>
+      <c r="D2446" t="s">
+        <v>2448</v>
+      </c>
+    </row>
+    <row r="2447" spans="1:4">
+      <c r="A2447" s="2">
+        <v>46079</v>
+      </c>
+      <c r="B2447">
+        <v>46</v>
+      </c>
+      <c r="C2447">
+        <v>6700</v>
+      </c>
+      <c r="D2447" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="2448" spans="1:4">
+      <c r="A2448" s="2">
+        <v>46079</v>
+      </c>
+      <c r="B2448">
+        <v>47</v>
+      </c>
+      <c r="C2448">
+        <v>6630</v>
+      </c>
+      <c r="D2448" t="s">
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="2449" spans="1:4">
+      <c r="A2449" s="2">
+        <v>46079</v>
+      </c>
+      <c r="B2449">
+        <v>48</v>
+      </c>
+      <c r="C2449">
+        <v>6570</v>
+      </c>
+      <c r="D2449" t="s">
+        <v>2451</v>
+      </c>
+    </row>
+    <row r="2450" spans="1:4">
+      <c r="A2450" s="2">
+        <v>46079</v>
+      </c>
+      <c r="B2450">
+        <v>49</v>
+      </c>
+      <c r="C2450">
+        <v>6540</v>
+      </c>
+      <c r="D2450" t="s">
+        <v>2452</v>
+      </c>
+    </row>
+    <row r="2451" spans="1:4">
+      <c r="A2451" s="2">
+        <v>46079</v>
+      </c>
+      <c r="B2451">
+        <v>50</v>
+      </c>
+      <c r="C2451">
+        <v>6520</v>
+      </c>
+      <c r="D2451" t="s">
+        <v>2453</v>
+      </c>
+    </row>
+    <row r="2452" spans="1:4">
+      <c r="A2452" s="2">
+        <v>46079</v>
+      </c>
+      <c r="B2452">
+        <v>51</v>
+      </c>
+      <c r="C2452">
+        <v>6500</v>
+      </c>
+      <c r="D2452" t="s">
+        <v>2454</v>
+      </c>
+    </row>
+    <row r="2453" spans="1:4">
+      <c r="A2453" s="2">
+        <v>46079</v>
+      </c>
+      <c r="B2453">
+        <v>52</v>
+      </c>
+      <c r="C2453">
+        <v>6480</v>
+      </c>
+      <c r="D2453" t="s">
+        <v>2455</v>
+      </c>
+    </row>
+    <row r="2454" spans="1:4">
+      <c r="A2454" s="2">
+        <v>46079</v>
+      </c>
+      <c r="B2454">
+        <v>53</v>
+      </c>
+      <c r="C2454">
+        <v>6480</v>
+      </c>
+      <c r="D2454" t="s">
+        <v>2456</v>
+      </c>
+    </row>
+    <row r="2455" spans="1:4">
+      <c r="A2455" s="2">
+        <v>46079</v>
+      </c>
+      <c r="B2455">
+        <v>54</v>
+      </c>
+      <c r="C2455">
+        <v>6470</v>
+      </c>
+      <c r="D2455" t="s">
+        <v>2457</v>
+      </c>
+    </row>
+    <row r="2456" spans="1:4">
+      <c r="A2456" s="2">
+        <v>46079</v>
+      </c>
+      <c r="B2456">
+        <v>55</v>
+      </c>
+      <c r="C2456">
+        <v>6470</v>
+      </c>
+      <c r="D2456" t="s">
+        <v>2458</v>
+      </c>
+    </row>
+    <row r="2457" spans="1:4">
+      <c r="A2457" s="2">
+        <v>46079</v>
+      </c>
+      <c r="B2457">
+        <v>56</v>
+      </c>
+      <c r="C2457">
+        <v>6470</v>
+      </c>
+      <c r="D2457" t="s">
+        <v>2459</v>
+      </c>
+    </row>
+    <row r="2458" spans="1:4">
+      <c r="A2458" s="2">
+        <v>46079</v>
+      </c>
+      <c r="B2458">
+        <v>57</v>
+      </c>
+      <c r="C2458">
+        <v>6480</v>
+      </c>
+      <c r="D2458" t="s">
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="2459" spans="1:4">
+      <c r="A2459" s="2">
+        <v>46079</v>
+      </c>
+      <c r="B2459">
+        <v>58</v>
+      </c>
+      <c r="C2459">
+        <v>6500</v>
+      </c>
+      <c r="D2459" t="s">
+        <v>2461</v>
+      </c>
+    </row>
+    <row r="2460" spans="1:4">
+      <c r="A2460" s="2">
+        <v>46079</v>
+      </c>
+      <c r="B2460">
+        <v>59</v>
+      </c>
+      <c r="C2460">
+        <v>6540</v>
+      </c>
+      <c r="D2460" t="s">
+        <v>2462</v>
+      </c>
+    </row>
+    <row r="2461" spans="1:4">
+      <c r="A2461" s="2">
+        <v>46079</v>
+      </c>
+      <c r="B2461">
+        <v>60</v>
+      </c>
+      <c r="C2461">
+        <v>6600</v>
+      </c>
+      <c r="D2461" t="s">
+        <v>2463</v>
+      </c>
+    </row>
+    <row r="2462" spans="1:4">
+      <c r="A2462" s="2">
+        <v>46079</v>
+      </c>
+      <c r="B2462">
+        <v>61</v>
+      </c>
+      <c r="C2462">
+        <v>6670</v>
+      </c>
+      <c r="D2462" t="s">
+        <v>2464</v>
+      </c>
+    </row>
+    <row r="2463" spans="1:4">
+      <c r="A2463" s="2">
+        <v>46079</v>
+      </c>
+      <c r="B2463">
+        <v>62</v>
+      </c>
+      <c r="C2463">
+        <v>6750</v>
+      </c>
+      <c r="D2463" t="s">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="2464" spans="1:4">
+      <c r="A2464" s="2">
+        <v>46079</v>
+      </c>
+      <c r="B2464">
+        <v>63</v>
+      </c>
+      <c r="C2464">
+        <v>6840</v>
+      </c>
+      <c r="D2464" t="s">
+        <v>2466</v>
+      </c>
+    </row>
+    <row r="2465" spans="1:4">
+      <c r="A2465" s="2">
+        <v>46079</v>
+      </c>
+      <c r="B2465">
+        <v>64</v>
+      </c>
+      <c r="C2465">
+        <v>6930</v>
+      </c>
+      <c r="D2465" t="s">
+        <v>2467</v>
+      </c>
+    </row>
+    <row r="2466" spans="1:4">
+      <c r="A2466" s="2">
+        <v>46079</v>
+      </c>
+      <c r="B2466">
+        <v>65</v>
+      </c>
+      <c r="C2466">
+        <v>7030</v>
+      </c>
+      <c r="D2466" t="s">
+        <v>2468</v>
+      </c>
+    </row>
+    <row r="2467" spans="1:4">
+      <c r="A2467" s="2">
+        <v>46079</v>
+      </c>
+      <c r="B2467">
+        <v>66</v>
+      </c>
+      <c r="C2467">
+        <v>7140</v>
+      </c>
+      <c r="D2467" t="s">
+        <v>2469</v>
+      </c>
+    </row>
+    <row r="2468" spans="1:4">
+      <c r="A2468" s="2">
+        <v>46079</v>
+      </c>
+      <c r="B2468">
+        <v>67</v>
+      </c>
+      <c r="C2468">
+        <v>7240</v>
+      </c>
+      <c r="D2468" t="s">
+        <v>2470</v>
+      </c>
+    </row>
+    <row r="2469" spans="1:4">
+      <c r="A2469" s="2">
+        <v>46079</v>
+      </c>
+      <c r="B2469">
+        <v>68</v>
+      </c>
+      <c r="C2469">
+        <v>7350</v>
+      </c>
+      <c r="D2469" t="s">
+        <v>2471</v>
+      </c>
+    </row>
+    <row r="2470" spans="1:4">
+      <c r="A2470" s="2">
+        <v>46079</v>
+      </c>
+      <c r="B2470">
+        <v>69</v>
+      </c>
+      <c r="C2470">
+        <v>7460</v>
+      </c>
+      <c r="D2470" t="s">
+        <v>2472</v>
+      </c>
+    </row>
+    <row r="2471" spans="1:4">
+      <c r="A2471" s="2">
+        <v>46079</v>
+      </c>
+      <c r="B2471">
+        <v>70</v>
+      </c>
+      <c r="C2471">
+        <v>7570</v>
+      </c>
+      <c r="D2471" t="s">
+        <v>2473</v>
+      </c>
+    </row>
+    <row r="2472" spans="1:4">
+      <c r="A2472" s="2">
+        <v>46079</v>
+      </c>
+      <c r="B2472">
+        <v>71</v>
+      </c>
+      <c r="C2472">
+        <v>7690</v>
+      </c>
+      <c r="D2472" t="s">
+        <v>2474</v>
+      </c>
+    </row>
+    <row r="2473" spans="1:4">
+      <c r="A2473" s="2">
+        <v>46079</v>
+      </c>
+      <c r="B2473">
+        <v>72</v>
+      </c>
+      <c r="C2473">
+        <v>7820</v>
+      </c>
+      <c r="D2473" t="s">
+        <v>2475</v>
+      </c>
+    </row>
+    <row r="2474" spans="1:4">
+      <c r="A2474" s="2">
+        <v>46079</v>
+      </c>
+      <c r="B2474">
+        <v>73</v>
+      </c>
+      <c r="C2474">
+        <v>7950</v>
+      </c>
+      <c r="D2474" t="s">
+        <v>2476</v>
+      </c>
+    </row>
+    <row r="2475" spans="1:4">
+      <c r="A2475" s="2">
+        <v>46079</v>
+      </c>
+      <c r="B2475">
+        <v>74</v>
+      </c>
+      <c r="C2475">
+        <v>8060</v>
+      </c>
+      <c r="D2475" t="s">
+        <v>2477</v>
+      </c>
+    </row>
+    <row r="2476" spans="1:4">
+      <c r="A2476" s="2">
+        <v>46079</v>
+      </c>
+      <c r="B2476">
+        <v>75</v>
+      </c>
+      <c r="C2476">
+        <v>8140</v>
+      </c>
+      <c r="D2476" t="s">
+        <v>2478</v>
+      </c>
+    </row>
+    <row r="2477" spans="1:4">
+      <c r="A2477" s="2">
+        <v>46079</v>
+      </c>
+      <c r="B2477">
+        <v>76</v>
+      </c>
+      <c r="C2477">
+        <v>8180</v>
+      </c>
+      <c r="D2477" t="s">
+        <v>2479</v>
+      </c>
+    </row>
+    <row r="2478" spans="1:4">
+      <c r="A2478" s="2">
+        <v>46079</v>
+      </c>
+      <c r="B2478">
+        <v>77</v>
+      </c>
+      <c r="C2478">
+        <v>8200</v>
+      </c>
+      <c r="D2478" t="s">
+        <v>2480</v>
+      </c>
+    </row>
+    <row r="2479" spans="1:4">
+      <c r="A2479" s="2">
+        <v>46079</v>
+      </c>
+      <c r="B2479">
+        <v>78</v>
+      </c>
+      <c r="C2479">
+        <v>8210</v>
+      </c>
+      <c r="D2479" t="s">
+        <v>2481</v>
+      </c>
+    </row>
+    <row r="2480" spans="1:4">
+      <c r="A2480" s="2">
+        <v>46079</v>
+      </c>
+      <c r="B2480">
+        <v>79</v>
+      </c>
+      <c r="C2480">
+        <v>8200</v>
+      </c>
+      <c r="D2480" t="s">
+        <v>2482</v>
+      </c>
+    </row>
+    <row r="2481" spans="1:4">
+      <c r="A2481" s="2">
+        <v>46079</v>
+      </c>
+      <c r="B2481">
+        <v>80</v>
+      </c>
+      <c r="C2481">
+        <v>8180</v>
+      </c>
+      <c r="D2481" t="s">
+        <v>2483</v>
+      </c>
+    </row>
+    <row r="2482" spans="1:4">
+      <c r="A2482" s="2">
+        <v>46079</v>
+      </c>
+      <c r="B2482">
+        <v>81</v>
+      </c>
+      <c r="C2482">
+        <v>8140</v>
+      </c>
+      <c r="D2482" t="s">
+        <v>2484</v>
+      </c>
+    </row>
+    <row r="2483" spans="1:4">
+      <c r="A2483" s="2">
+        <v>46079</v>
+      </c>
+      <c r="B2483">
+        <v>82</v>
+      </c>
+      <c r="C2483">
+        <v>8090</v>
+      </c>
+      <c r="D2483" t="s">
+        <v>2485</v>
+      </c>
+    </row>
+    <row r="2484" spans="1:4">
+      <c r="A2484" s="2">
+        <v>46079</v>
+      </c>
+      <c r="B2484">
+        <v>83</v>
+      </c>
+      <c r="C2484">
+        <v>8020</v>
+      </c>
+      <c r="D2484" t="s">
+        <v>2486</v>
+      </c>
+    </row>
+    <row r="2485" spans="1:4">
+      <c r="A2485" s="2">
+        <v>46079</v>
+      </c>
+      <c r="B2485">
+        <v>84</v>
+      </c>
+      <c r="C2485">
+        <v>7930</v>
+      </c>
+      <c r="D2485" t="s">
+        <v>2487</v>
+      </c>
+    </row>
+    <row r="2486" spans="1:4">
+      <c r="A2486" s="2">
+        <v>46079</v>
+      </c>
+      <c r="B2486">
+        <v>85</v>
+      </c>
+      <c r="C2486">
+        <v>7830</v>
+      </c>
+      <c r="D2486" t="s">
+        <v>2488</v>
+      </c>
+    </row>
+    <row r="2487" spans="1:4">
+      <c r="A2487" s="2">
+        <v>46079</v>
+      </c>
+      <c r="B2487">
+        <v>86</v>
+      </c>
+      <c r="C2487">
+        <v>7720</v>
+      </c>
+      <c r="D2487" t="s">
+        <v>2489</v>
+      </c>
+    </row>
+    <row r="2488" spans="1:4">
+      <c r="A2488" s="2">
+        <v>46079</v>
+      </c>
+      <c r="B2488">
+        <v>87</v>
+      </c>
+      <c r="C2488">
+        <v>7580</v>
+      </c>
+      <c r="D2488" t="s">
+        <v>2490</v>
+      </c>
+    </row>
+    <row r="2489" spans="1:4">
+      <c r="A2489" s="2">
+        <v>46079</v>
+      </c>
+      <c r="B2489">
+        <v>88</v>
+      </c>
+      <c r="C2489">
+        <v>7430</v>
+      </c>
+      <c r="D2489" t="s">
+        <v>2491</v>
+      </c>
+    </row>
+    <row r="2490" spans="1:4">
+      <c r="A2490" s="2">
+        <v>46079</v>
+      </c>
+      <c r="B2490">
+        <v>89</v>
+      </c>
+      <c r="C2490">
+        <v>7270</v>
+      </c>
+      <c r="D2490" t="s">
+        <v>2492</v>
+      </c>
+    </row>
+    <row r="2491" spans="1:4">
+      <c r="A2491" s="2">
+        <v>46079</v>
+      </c>
+      <c r="B2491">
+        <v>90</v>
+      </c>
+      <c r="C2491">
+        <v>7110</v>
+      </c>
+      <c r="D2491" t="s">
+        <v>2493</v>
+      </c>
+    </row>
+    <row r="2492" spans="1:4">
+      <c r="A2492" s="2">
+        <v>46079</v>
+      </c>
+      <c r="B2492">
+        <v>91</v>
+      </c>
+      <c r="C2492">
+        <v>6960</v>
+      </c>
+      <c r="D2492" t="s">
+        <v>2494</v>
+      </c>
+    </row>
+    <row r="2493" spans="1:4">
+      <c r="A2493" s="2">
+        <v>46079</v>
+      </c>
+      <c r="B2493">
+        <v>92</v>
+      </c>
+      <c r="C2493">
+        <v>6820</v>
+      </c>
+      <c r="D2493" t="s">
+        <v>2495</v>
+      </c>
+    </row>
+    <row r="2494" spans="1:4">
+      <c r="A2494" s="2">
+        <v>46079</v>
+      </c>
+      <c r="B2494">
+        <v>93</v>
+      </c>
+      <c r="C2494">
+        <v>6690</v>
+      </c>
+      <c r="D2494" t="s">
+        <v>2496</v>
+      </c>
+    </row>
+    <row r="2495" spans="1:4">
+      <c r="A2495" s="2">
+        <v>46079</v>
+      </c>
+      <c r="B2495">
+        <v>94</v>
+      </c>
+      <c r="C2495">
+        <v>6570</v>
+      </c>
+      <c r="D2495" t="s">
+        <v>2497</v>
+      </c>
+    </row>
+    <row r="2496" spans="1:4">
+      <c r="A2496" s="2">
+        <v>46079</v>
+      </c>
+      <c r="B2496">
+        <v>95</v>
+      </c>
+      <c r="C2496">
+        <v>6460</v>
+      </c>
+      <c r="D2496" t="s">
+        <v>2498</v>
+      </c>
+    </row>
+    <row r="2497" spans="1:4">
+      <c r="A2497" s="2">
+        <v>46079</v>
+      </c>
+      <c r="B2497">
+        <v>96</v>
+      </c>
+      <c r="C2497">
+        <v>6370</v>
+      </c>
+      <c r="D2497" t="s">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="2498" spans="1:4">
+      <c r="A2498" s="2">
+        <v>46080</v>
+      </c>
+      <c r="B2498">
+        <v>1</v>
+      </c>
+      <c r="C2498">
+        <v>6220</v>
+      </c>
+      <c r="D2498" t="s">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="2499" spans="1:4">
+      <c r="A2499" s="2">
+        <v>46080</v>
+      </c>
+      <c r="B2499">
+        <v>2</v>
+      </c>
+      <c r="C2499">
+        <v>6150</v>
+      </c>
+      <c r="D2499" t="s">
+        <v>2501</v>
+      </c>
+    </row>
+    <row r="2500" spans="1:4">
+      <c r="A2500" s="2">
+        <v>46080</v>
+      </c>
+      <c r="B2500">
+        <v>3</v>
+      </c>
+      <c r="C2500">
+        <v>6090</v>
+      </c>
+      <c r="D2500" t="s">
+        <v>2502</v>
+      </c>
+    </row>
+    <row r="2501" spans="1:4">
+      <c r="A2501" s="2">
+        <v>46080</v>
+      </c>
+      <c r="B2501">
+        <v>4</v>
+      </c>
+      <c r="C2501">
+        <v>6030</v>
+      </c>
+      <c r="D2501" t="s">
+        <v>2503</v>
+      </c>
+    </row>
+    <row r="2502" spans="1:4">
+      <c r="A2502" s="2">
+        <v>46080</v>
+      </c>
+      <c r="B2502">
+        <v>5</v>
+      </c>
+      <c r="C2502">
+        <v>5990</v>
+      </c>
+      <c r="D2502" t="s">
+        <v>2504</v>
+      </c>
+    </row>
+    <row r="2503" spans="1:4">
+      <c r="A2503" s="2">
+        <v>46080</v>
+      </c>
+      <c r="B2503">
+        <v>6</v>
+      </c>
+      <c r="C2503">
+        <v>5960</v>
+      </c>
+      <c r="D2503" t="s">
+        <v>2505</v>
+      </c>
+    </row>
+    <row r="2504" spans="1:4">
+      <c r="A2504" s="2">
+        <v>46080</v>
+      </c>
+      <c r="B2504">
+        <v>7</v>
+      </c>
+      <c r="C2504">
+        <v>5920</v>
+      </c>
+      <c r="D2504" t="s">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="2505" spans="1:4">
+      <c r="A2505" s="2">
+        <v>46080</v>
+      </c>
+      <c r="B2505">
+        <v>8</v>
+      </c>
+      <c r="C2505">
+        <v>5890</v>
+      </c>
+      <c r="D2505" t="s">
+        <v>2507</v>
+      </c>
+    </row>
+    <row r="2506" spans="1:4">
+      <c r="A2506" s="2">
+        <v>46080</v>
+      </c>
+      <c r="B2506">
+        <v>9</v>
+      </c>
+      <c r="C2506">
+        <v>5870</v>
+      </c>
+      <c r="D2506" t="s">
+        <v>2508</v>
+      </c>
+    </row>
+    <row r="2507" spans="1:4">
+      <c r="A2507" s="2">
+        <v>46080</v>
+      </c>
+      <c r="B2507">
+        <v>10</v>
+      </c>
+      <c r="C2507">
+        <v>5850</v>
+      </c>
+      <c r="D2507" t="s">
+        <v>2509</v>
+      </c>
+    </row>
+    <row r="2508" spans="1:4">
+      <c r="A2508" s="2">
+        <v>46080</v>
+      </c>
+      <c r="B2508">
+        <v>11</v>
+      </c>
+      <c r="C2508">
+        <v>5840</v>
+      </c>
+      <c r="D2508" t="s">
+        <v>2510</v>
+      </c>
+    </row>
+    <row r="2509" spans="1:4">
+      <c r="A2509" s="2">
+        <v>46080</v>
+      </c>
+      <c r="B2509">
+        <v>12</v>
+      </c>
+      <c r="C2509">
+        <v>5830</v>
+      </c>
+      <c r="D2509" t="s">
+        <v>2511</v>
+      </c>
+    </row>
+    <row r="2510" spans="1:4">
+      <c r="A2510" s="2">
+        <v>46080</v>
+      </c>
+      <c r="B2510">
+        <v>13</v>
+      </c>
+      <c r="C2510">
+        <v>5830</v>
+      </c>
+      <c r="D2510" t="s">
+        <v>2512</v>
+      </c>
+    </row>
+    <row r="2511" spans="1:4">
+      <c r="A2511" s="2">
+        <v>46080</v>
+      </c>
+      <c r="B2511">
+        <v>14</v>
+      </c>
+      <c r="C2511">
+        <v>5840</v>
+      </c>
+      <c r="D2511" t="s">
+        <v>2513</v>
+      </c>
+    </row>
+    <row r="2512" spans="1:4">
+      <c r="A2512" s="2">
+        <v>46080</v>
+      </c>
+      <c r="B2512">
+        <v>15</v>
+      </c>
+      <c r="C2512">
+        <v>5850</v>
+      </c>
+      <c r="D2512" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="2513" spans="1:4">
+      <c r="A2513" s="2">
+        <v>46080</v>
+      </c>
+      <c r="B2513">
+        <v>16</v>
+      </c>
+      <c r="C2513">
+        <v>5850</v>
+      </c>
+      <c r="D2513" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="2514" spans="1:4">
+      <c r="A2514" s="2">
+        <v>46080</v>
+      </c>
+      <c r="B2514">
+        <v>17</v>
+      </c>
+      <c r="C2514">
+        <v>5870</v>
+      </c>
+      <c r="D2514" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="2515" spans="1:4">
+      <c r="A2515" s="2">
+        <v>46080</v>
+      </c>
+      <c r="B2515">
+        <v>18</v>
+      </c>
+      <c r="C2515">
+        <v>5890</v>
+      </c>
+      <c r="D2515" t="s">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="2516" spans="1:4">
+      <c r="A2516" s="2">
+        <v>46080</v>
+      </c>
+      <c r="B2516">
+        <v>19</v>
+      </c>
+      <c r="C2516">
+        <v>5920</v>
+      </c>
+      <c r="D2516" t="s">
+        <v>2518</v>
+      </c>
+    </row>
+    <row r="2517" spans="1:4">
+      <c r="A2517" s="2">
+        <v>46080</v>
+      </c>
+      <c r="B2517">
+        <v>20</v>
+      </c>
+      <c r="C2517">
+        <v>5950</v>
+      </c>
+      <c r="D2517" t="s">
+        <v>2519</v>
+      </c>
+    </row>
+    <row r="2518" spans="1:4">
+      <c r="A2518" s="2">
+        <v>46080</v>
+      </c>
+      <c r="B2518">
+        <v>21</v>
+      </c>
+      <c r="C2518">
+        <v>6000</v>
+      </c>
+      <c r="D2518" t="s">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="2519" spans="1:4">
+      <c r="A2519" s="2">
+        <v>46080</v>
+      </c>
+      <c r="B2519">
+        <v>22</v>
+      </c>
+      <c r="C2519">
+        <v>6070</v>
+      </c>
+      <c r="D2519" t="s">
+        <v>2521</v>
+      </c>
+    </row>
+    <row r="2520" spans="1:4">
+      <c r="A2520" s="2">
+        <v>46080</v>
+      </c>
+      <c r="B2520">
+        <v>23</v>
+      </c>
+      <c r="C2520">
+        <v>6150</v>
+      </c>
+      <c r="D2520" t="s">
+        <v>2522</v>
+      </c>
+    </row>
+    <row r="2521" spans="1:4">
+      <c r="A2521" s="2">
+        <v>46080</v>
+      </c>
+      <c r="B2521">
+        <v>24</v>
+      </c>
+      <c r="C2521">
+        <v>6260</v>
+      </c>
+      <c r="D2521" t="s">
+        <v>2523</v>
+      </c>
+    </row>
+    <row r="2522" spans="1:4">
+      <c r="A2522" s="2">
+        <v>46080</v>
+      </c>
+      <c r="B2522">
+        <v>25</v>
+      </c>
+      <c r="C2522">
+        <v>6380</v>
+      </c>
+      <c r="D2522" t="s">
+        <v>2524</v>
+      </c>
+    </row>
+    <row r="2523" spans="1:4">
+      <c r="A2523" s="2">
+        <v>46080</v>
+      </c>
+      <c r="B2523">
+        <v>26</v>
+      </c>
+      <c r="C2523">
+        <v>6530</v>
+      </c>
+      <c r="D2523" t="s">
+        <v>2525</v>
+      </c>
+    </row>
+    <row r="2524" spans="1:4">
+      <c r="A2524" s="2">
+        <v>46080</v>
+      </c>
+      <c r="B2524">
+        <v>27</v>
+      </c>
+      <c r="C2524">
+        <v>6710</v>
+      </c>
+      <c r="D2524" t="s">
+        <v>2526</v>
+      </c>
+    </row>
+    <row r="2525" spans="1:4">
+      <c r="A2525" s="2">
+        <v>46080</v>
+      </c>
+      <c r="B2525">
+        <v>28</v>
+      </c>
+      <c r="C2525">
+        <v>6920</v>
+      </c>
+      <c r="D2525" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="2526" spans="1:4">
+      <c r="A2526" s="2">
+        <v>46080</v>
+      </c>
+      <c r="B2526">
+        <v>29</v>
+      </c>
+      <c r="C2526">
+        <v>7140</v>
+      </c>
+      <c r="D2526" t="s">
+        <v>2528</v>
+      </c>
+    </row>
+    <row r="2527" spans="1:4">
+      <c r="A2527" s="2">
+        <v>46080</v>
+      </c>
+      <c r="B2527">
+        <v>30</v>
+      </c>
+      <c r="C2527">
+        <v>7320</v>
+      </c>
+      <c r="D2527" t="s">
+        <v>2529</v>
+      </c>
+    </row>
+    <row r="2528" spans="1:4">
+      <c r="A2528" s="2">
+        <v>46080</v>
+      </c>
+      <c r="B2528">
+        <v>31</v>
+      </c>
+      <c r="C2528">
+        <v>7450</v>
+      </c>
+      <c r="D2528" t="s">
+        <v>2530</v>
+      </c>
+    </row>
+    <row r="2529" spans="1:4">
+      <c r="A2529" s="2">
+        <v>46080</v>
+      </c>
+      <c r="B2529">
+        <v>32</v>
+      </c>
+      <c r="C2529">
+        <v>7520</v>
+      </c>
+      <c r="D2529" t="s">
+        <v>2531</v>
+      </c>
+    </row>
+    <row r="2530" spans="1:4">
+      <c r="A2530" s="2">
+        <v>46080</v>
+      </c>
+      <c r="B2530">
+        <v>33</v>
+      </c>
+      <c r="C2530">
+        <v>7560</v>
+      </c>
+      <c r="D2530" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="2531" spans="1:4">
+      <c r="A2531" s="2">
+        <v>46080</v>
+      </c>
+      <c r="B2531">
+        <v>34</v>
+      </c>
+      <c r="C2531">
+        <v>7560</v>
+      </c>
+      <c r="D2531" t="s">
+        <v>2533</v>
+      </c>
+    </row>
+    <row r="2532" spans="1:4">
+      <c r="A2532" s="2">
+        <v>46080</v>
+      </c>
+      <c r="B2532">
+        <v>35</v>
+      </c>
+      <c r="C2532">
+        <v>7550</v>
+      </c>
+      <c r="D2532" t="s">
+        <v>2534</v>
+      </c>
+    </row>
+    <row r="2533" spans="1:4">
+      <c r="A2533" s="2">
+        <v>46080</v>
+      </c>
+      <c r="B2533">
+        <v>36</v>
+      </c>
+      <c r="C2533">
+        <v>7520</v>
+      </c>
+      <c r="D2533" t="s">
+        <v>2535</v>
+      </c>
+    </row>
+    <row r="2534" spans="1:4">
+      <c r="A2534" s="2">
+        <v>46080</v>
+      </c>
+      <c r="B2534">
+        <v>37</v>
+      </c>
+      <c r="C2534">
+        <v>7480</v>
+      </c>
+      <c r="D2534" t="s">
+        <v>2536</v>
+      </c>
+    </row>
+    <row r="2535" spans="1:4">
+      <c r="A2535" s="2">
+        <v>46080</v>
+      </c>
+      <c r="B2535">
+        <v>38</v>
+      </c>
+      <c r="C2535">
+        <v>7410</v>
+      </c>
+      <c r="D2535" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="2536" spans="1:4">
+      <c r="A2536" s="2">
+        <v>46080</v>
+      </c>
+      <c r="B2536">
+        <v>39</v>
+      </c>
+      <c r="C2536">
+        <v>7340</v>
+      </c>
+      <c r="D2536" t="s">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="2537" spans="1:4">
+      <c r="A2537" s="2">
+        <v>46080</v>
+      </c>
+      <c r="B2537">
+        <v>40</v>
+      </c>
+      <c r="C2537">
+        <v>7250</v>
+      </c>
+      <c r="D2537" t="s">
+        <v>2539</v>
+      </c>
+    </row>
+    <row r="2538" spans="1:4">
+      <c r="A2538" s="2">
+        <v>46080</v>
+      </c>
+      <c r="B2538">
+        <v>41</v>
+      </c>
+      <c r="C2538">
+        <v>7160</v>
+      </c>
+      <c r="D2538" t="s">
+        <v>2540</v>
+      </c>
+    </row>
+    <row r="2539" spans="1:4">
+      <c r="A2539" s="2">
+        <v>46080</v>
+      </c>
+      <c r="B2539">
+        <v>42</v>
+      </c>
+      <c r="C2539">
+        <v>7060</v>
+      </c>
+      <c r="D2539" t="s">
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="2540" spans="1:4">
+      <c r="A2540" s="2">
+        <v>46080</v>
+      </c>
+      <c r="B2540">
+        <v>43</v>
+      </c>
+      <c r="C2540">
+        <v>6960</v>
+      </c>
+      <c r="D2540" t="s">
+        <v>2542</v>
+      </c>
+    </row>
+    <row r="2541" spans="1:4">
+      <c r="A2541" s="2">
+        <v>46080</v>
+      </c>
+      <c r="B2541">
+        <v>44</v>
+      </c>
+      <c r="C2541">
+        <v>6850</v>
+      </c>
+      <c r="D2541" t="s">
+        <v>2543</v>
+      </c>
+    </row>
+    <row r="2542" spans="1:4">
+      <c r="A2542" s="2">
+        <v>46080</v>
+      </c>
+      <c r="B2542">
+        <v>45</v>
+      </c>
+      <c r="C2542">
+        <v>6750</v>
+      </c>
+      <c r="D2542" t="s">
+        <v>2544</v>
+      </c>
+    </row>
+    <row r="2543" spans="1:4">
+      <c r="A2543" s="2">
+        <v>46080</v>
+      </c>
+      <c r="B2543">
+        <v>46</v>
+      </c>
+      <c r="C2543">
+        <v>6670</v>
+      </c>
+      <c r="D2543" t="s">
+        <v>2545</v>
+      </c>
+    </row>
+    <row r="2544" spans="1:4">
+      <c r="A2544" s="2">
+        <v>46080</v>
+      </c>
+      <c r="B2544">
+        <v>47</v>
+      </c>
+      <c r="C2544">
+        <v>6600</v>
+      </c>
+      <c r="D2544" t="s">
+        <v>2546</v>
+      </c>
+    </row>
+    <row r="2545" spans="1:4">
+      <c r="A2545" s="2">
+        <v>46080</v>
+      </c>
+      <c r="B2545">
+        <v>48</v>
+      </c>
+      <c r="C2545">
+        <v>6540</v>
+      </c>
+      <c r="D2545" t="s">
+        <v>2547</v>
+      </c>
+    </row>
+    <row r="2546" spans="1:4">
+      <c r="A2546" s="2">
+        <v>46080</v>
+      </c>
+      <c r="B2546">
+        <v>49</v>
+      </c>
+      <c r="C2546">
+        <v>6500</v>
+      </c>
+      <c r="D2546" t="s">
+        <v>2548</v>
+      </c>
+    </row>
+    <row r="2547" spans="1:4">
+      <c r="A2547" s="2">
+        <v>46080</v>
+      </c>
+      <c r="B2547">
+        <v>50</v>
+      </c>
+      <c r="C2547">
+        <v>6480</v>
+      </c>
+      <c r="D2547" t="s">
+        <v>2549</v>
+      </c>
+    </row>
+    <row r="2548" spans="1:4">
+      <c r="A2548" s="2">
+        <v>46080</v>
+      </c>
+      <c r="B2548">
+        <v>51</v>
+      </c>
+      <c r="C2548">
+        <v>6460</v>
+      </c>
+      <c r="D2548" t="s">
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="2549" spans="1:4">
+      <c r="A2549" s="2">
+        <v>46080</v>
+      </c>
+      <c r="B2549">
+        <v>52</v>
+      </c>
+      <c r="C2549">
+        <v>6450</v>
+      </c>
+      <c r="D2549" t="s">
+        <v>2551</v>
+      </c>
+    </row>
+    <row r="2550" spans="1:4">
+      <c r="A2550" s="2">
+        <v>46080</v>
+      </c>
+      <c r="B2550">
+        <v>53</v>
+      </c>
+      <c r="C2550">
+        <v>6450</v>
+      </c>
+      <c r="D2550" t="s">
+        <v>2552</v>
+      </c>
+    </row>
+    <row r="2551" spans="1:4">
+      <c r="A2551" s="2">
+        <v>46080</v>
+      </c>
+      <c r="B2551">
+        <v>54</v>
+      </c>
+      <c r="C2551">
+        <v>6460</v>
+      </c>
+      <c r="D2551" t="s">
+        <v>2553</v>
+      </c>
+    </row>
+    <row r="2552" spans="1:4">
+      <c r="A2552" s="2">
+        <v>46080</v>
+      </c>
+      <c r="B2552">
+        <v>55</v>
+      </c>
+      <c r="C2552">
+        <v>6470</v>
+      </c>
+      <c r="D2552" t="s">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="2553" spans="1:4">
+      <c r="A2553" s="2">
+        <v>46080</v>
+      </c>
+      <c r="B2553">
+        <v>56</v>
+      </c>
+      <c r="C2553">
+        <v>6480</v>
+      </c>
+      <c r="D2553" t="s">
+        <v>2555</v>
+      </c>
+    </row>
+    <row r="2554" spans="1:4">
+      <c r="A2554" s="2">
+        <v>46080</v>
+      </c>
+      <c r="B2554">
+        <v>57</v>
+      </c>
+      <c r="C2554">
+        <v>6510</v>
+      </c>
+      <c r="D2554" t="s">
+        <v>2556</v>
+      </c>
+    </row>
+    <row r="2555" spans="1:4">
+      <c r="A2555" s="2">
+        <v>46080</v>
+      </c>
+      <c r="B2555">
+        <v>58</v>
+      </c>
+      <c r="C2555">
+        <v>6530</v>
+      </c>
+      <c r="D2555" t="s">
+        <v>2557</v>
+      </c>
+    </row>
+    <row r="2556" spans="1:4">
+      <c r="A2556" s="2">
+        <v>46080</v>
+      </c>
+      <c r="B2556">
+        <v>59</v>
+      </c>
+      <c r="C2556">
+        <v>6570</v>
+      </c>
+      <c r="D2556" t="s">
+        <v>2558</v>
+      </c>
+    </row>
+    <row r="2557" spans="1:4">
+      <c r="A2557" s="2">
+        <v>46080</v>
+      </c>
+      <c r="B2557">
+        <v>60</v>
+      </c>
+      <c r="C2557">
+        <v>6620</v>
+      </c>
+      <c r="D2557" t="s">
+        <v>2559</v>
+      </c>
+    </row>
+    <row r="2558" spans="1:4">
+      <c r="A2558" s="2">
+        <v>46080</v>
+      </c>
+      <c r="B2558">
+        <v>61</v>
+      </c>
+      <c r="C2558">
+        <v>6670</v>
+      </c>
+      <c r="D2558" t="s">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="2559" spans="1:4">
+      <c r="A2559" s="2">
+        <v>46080</v>
+      </c>
+      <c r="B2559">
+        <v>62</v>
+      </c>
+      <c r="C2559">
+        <v>6730</v>
+      </c>
+      <c r="D2559" t="s">
+        <v>2561</v>
+      </c>
+    </row>
+    <row r="2560" spans="1:4">
+      <c r="A2560" s="2">
+        <v>46080</v>
+      </c>
+      <c r="B2560">
+        <v>63</v>
+      </c>
+      <c r="C2560">
+        <v>6800</v>
+      </c>
+      <c r="D2560" t="s">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="2561" spans="1:4">
+      <c r="A2561" s="2">
+        <v>46080</v>
+      </c>
+      <c r="B2561">
+        <v>64</v>
+      </c>
+      <c r="C2561">
+        <v>6880</v>
+      </c>
+      <c r="D2561" t="s">
+        <v>2563</v>
+      </c>
+    </row>
+    <row r="2562" spans="1:4">
+      <c r="A2562" s="2">
+        <v>46080</v>
+      </c>
+      <c r="B2562">
+        <v>65</v>
+      </c>
+      <c r="C2562">
+        <v>6970</v>
+      </c>
+      <c r="D2562" t="s">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="2563" spans="1:4">
+      <c r="A2563" s="2">
+        <v>46080</v>
+      </c>
+      <c r="B2563">
+        <v>66</v>
+      </c>
+      <c r="C2563">
+        <v>7050</v>
+      </c>
+      <c r="D2563" t="s">
+        <v>2565</v>
+      </c>
+    </row>
+    <row r="2564" spans="1:4">
+      <c r="A2564" s="2">
+        <v>46080</v>
+      </c>
+      <c r="B2564">
+        <v>67</v>
+      </c>
+      <c r="C2564">
+        <v>7140</v>
+      </c>
+      <c r="D2564" t="s">
+        <v>2566</v>
+      </c>
+    </row>
+    <row r="2565" spans="1:4">
+      <c r="A2565" s="2">
+        <v>46080</v>
+      </c>
+      <c r="B2565">
+        <v>68</v>
+      </c>
+      <c r="C2565">
+        <v>7220</v>
+      </c>
+      <c r="D2565" t="s">
+        <v>2567</v>
+      </c>
+    </row>
+    <row r="2566" spans="1:4">
+      <c r="A2566" s="2">
+        <v>46080</v>
+      </c>
+      <c r="B2566">
+        <v>69</v>
+      </c>
+      <c r="C2566">
+        <v>7310</v>
+      </c>
+      <c r="D2566" t="s">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="2567" spans="1:4">
+      <c r="A2567" s="2">
+        <v>46080</v>
+      </c>
+      <c r="B2567">
+        <v>70</v>
+      </c>
+      <c r="C2567">
+        <v>7410</v>
+      </c>
+      <c r="D2567" t="s">
+        <v>2569</v>
+      </c>
+    </row>
+    <row r="2568" spans="1:4">
+      <c r="A2568" s="2">
+        <v>46080</v>
+      </c>
+      <c r="B2568">
+        <v>71</v>
+      </c>
+      <c r="C2568">
+        <v>7520</v>
+      </c>
+      <c r="D2568" t="s">
+        <v>2570</v>
+      </c>
+    </row>
+    <row r="2569" spans="1:4">
+      <c r="A2569" s="2">
+        <v>46080</v>
+      </c>
+      <c r="B2569">
+        <v>72</v>
+      </c>
+      <c r="C2569">
+        <v>7640</v>
+      </c>
+      <c r="D2569" t="s">
+        <v>2571</v>
+      </c>
+    </row>
+    <row r="2570" spans="1:4">
+      <c r="A2570" s="2">
+        <v>46080</v>
+      </c>
+      <c r="B2570">
+        <v>73</v>
+      </c>
+      <c r="C2570">
+        <v>7760</v>
+      </c>
+      <c r="D2570" t="s">
+        <v>2572</v>
+      </c>
+    </row>
+    <row r="2571" spans="1:4">
+      <c r="A2571" s="2">
+        <v>46080</v>
+      </c>
+      <c r="B2571">
+        <v>74</v>
+      </c>
+      <c r="C2571">
+        <v>7870</v>
+      </c>
+      <c r="D2571" t="s">
+        <v>2573</v>
+      </c>
+    </row>
+    <row r="2572" spans="1:4">
+      <c r="A2572" s="2">
+        <v>46080</v>
+      </c>
+      <c r="B2572">
+        <v>75</v>
+      </c>
+      <c r="C2572">
+        <v>7940</v>
+      </c>
+      <c r="D2572" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="2573" spans="1:4">
+      <c r="A2573" s="2">
+        <v>46080</v>
+      </c>
+      <c r="B2573">
+        <v>76</v>
+      </c>
+      <c r="C2573">
+        <v>7980</v>
+      </c>
+      <c r="D2573" t="s">
+        <v>2575</v>
+      </c>
+    </row>
+    <row r="2574" spans="1:4">
+      <c r="A2574" s="2">
+        <v>46080</v>
+      </c>
+      <c r="B2574">
+        <v>77</v>
+      </c>
+      <c r="C2574">
+        <v>8000</v>
+      </c>
+      <c r="D2574" t="s">
+        <v>2576</v>
+      </c>
+    </row>
+    <row r="2575" spans="1:4">
+      <c r="A2575" s="2">
+        <v>46080</v>
+      </c>
+      <c r="B2575">
+        <v>78</v>
+      </c>
+      <c r="C2575">
+        <v>8000</v>
+      </c>
+      <c r="D2575" t="s">
+        <v>2577</v>
+      </c>
+    </row>
+    <row r="2576" spans="1:4">
+      <c r="A2576" s="2">
+        <v>46080</v>
+      </c>
+      <c r="B2576">
+        <v>79</v>
+      </c>
+      <c r="C2576">
+        <v>7980</v>
+      </c>
+      <c r="D2576" t="s">
+        <v>2578</v>
+      </c>
+    </row>
+    <row r="2577" spans="1:4">
+      <c r="A2577" s="2">
+        <v>46080</v>
+      </c>
+      <c r="B2577">
+        <v>80</v>
+      </c>
+      <c r="C2577">
+        <v>7960</v>
+      </c>
+      <c r="D2577" t="s">
+        <v>2579</v>
+      </c>
+    </row>
+    <row r="2578" spans="1:4">
+      <c r="A2578" s="2">
+        <v>46080</v>
+      </c>
+      <c r="B2578">
+        <v>81</v>
+      </c>
+      <c r="C2578">
+        <v>7910</v>
+      </c>
+      <c r="D2578" t="s">
+        <v>2580</v>
+      </c>
+    </row>
+    <row r="2579" spans="1:4">
+      <c r="A2579" s="2">
+        <v>46080</v>
+      </c>
+      <c r="B2579">
+        <v>82</v>
+      </c>
+      <c r="C2579">
+        <v>7860</v>
+      </c>
+      <c r="D2579" t="s">
+        <v>2581</v>
+      </c>
+    </row>
+    <row r="2580" spans="1:4">
+      <c r="A2580" s="2">
+        <v>46080</v>
+      </c>
+      <c r="B2580">
+        <v>83</v>
+      </c>
+      <c r="C2580">
+        <v>7790</v>
+      </c>
+      <c r="D2580" t="s">
+        <v>2582</v>
+      </c>
+    </row>
+    <row r="2581" spans="1:4">
+      <c r="A2581" s="2">
+        <v>46080</v>
+      </c>
+      <c r="B2581">
+        <v>84</v>
+      </c>
+      <c r="C2581">
+        <v>7710</v>
+      </c>
+      <c r="D2581" t="s">
+        <v>2583</v>
+      </c>
+    </row>
+    <row r="2582" spans="1:4">
+      <c r="A2582" s="2">
+        <v>46080</v>
+      </c>
+      <c r="B2582">
+        <v>85</v>
+      </c>
+      <c r="C2582">
+        <v>7620</v>
+      </c>
+      <c r="D2582" t="s">
+        <v>2584</v>
+      </c>
+    </row>
+    <row r="2583" spans="1:4">
+      <c r="A2583" s="2">
+        <v>46080</v>
+      </c>
+      <c r="B2583">
+        <v>86</v>
+      </c>
+      <c r="C2583">
+        <v>7510</v>
+      </c>
+      <c r="D2583" t="s">
+        <v>2585</v>
+      </c>
+    </row>
+    <row r="2584" spans="1:4">
+      <c r="A2584" s="2">
+        <v>46080</v>
+      </c>
+      <c r="B2584">
+        <v>87</v>
+      </c>
+      <c r="C2584">
+        <v>7380</v>
+      </c>
+      <c r="D2584" t="s">
+        <v>2586</v>
+      </c>
+    </row>
+    <row r="2585" spans="1:4">
+      <c r="A2585" s="2">
+        <v>46080</v>
+      </c>
+      <c r="B2585">
+        <v>88</v>
+      </c>
+      <c r="C2585">
+        <v>7240</v>
+      </c>
+      <c r="D2585" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="2586" spans="1:4">
+      <c r="A2586" s="2">
+        <v>46080</v>
+      </c>
+      <c r="B2586">
+        <v>89</v>
+      </c>
+      <c r="C2586">
+        <v>7090</v>
+      </c>
+      <c r="D2586" t="s">
+        <v>2588</v>
+      </c>
+    </row>
+    <row r="2587" spans="1:4">
+      <c r="A2587" s="2">
+        <v>46080</v>
+      </c>
+      <c r="B2587">
+        <v>90</v>
+      </c>
+      <c r="C2587">
+        <v>6940</v>
+      </c>
+      <c r="D2587" t="s">
+        <v>2589</v>
+      </c>
+    </row>
+    <row r="2588" spans="1:4">
+      <c r="A2588" s="2">
+        <v>46080</v>
+      </c>
+      <c r="B2588">
+        <v>91</v>
+      </c>
+      <c r="C2588">
+        <v>6800</v>
+      </c>
+      <c r="D2588" t="s">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="2589" spans="1:4">
+      <c r="A2589" s="2">
+        <v>46080</v>
+      </c>
+      <c r="B2589">
+        <v>92</v>
+      </c>
+      <c r="C2589">
+        <v>6670</v>
+      </c>
+      <c r="D2589" t="s">
+        <v>2591</v>
+      </c>
+    </row>
+    <row r="2590" spans="1:4">
+      <c r="A2590" s="2">
+        <v>46080</v>
+      </c>
+      <c r="B2590">
+        <v>93</v>
+      </c>
+      <c r="C2590">
+        <v>6550</v>
+      </c>
+      <c r="D2590" t="s">
+        <v>2592</v>
+      </c>
+    </row>
+    <row r="2591" spans="1:4">
+      <c r="A2591" s="2">
+        <v>46080</v>
+      </c>
+      <c r="B2591">
+        <v>94</v>
+      </c>
+      <c r="C2591">
+        <v>6440</v>
+      </c>
+      <c r="D2591" t="s">
+        <v>2593</v>
+      </c>
+    </row>
+    <row r="2592" spans="1:4">
+      <c r="A2592" s="2">
+        <v>46080</v>
+      </c>
+      <c r="B2592">
+        <v>95</v>
+      </c>
+      <c r="C2592">
+        <v>6330</v>
+      </c>
+      <c r="D2592" t="s">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="2593" spans="1:4">
+      <c r="A2593" s="2">
+        <v>46080</v>
+      </c>
+      <c r="B2593">
+        <v>96</v>
+      </c>
+      <c r="C2593">
+        <v>6220</v>
+      </c>
+      <c r="D2593" t="s">
+        <v>2595</v>
+      </c>
+    </row>
+    <row r="2594" spans="1:4">
+      <c r="A2594" s="2">
+        <v>46081</v>
+      </c>
+      <c r="B2594">
+        <v>1</v>
+      </c>
+      <c r="C2594">
+        <v>6150</v>
+      </c>
+      <c r="D2594" t="s">
+        <v>2596</v>
+      </c>
+    </row>
+    <row r="2595" spans="1:4">
+      <c r="A2595" s="2">
+        <v>46081</v>
+      </c>
+      <c r="B2595">
+        <v>2</v>
+      </c>
+      <c r="C2595">
+        <v>6090</v>
+      </c>
+      <c r="D2595" t="s">
+        <v>2597</v>
+      </c>
+    </row>
+    <row r="2596" spans="1:4">
+      <c r="A2596" s="2">
+        <v>46081</v>
+      </c>
+      <c r="B2596">
+        <v>3</v>
+      </c>
+      <c r="C2596">
+        <v>6040</v>
+      </c>
+      <c r="D2596" t="s">
+        <v>2598</v>
+      </c>
+    </row>
+    <row r="2597" spans="1:4">
+      <c r="A2597" s="2">
+        <v>46081</v>
+      </c>
+      <c r="B2597">
+        <v>4</v>
+      </c>
+      <c r="C2597">
+        <v>5980</v>
+      </c>
+      <c r="D2597" t="s">
+        <v>2599</v>
+      </c>
+    </row>
+    <row r="2598" spans="1:4">
+      <c r="A2598" s="2">
+        <v>46081</v>
+      </c>
+      <c r="B2598">
+        <v>5</v>
+      </c>
+      <c r="C2598">
+        <v>5930</v>
+      </c>
+      <c r="D2598" t="s">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="2599" spans="1:4">
+      <c r="A2599" s="2">
+        <v>46081</v>
+      </c>
+      <c r="B2599">
+        <v>6</v>
+      </c>
+      <c r="C2599">
+        <v>5880</v>
+      </c>
+      <c r="D2599" t="s">
+        <v>2601</v>
+      </c>
+    </row>
+    <row r="2600" spans="1:4">
+      <c r="A2600" s="2">
+        <v>46081</v>
+      </c>
+      <c r="B2600">
+        <v>7</v>
+      </c>
+      <c r="C2600">
+        <v>5830</v>
+      </c>
+      <c r="D2600" t="s">
+        <v>2602</v>
+      </c>
+    </row>
+    <row r="2601" spans="1:4">
+      <c r="A2601" s="2">
+        <v>46081</v>
+      </c>
+      <c r="B2601">
+        <v>8</v>
+      </c>
+      <c r="C2601">
+        <v>5790</v>
+      </c>
+      <c r="D2601" t="s">
+        <v>2603</v>
+      </c>
+    </row>
+    <row r="2602" spans="1:4">
+      <c r="A2602" s="2">
+        <v>46081</v>
+      </c>
+      <c r="B2602">
+        <v>9</v>
+      </c>
+      <c r="C2602">
+        <v>5750</v>
+      </c>
+      <c r="D2602" t="s">
+        <v>2604</v>
+      </c>
+    </row>
+    <row r="2603" spans="1:4">
+      <c r="A2603" s="2">
+        <v>46081</v>
+      </c>
+      <c r="B2603">
+        <v>10</v>
+      </c>
+      <c r="C2603">
+        <v>5720</v>
+      </c>
+      <c r="D2603" t="s">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="2604" spans="1:4">
+      <c r="A2604" s="2">
+        <v>46081</v>
+      </c>
+      <c r="B2604">
+        <v>11</v>
+      </c>
+      <c r="C2604">
+        <v>5700</v>
+      </c>
+      <c r="D2604" t="s">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="2605" spans="1:4">
+      <c r="A2605" s="2">
+        <v>46081</v>
+      </c>
+      <c r="B2605">
+        <v>12</v>
+      </c>
+      <c r="C2605">
+        <v>5680</v>
+      </c>
+      <c r="D2605" t="s">
+        <v>2607</v>
+      </c>
+    </row>
+    <row r="2606" spans="1:4">
+      <c r="A2606" s="2">
+        <v>46081</v>
+      </c>
+      <c r="B2606">
+        <v>13</v>
+      </c>
+      <c r="C2606">
+        <v>5660</v>
+      </c>
+      <c r="D2606" t="s">
+        <v>2608</v>
+      </c>
+    </row>
+    <row r="2607" spans="1:4">
+      <c r="A2607" s="2">
+        <v>46081</v>
+      </c>
+      <c r="B2607">
+        <v>14</v>
+      </c>
+      <c r="C2607">
+        <v>5650</v>
+      </c>
+      <c r="D2607" t="s">
+        <v>2609</v>
+      </c>
+    </row>
+    <row r="2608" spans="1:4">
+      <c r="A2608" s="2">
+        <v>46081</v>
+      </c>
+      <c r="B2608">
+        <v>15</v>
+      </c>
+      <c r="C2608">
+        <v>5650</v>
+      </c>
+      <c r="D2608" t="s">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="2609" spans="1:4">
+      <c r="A2609" s="2">
+        <v>46081</v>
+      </c>
+      <c r="B2609">
+        <v>16</v>
+      </c>
+      <c r="C2609">
+        <v>5650</v>
+      </c>
+      <c r="D2609" t="s">
+        <v>2611</v>
+      </c>
+    </row>
+    <row r="2610" spans="1:4">
+      <c r="A2610" s="2">
+        <v>46081</v>
+      </c>
+      <c r="B2610">
+        <v>17</v>
+      </c>
+      <c r="C2610">
+        <v>5660</v>
+      </c>
+      <c r="D2610" t="s">
+        <v>2612</v>
+      </c>
+    </row>
+    <row r="2611" spans="1:4">
+      <c r="A2611" s="2">
+        <v>46081</v>
+      </c>
+      <c r="B2611">
+        <v>18</v>
+      </c>
+      <c r="C2611">
+        <v>5680</v>
+      </c>
+      <c r="D2611" t="s">
+        <v>2613</v>
+      </c>
+    </row>
+    <row r="2612" spans="1:4">
+      <c r="A2612" s="2">
+        <v>46081</v>
+      </c>
+      <c r="B2612">
+        <v>19</v>
+      </c>
+      <c r="C2612">
+        <v>5700</v>
+      </c>
+      <c r="D2612" t="s">
+        <v>2614</v>
+      </c>
+    </row>
+    <row r="2613" spans="1:4">
+      <c r="A2613" s="2">
+        <v>46081</v>
+      </c>
+      <c r="B2613">
+        <v>20</v>
+      </c>
+      <c r="C2613">
+        <v>5720</v>
+      </c>
+      <c r="D2613" t="s">
+        <v>2615</v>
+      </c>
+    </row>
+    <row r="2614" spans="1:4">
+      <c r="A2614" s="2">
+        <v>46081</v>
+      </c>
+      <c r="B2614">
+        <v>21</v>
+      </c>
+      <c r="C2614">
+        <v>5740</v>
+      </c>
+      <c r="D2614" t="s">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="2615" spans="1:4">
+      <c r="A2615" s="2">
+        <v>46081</v>
+      </c>
+      <c r="B2615">
+        <v>22</v>
+      </c>
+      <c r="C2615">
+        <v>5770</v>
+      </c>
+      <c r="D2615" t="s">
+        <v>2617</v>
+      </c>
+    </row>
+    <row r="2616" spans="1:4">
+      <c r="A2616" s="2">
+        <v>46081</v>
+      </c>
+      <c r="B2616">
+        <v>23</v>
+      </c>
+      <c r="C2616">
+        <v>5820</v>
+      </c>
+      <c r="D2616" t="s">
+        <v>2618</v>
+      </c>
+    </row>
+    <row r="2617" spans="1:4">
+      <c r="A2617" s="2">
+        <v>46081</v>
+      </c>
+      <c r="B2617">
+        <v>24</v>
+      </c>
+      <c r="C2617">
+        <v>5850</v>
+      </c>
+      <c r="D2617" t="s">
+        <v>2619</v>
+      </c>
+    </row>
+    <row r="2618" spans="1:4">
+      <c r="A2618" s="2">
+        <v>46081</v>
+      </c>
+      <c r="B2618">
+        <v>25</v>
+      </c>
+      <c r="C2618">
+        <v>5900</v>
+      </c>
+      <c r="D2618" t="s">
+        <v>2620</v>
+      </c>
+    </row>
+    <row r="2619" spans="1:4">
+      <c r="A2619" s="2">
+        <v>46081</v>
+      </c>
+      <c r="B2619">
+        <v>26</v>
+      </c>
+      <c r="C2619">
+        <v>5960</v>
+      </c>
+      <c r="D2619" t="s">
+        <v>2621</v>
+      </c>
+    </row>
+    <row r="2620" spans="1:4">
+      <c r="A2620" s="2">
+        <v>46081</v>
+      </c>
+      <c r="B2620">
+        <v>27</v>
+      </c>
+      <c r="C2620">
+        <v>6010</v>
+      </c>
+      <c r="D2620" t="s">
+        <v>2622</v>
+      </c>
+    </row>
+    <row r="2621" spans="1:4">
+      <c r="A2621" s="2">
+        <v>46081</v>
+      </c>
+      <c r="B2621">
+        <v>28</v>
+      </c>
+      <c r="C2621">
+        <v>6050</v>
+      </c>
+      <c r="D2621" t="s">
+        <v>2623</v>
+      </c>
+    </row>
+    <row r="2622" spans="1:4">
+      <c r="A2622" s="2">
+        <v>46081</v>
+      </c>
+      <c r="B2622">
+        <v>29</v>
+      </c>
+      <c r="C2622">
+        <v>6120</v>
+      </c>
+      <c r="D2622" t="s">
+        <v>2624</v>
+      </c>
+    </row>
+    <row r="2623" spans="1:4">
+      <c r="A2623" s="2">
+        <v>46081</v>
+      </c>
+      <c r="B2623">
+        <v>30</v>
+      </c>
+      <c r="C2623">
+        <v>6200</v>
+      </c>
+      <c r="D2623" t="s">
+        <v>2625</v>
+      </c>
+    </row>
+    <row r="2624" spans="1:4">
+      <c r="A2624" s="2">
+        <v>46081</v>
+      </c>
+      <c r="B2624">
+        <v>31</v>
+      </c>
+      <c r="C2624">
+        <v>6270</v>
+      </c>
+      <c r="D2624" t="s">
+        <v>2626</v>
+      </c>
+    </row>
+    <row r="2625" spans="1:4">
+      <c r="A2625" s="2">
+        <v>46081</v>
+      </c>
+      <c r="B2625">
+        <v>32</v>
+      </c>
+      <c r="C2625">
+        <v>6370</v>
+      </c>
+      <c r="D2625" t="s">
+        <v>2627</v>
+      </c>
+    </row>
+    <row r="2626" spans="1:4">
+      <c r="A2626" s="2">
+        <v>46081</v>
+      </c>
+      <c r="B2626">
+        <v>33</v>
+      </c>
+      <c r="C2626">
+        <v>6470</v>
+      </c>
+      <c r="D2626" t="s">
+        <v>2628</v>
+      </c>
+    </row>
+    <row r="2627" spans="1:4">
+      <c r="A2627" s="2">
+        <v>46081</v>
+      </c>
+      <c r="B2627">
+        <v>34</v>
+      </c>
+      <c r="C2627">
+        <v>6550</v>
+      </c>
+      <c r="D2627" t="s">
+        <v>2629</v>
+      </c>
+    </row>
+    <row r="2628" spans="1:4">
+      <c r="A2628" s="2">
+        <v>46081</v>
+      </c>
+      <c r="B2628">
+        <v>35</v>
+      </c>
+      <c r="C2628">
+        <v>6630</v>
+      </c>
+      <c r="D2628" t="s">
+        <v>2630</v>
+      </c>
+    </row>
+    <row r="2629" spans="1:4">
+      <c r="A2629" s="2">
+        <v>46081</v>
+      </c>
+      <c r="B2629">
+        <v>36</v>
+      </c>
+      <c r="C2629">
+        <v>6700</v>
+      </c>
+      <c r="D2629" t="s">
+        <v>2631</v>
+      </c>
+    </row>
+    <row r="2630" spans="1:4">
+      <c r="A2630" s="2">
+        <v>46081</v>
+      </c>
+      <c r="B2630">
+        <v>37</v>
+      </c>
+      <c r="C2630">
+        <v>6760</v>
+      </c>
+      <c r="D2630" t="s">
+        <v>2632</v>
+      </c>
+    </row>
+    <row r="2631" spans="1:4">
+      <c r="A2631" s="2">
+        <v>46081</v>
+      </c>
+      <c r="B2631">
+        <v>38</v>
+      </c>
+      <c r="C2631">
+        <v>6800</v>
+      </c>
+      <c r="D2631" t="s">
+        <v>2633</v>
+      </c>
+    </row>
+    <row r="2632" spans="1:4">
+      <c r="A2632" s="2">
+        <v>46081</v>
+      </c>
+      <c r="B2632">
+        <v>39</v>
+      </c>
+      <c r="C2632">
+        <v>6830</v>
+      </c>
+      <c r="D2632" t="s">
+        <v>2634</v>
+      </c>
+    </row>
+    <row r="2633" spans="1:4">
+      <c r="A2633" s="2">
+        <v>46081</v>
+      </c>
+      <c r="B2633">
+        <v>40</v>
+      </c>
+      <c r="C2633">
+        <v>6850</v>
+      </c>
+      <c r="D2633" t="s">
+        <v>2635</v>
+      </c>
+    </row>
+    <row r="2634" spans="1:4">
+      <c r="A2634" s="2">
+        <v>46081</v>
+      </c>
+      <c r="B2634">
+        <v>41</v>
+      </c>
+      <c r="C2634">
+        <v>6860</v>
+      </c>
+      <c r="D2634" t="s">
+        <v>2636</v>
+      </c>
+    </row>
+    <row r="2635" spans="1:4">
+      <c r="A2635" s="2">
+        <v>46081</v>
+      </c>
+      <c r="B2635">
+        <v>42</v>
+      </c>
+      <c r="C2635">
+        <v>6850</v>
+      </c>
+      <c r="D2635" t="s">
+        <v>2637</v>
+      </c>
+    </row>
+    <row r="2636" spans="1:4">
+      <c r="A2636" s="2">
+        <v>46081</v>
+      </c>
+      <c r="B2636">
+        <v>43</v>
+      </c>
+      <c r="C2636">
+        <v>6830</v>
+      </c>
+      <c r="D2636" t="s">
+        <v>2638</v>
+      </c>
+    </row>
+    <row r="2637" spans="1:4">
+      <c r="A2637" s="2">
+        <v>46081</v>
+      </c>
+      <c r="B2637">
+        <v>44</v>
+      </c>
+      <c r="C2637">
+        <v>6800</v>
+      </c>
+      <c r="D2637" t="s">
+        <v>2639</v>
+      </c>
+    </row>
+    <row r="2638" spans="1:4">
+      <c r="A2638" s="2">
+        <v>46081</v>
+      </c>
+      <c r="B2638">
+        <v>45</v>
+      </c>
+      <c r="C2638">
+        <v>6770</v>
+      </c>
+      <c r="D2638" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="2639" spans="1:4">
+      <c r="A2639" s="2">
+        <v>46081</v>
+      </c>
+      <c r="B2639">
+        <v>46</v>
+      </c>
+      <c r="C2639">
+        <v>6740</v>
+      </c>
+      <c r="D2639" t="s">
+        <v>2641</v>
+      </c>
+    </row>
+    <row r="2640" spans="1:4">
+      <c r="A2640" s="2">
+        <v>46081</v>
+      </c>
+      <c r="B2640">
+        <v>47</v>
+      </c>
+      <c r="C2640">
+        <v>6700</v>
+      </c>
+      <c r="D2640" t="s">
+        <v>2642</v>
+      </c>
+    </row>
+    <row r="2641" spans="1:4">
+      <c r="A2641" s="2">
+        <v>46081</v>
+      </c>
+      <c r="B2641">
+        <v>48</v>
+      </c>
+      <c r="C2641">
+        <v>6640</v>
+      </c>
+      <c r="D2641" t="s">
+        <v>2643</v>
+      </c>
+    </row>
+    <row r="2642" spans="1:4">
+      <c r="A2642" s="2">
+        <v>46081</v>
+      </c>
+      <c r="B2642">
+        <v>49</v>
+      </c>
+      <c r="C2642">
+        <v>6600</v>
+      </c>
+      <c r="D2642" t="s">
+        <v>2644</v>
+      </c>
+    </row>
+    <row r="2643" spans="1:4">
+      <c r="A2643" s="2">
+        <v>46081</v>
+      </c>
+      <c r="B2643">
+        <v>50</v>
+      </c>
+      <c r="C2643">
+        <v>6580</v>
+      </c>
+      <c r="D2643" t="s">
+        <v>2645</v>
+      </c>
+    </row>
+    <row r="2644" spans="1:4">
+      <c r="A2644" s="2">
+        <v>46081</v>
+      </c>
+      <c r="B2644">
+        <v>51</v>
+      </c>
+      <c r="C2644">
+        <v>6550</v>
+      </c>
+      <c r="D2644" t="s">
+        <v>2646</v>
+      </c>
+    </row>
+    <row r="2645" spans="1:4">
+      <c r="A2645" s="2">
+        <v>46081</v>
+      </c>
+      <c r="B2645">
+        <v>52</v>
+      </c>
+      <c r="C2645">
+        <v>6530</v>
+      </c>
+      <c r="D2645" t="s">
+        <v>2647</v>
+      </c>
+    </row>
+    <row r="2646" spans="1:4">
+      <c r="A2646" s="2">
+        <v>46081</v>
+      </c>
+      <c r="B2646">
+        <v>53</v>
+      </c>
+      <c r="C2646">
+        <v>6500</v>
+      </c>
+      <c r="D2646" t="s">
+        <v>2648</v>
+      </c>
+    </row>
+    <row r="2647" spans="1:4">
+      <c r="A2647" s="2">
+        <v>46081</v>
+      </c>
+      <c r="B2647">
+        <v>54</v>
+      </c>
+      <c r="C2647">
+        <v>6500</v>
+      </c>
+      <c r="D2647" t="s">
+        <v>2649</v>
+      </c>
+    </row>
+    <row r="2648" spans="1:4">
+      <c r="A2648" s="2">
+        <v>46081</v>
+      </c>
+      <c r="B2648">
+        <v>55</v>
+      </c>
+      <c r="C2648">
+        <v>6500</v>
+      </c>
+      <c r="D2648" t="s">
+        <v>2650</v>
+      </c>
+    </row>
+    <row r="2649" spans="1:4">
+      <c r="A2649" s="2">
+        <v>46081</v>
+      </c>
+      <c r="B2649">
+        <v>56</v>
+      </c>
+      <c r="C2649">
+        <v>6500</v>
+      </c>
+      <c r="D2649" t="s">
+        <v>2651</v>
+      </c>
+    </row>
+    <row r="2650" spans="1:4">
+      <c r="A2650" s="2">
+        <v>46081</v>
+      </c>
+      <c r="B2650">
+        <v>57</v>
+      </c>
+      <c r="C2650">
+        <v>6510</v>
+      </c>
+      <c r="D2650" t="s">
+        <v>2652</v>
+      </c>
+    </row>
+    <row r="2651" spans="1:4">
+      <c r="A2651" s="2">
+        <v>46081</v>
+      </c>
+      <c r="B2651">
+        <v>58</v>
+      </c>
+      <c r="C2651">
+        <v>6520</v>
+      </c>
+      <c r="D2651" t="s">
+        <v>2653</v>
+      </c>
+    </row>
+    <row r="2652" spans="1:4">
+      <c r="A2652" s="2">
+        <v>46081</v>
+      </c>
+      <c r="B2652">
+        <v>59</v>
+      </c>
+      <c r="C2652">
+        <v>6530</v>
+      </c>
+      <c r="D2652" t="s">
+        <v>2654</v>
+      </c>
+    </row>
+    <row r="2653" spans="1:4">
+      <c r="A2653" s="2">
+        <v>46081</v>
+      </c>
+      <c r="B2653">
+        <v>60</v>
+      </c>
+      <c r="C2653">
+        <v>6540</v>
+      </c>
+      <c r="D2653" t="s">
+        <v>2655</v>
+      </c>
+    </row>
+    <row r="2654" spans="1:4">
+      <c r="A2654" s="2">
+        <v>46081</v>
+      </c>
+      <c r="B2654">
+        <v>61</v>
+      </c>
+      <c r="C2654">
+        <v>6550</v>
+      </c>
+      <c r="D2654" t="s">
+        <v>2656</v>
+      </c>
+    </row>
+    <row r="2655" spans="1:4">
+      <c r="A2655" s="2">
+        <v>46081</v>
+      </c>
+      <c r="B2655">
+        <v>62</v>
+      </c>
+      <c r="C2655">
+        <v>6560</v>
+      </c>
+      <c r="D2655" t="s">
+        <v>2657</v>
+      </c>
+    </row>
+    <row r="2656" spans="1:4">
+      <c r="A2656" s="2">
+        <v>46081</v>
+      </c>
+      <c r="B2656">
+        <v>63</v>
+      </c>
+      <c r="C2656">
+        <v>6570</v>
+      </c>
+      <c r="D2656" t="s">
+        <v>2658</v>
+      </c>
+    </row>
+    <row r="2657" spans="1:4">
+      <c r="A2657" s="2">
+        <v>46081</v>
+      </c>
+      <c r="B2657">
+        <v>64</v>
+      </c>
+      <c r="C2657">
+        <v>6580</v>
+      </c>
+      <c r="D2657" t="s">
+        <v>2659</v>
+      </c>
+    </row>
+    <row r="2658" spans="1:4">
+      <c r="A2658" s="2">
+        <v>46081</v>
+      </c>
+      <c r="B2658">
+        <v>65</v>
+      </c>
+      <c r="C2658">
+        <v>6600</v>
+      </c>
+      <c r="D2658" t="s">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="2659" spans="1:4">
+      <c r="A2659" s="2">
+        <v>46081</v>
+      </c>
+      <c r="B2659">
+        <v>66</v>
+      </c>
+      <c r="C2659">
+        <v>6670</v>
+      </c>
+      <c r="D2659" t="s">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="2660" spans="1:4">
+      <c r="A2660" s="2">
+        <v>46081</v>
+      </c>
+      <c r="B2660">
+        <v>67</v>
+      </c>
+      <c r="C2660">
+        <v>6730</v>
+      </c>
+      <c r="D2660" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="2661" spans="1:4">
+      <c r="A2661" s="2">
+        <v>46081</v>
+      </c>
+      <c r="B2661">
+        <v>68</v>
+      </c>
+      <c r="C2661">
+        <v>6800</v>
+      </c>
+      <c r="D2661" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="2662" spans="1:4">
+      <c r="A2662" s="2">
+        <v>46081</v>
+      </c>
+      <c r="B2662">
+        <v>69</v>
+      </c>
+      <c r="C2662">
+        <v>6900</v>
+      </c>
+      <c r="D2662" t="s">
+        <v>2664</v>
+      </c>
+    </row>
+    <row r="2663" spans="1:4">
+      <c r="A2663" s="2">
+        <v>46081</v>
+      </c>
+      <c r="B2663">
+        <v>70</v>
+      </c>
+      <c r="C2663">
+        <v>7000</v>
+      </c>
+      <c r="D2663" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="2664" spans="1:4">
+      <c r="A2664" s="2">
+        <v>46081</v>
+      </c>
+      <c r="B2664">
+        <v>71</v>
+      </c>
+      <c r="C2664">
+        <v>7100</v>
+      </c>
+      <c r="D2664" t="s">
+        <v>2666</v>
+      </c>
+    </row>
+    <row r="2665" spans="1:4">
+      <c r="A2665" s="2">
+        <v>46081</v>
+      </c>
+      <c r="B2665">
+        <v>72</v>
+      </c>
+      <c r="C2665">
+        <v>7190</v>
+      </c>
+      <c r="D2665" t="s">
+        <v>2667</v>
+      </c>
+    </row>
+    <row r="2666" spans="1:4">
+      <c r="A2666" s="2">
+        <v>46081</v>
+      </c>
+      <c r="B2666">
+        <v>73</v>
+      </c>
+      <c r="C2666">
+        <v>7270</v>
+      </c>
+      <c r="D2666" t="s">
+        <v>2668</v>
+      </c>
+    </row>
+    <row r="2667" spans="1:4">
+      <c r="A2667" s="2">
+        <v>46081</v>
+      </c>
+      <c r="B2667">
+        <v>74</v>
+      </c>
+      <c r="C2667">
+        <v>7340</v>
+      </c>
+      <c r="D2667" t="s">
+        <v>2669</v>
+      </c>
+    </row>
+    <row r="2668" spans="1:4">
+      <c r="A2668" s="2">
+        <v>46081</v>
+      </c>
+      <c r="B2668">
+        <v>75</v>
+      </c>
+      <c r="C2668">
+        <v>7390</v>
+      </c>
+      <c r="D2668" t="s">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="2669" spans="1:4">
+      <c r="A2669" s="2">
+        <v>46081</v>
+      </c>
+      <c r="B2669">
+        <v>76</v>
+      </c>
+      <c r="C2669">
+        <v>7400</v>
+      </c>
+      <c r="D2669" t="s">
+        <v>2671</v>
+      </c>
+    </row>
+    <row r="2670" spans="1:4">
+      <c r="A2670" s="2">
+        <v>46081</v>
+      </c>
+      <c r="B2670">
+        <v>77</v>
+      </c>
+      <c r="C2670">
+        <v>7400</v>
+      </c>
+      <c r="D2670" t="s">
+        <v>2672</v>
+      </c>
+    </row>
+    <row r="2671" spans="1:4">
+      <c r="A2671" s="2">
+        <v>46081</v>
+      </c>
+      <c r="B2671">
+        <v>78</v>
+      </c>
+      <c r="C2671">
+        <v>7400</v>
+      </c>
+      <c r="D2671" t="s">
+        <v>2673</v>
+      </c>
+    </row>
+    <row r="2672" spans="1:4">
+      <c r="A2672" s="2">
+        <v>46081</v>
+      </c>
+      <c r="B2672">
+        <v>79</v>
+      </c>
+      <c r="C2672">
+        <v>7400</v>
+      </c>
+      <c r="D2672" t="s">
+        <v>2674</v>
+      </c>
+    </row>
+    <row r="2673" spans="1:4">
+      <c r="A2673" s="2">
+        <v>46081</v>
+      </c>
+      <c r="B2673">
+        <v>80</v>
+      </c>
+      <c r="C2673">
+        <v>7360</v>
+      </c>
+      <c r="D2673" t="s">
+        <v>2675</v>
+      </c>
+    </row>
+    <row r="2674" spans="1:4">
+      <c r="A2674" s="2">
+        <v>46081</v>
+      </c>
+      <c r="B2674">
+        <v>81</v>
+      </c>
+      <c r="C2674">
+        <v>7320</v>
+      </c>
+      <c r="D2674" t="s">
+        <v>2676</v>
+      </c>
+    </row>
+    <row r="2675" spans="1:4">
+      <c r="A2675" s="2">
+        <v>46081</v>
+      </c>
+      <c r="B2675">
+        <v>82</v>
+      </c>
+      <c r="C2675">
+        <v>7280</v>
+      </c>
+      <c r="D2675" t="s">
+        <v>2677</v>
+      </c>
+    </row>
+    <row r="2676" spans="1:4">
+      <c r="A2676" s="2">
+        <v>46081</v>
+      </c>
+      <c r="B2676">
+        <v>83</v>
+      </c>
+      <c r="C2676">
+        <v>7220</v>
+      </c>
+      <c r="D2676" t="s">
+        <v>2678</v>
+      </c>
+    </row>
+    <row r="2677" spans="1:4">
+      <c r="A2677" s="2">
+        <v>46081</v>
+      </c>
+      <c r="B2677">
+        <v>84</v>
+      </c>
+      <c r="C2677">
+        <v>7160</v>
+      </c>
+      <c r="D2677" t="s">
+        <v>2679</v>
+      </c>
+    </row>
+    <row r="2678" spans="1:4">
+      <c r="A2678" s="2">
+        <v>46081</v>
+      </c>
+      <c r="B2678">
+        <v>85</v>
+      </c>
+      <c r="C2678">
+        <v>7040</v>
+      </c>
+      <c r="D2678" t="s">
+        <v>2680</v>
+      </c>
+    </row>
+    <row r="2679" spans="1:4">
+      <c r="A2679" s="2">
+        <v>46081</v>
+      </c>
+      <c r="B2679">
+        <v>86</v>
+      </c>
+      <c r="C2679">
+        <v>6900</v>
+      </c>
+      <c r="D2679" t="s">
+        <v>2681</v>
+      </c>
+    </row>
+    <row r="2680" spans="1:4">
+      <c r="A2680" s="2">
+        <v>46081</v>
+      </c>
+      <c r="B2680">
+        <v>87</v>
+      </c>
+      <c r="C2680">
+        <v>6810</v>
+      </c>
+      <c r="D2680" t="s">
+        <v>2682</v>
+      </c>
+    </row>
+    <row r="2681" spans="1:4">
+      <c r="A2681" s="2">
+        <v>46081</v>
+      </c>
+      <c r="B2681">
+        <v>88</v>
+      </c>
+      <c r="C2681">
+        <v>6710</v>
+      </c>
+      <c r="D2681" t="s">
+        <v>2683</v>
+      </c>
+    </row>
+    <row r="2682" spans="1:4">
+      <c r="A2682" s="2">
+        <v>46081</v>
+      </c>
+      <c r="B2682">
+        <v>89</v>
+      </c>
+      <c r="C2682">
+        <v>6560</v>
+      </c>
+      <c r="D2682" t="s">
+        <v>2684</v>
+      </c>
+    </row>
+    <row r="2683" spans="1:4">
+      <c r="A2683" s="2">
+        <v>46081</v>
+      </c>
+      <c r="B2683">
+        <v>90</v>
+      </c>
+      <c r="C2683">
+        <v>6430</v>
+      </c>
+      <c r="D2683" t="s">
+        <v>2685</v>
+      </c>
+    </row>
+    <row r="2684" spans="1:4">
+      <c r="A2684" s="2">
+        <v>46081</v>
+      </c>
+      <c r="B2684">
+        <v>91</v>
+      </c>
+      <c r="C2684">
+        <v>6260</v>
+      </c>
+      <c r="D2684" t="s">
+        <v>2686</v>
+      </c>
+    </row>
+    <row r="2685" spans="1:4">
+      <c r="A2685" s="2">
+        <v>46081</v>
+      </c>
+      <c r="B2685">
+        <v>92</v>
+      </c>
+      <c r="C2685">
+        <v>6150</v>
+      </c>
+      <c r="D2685" t="s">
+        <v>2687</v>
+      </c>
+    </row>
+    <row r="2686" spans="1:4">
+      <c r="A2686" s="2">
+        <v>46081</v>
+      </c>
+      <c r="B2686">
+        <v>93</v>
+      </c>
+      <c r="C2686">
+        <v>6050</v>
+      </c>
+      <c r="D2686" t="s">
+        <v>2688</v>
+      </c>
+    </row>
+    <row r="2687" spans="1:4">
+      <c r="A2687" s="2">
+        <v>46081</v>
+      </c>
+      <c r="B2687">
+        <v>94</v>
+      </c>
+      <c r="C2687">
+        <v>5900</v>
+      </c>
+      <c r="D2687" t="s">
+        <v>2689</v>
+      </c>
+    </row>
+    <row r="2688" spans="1:4">
+      <c r="A2688" s="2">
+        <v>46081</v>
+      </c>
+      <c r="B2688">
+        <v>95</v>
+      </c>
+      <c r="C2688">
+        <v>5840</v>
+      </c>
+      <c r="D2688" t="s">
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="2689" spans="1:4">
+      <c r="A2689" s="2">
+        <v>46081</v>
+      </c>
+      <c r="B2689">
+        <v>96</v>
+      </c>
+      <c r="C2689">
+        <v>5800</v>
+      </c>
+      <c r="D2689" t="s">
+        <v>2691</v>
       </c>
     </row>
   </sheetData>

--- a/Market Fundamentals/Transelectrica_data/Cons_Prod_final/Weekly_Consumption_2026.xlsx
+++ b/Market Fundamentals/Transelectrica_data/Cons_Prod_final/Weekly_Consumption_2026.xlsx
@@ -36703,7 +36703,7 @@
         <v>1</v>
       </c>
       <c r="C2018">
-        <v>6230</v>
+        <v>6170</v>
       </c>
       <c r="D2018" t="s">
         <v>2020</v>
@@ -36717,7 +36717,7 @@
         <v>2</v>
       </c>
       <c r="C2019">
-        <v>6200</v>
+        <v>6110</v>
       </c>
       <c r="D2019" t="s">
         <v>2021</v>
@@ -36731,7 +36731,7 @@
         <v>3</v>
       </c>
       <c r="C2020">
-        <v>6160</v>
+        <v>6050</v>
       </c>
       <c r="D2020" t="s">
         <v>2022</v>
@@ -36745,7 +36745,7 @@
         <v>4</v>
       </c>
       <c r="C2021">
-        <v>6100</v>
+        <v>5990</v>
       </c>
       <c r="D2021" t="s">
         <v>2023</v>
@@ -36759,7 +36759,7 @@
         <v>5</v>
       </c>
       <c r="C2022">
-        <v>6030</v>
+        <v>5930</v>
       </c>
       <c r="D2022" t="s">
         <v>2024</v>
@@ -36773,7 +36773,7 @@
         <v>6</v>
       </c>
       <c r="C2023">
-        <v>5970</v>
+        <v>5890</v>
       </c>
       <c r="D2023" t="s">
         <v>2025</v>
@@ -36787,7 +36787,7 @@
         <v>7</v>
       </c>
       <c r="C2024">
-        <v>5920</v>
+        <v>5850</v>
       </c>
       <c r="D2024" t="s">
         <v>2026</v>
@@ -36801,7 +36801,7 @@
         <v>8</v>
       </c>
       <c r="C2025">
-        <v>5870</v>
+        <v>5800</v>
       </c>
       <c r="D2025" t="s">
         <v>2027</v>
@@ -36815,7 +36815,7 @@
         <v>9</v>
       </c>
       <c r="C2026">
-        <v>5830</v>
+        <v>5770</v>
       </c>
       <c r="D2026" t="s">
         <v>2028</v>
@@ -36829,7 +36829,7 @@
         <v>10</v>
       </c>
       <c r="C2027">
-        <v>5790</v>
+        <v>5740</v>
       </c>
       <c r="D2027" t="s">
         <v>2029</v>
@@ -36843,7 +36843,7 @@
         <v>11</v>
       </c>
       <c r="C2028">
-        <v>5760</v>
+        <v>5710</v>
       </c>
       <c r="D2028" t="s">
         <v>2030</v>
@@ -36857,7 +36857,7 @@
         <v>12</v>
       </c>
       <c r="C2029">
-        <v>5740</v>
+        <v>5700</v>
       </c>
       <c r="D2029" t="s">
         <v>2031</v>
@@ -36871,7 +36871,7 @@
         <v>13</v>
       </c>
       <c r="C2030">
-        <v>5720</v>
+        <v>5680</v>
       </c>
       <c r="D2030" t="s">
         <v>2032</v>
@@ -36885,7 +36885,7 @@
         <v>14</v>
       </c>
       <c r="C2031">
-        <v>5700</v>
+        <v>5670</v>
       </c>
       <c r="D2031" t="s">
         <v>2033</v>
@@ -36899,7 +36899,7 @@
         <v>15</v>
       </c>
       <c r="C2032">
-        <v>5710</v>
+        <v>5670</v>
       </c>
       <c r="D2032" t="s">
         <v>2034</v>
@@ -36913,7 +36913,7 @@
         <v>16</v>
       </c>
       <c r="C2033">
-        <v>5710</v>
+        <v>5670</v>
       </c>
       <c r="D2033" t="s">
         <v>2035</v>
@@ -36927,7 +36927,7 @@
         <v>17</v>
       </c>
       <c r="C2034">
-        <v>5710</v>
+        <v>5670</v>
       </c>
       <c r="D2034" t="s">
         <v>2036</v>
@@ -36941,7 +36941,7 @@
         <v>18</v>
       </c>
       <c r="C2035">
-        <v>5720</v>
+        <v>5670</v>
       </c>
       <c r="D2035" t="s">
         <v>2037</v>
@@ -36955,7 +36955,7 @@
         <v>19</v>
       </c>
       <c r="C2036">
-        <v>5730</v>
+        <v>5680</v>
       </c>
       <c r="D2036" t="s">
         <v>2038</v>
@@ -36969,7 +36969,7 @@
         <v>20</v>
       </c>
       <c r="C2037">
-        <v>5750</v>
+        <v>5700</v>
       </c>
       <c r="D2037" t="s">
         <v>2039</v>
@@ -36983,7 +36983,7 @@
         <v>21</v>
       </c>
       <c r="C2038">
-        <v>5770</v>
+        <v>5720</v>
       </c>
       <c r="D2038" t="s">
         <v>2040</v>
@@ -36997,7 +36997,7 @@
         <v>22</v>
       </c>
       <c r="C2039">
-        <v>5790</v>
+        <v>5740</v>
       </c>
       <c r="D2039" t="s">
         <v>2041</v>
@@ -37011,7 +37011,7 @@
         <v>23</v>
       </c>
       <c r="C2040">
-        <v>5820</v>
+        <v>5770</v>
       </c>
       <c r="D2040" t="s">
         <v>2042</v>
@@ -37025,7 +37025,7 @@
         <v>24</v>
       </c>
       <c r="C2041">
-        <v>5850</v>
+        <v>5800</v>
       </c>
       <c r="D2041" t="s">
         <v>2043</v>
@@ -37039,7 +37039,7 @@
         <v>25</v>
       </c>
       <c r="C2042">
-        <v>5890</v>
+        <v>5840</v>
       </c>
       <c r="D2042" t="s">
         <v>2044</v>
@@ -37053,7 +37053,7 @@
         <v>26</v>
       </c>
       <c r="C2043">
-        <v>5940</v>
+        <v>5870</v>
       </c>
       <c r="D2043" t="s">
         <v>2045</v>
@@ -37067,7 +37067,7 @@
         <v>27</v>
       </c>
       <c r="C2044">
-        <v>6000</v>
+        <v>5910</v>
       </c>
       <c r="D2044" t="s">
         <v>2046</v>
@@ -37081,7 +37081,7 @@
         <v>28</v>
       </c>
       <c r="C2045">
-        <v>6050</v>
+        <v>5950</v>
       </c>
       <c r="D2045" t="s">
         <v>2047</v>
@@ -37095,7 +37095,7 @@
         <v>29</v>
       </c>
       <c r="C2046">
-        <v>6110</v>
+        <v>5990</v>
       </c>
       <c r="D2046" t="s">
         <v>2048</v>
@@ -37109,7 +37109,7 @@
         <v>30</v>
       </c>
       <c r="C2047">
-        <v>6170</v>
+        <v>6040</v>
       </c>
       <c r="D2047" t="s">
         <v>2049</v>
@@ -37123,7 +37123,7 @@
         <v>31</v>
       </c>
       <c r="C2048">
-        <v>6220</v>
+        <v>6090</v>
       </c>
       <c r="D2048" t="s">
         <v>2050</v>
@@ -37137,7 +37137,7 @@
         <v>32</v>
       </c>
       <c r="C2049">
-        <v>6270</v>
+        <v>6140</v>
       </c>
       <c r="D2049" t="s">
         <v>2051</v>
@@ -37151,7 +37151,7 @@
         <v>33</v>
       </c>
       <c r="C2050">
-        <v>6310</v>
+        <v>6180</v>
       </c>
       <c r="D2050" t="s">
         <v>2052</v>
@@ -37165,7 +37165,7 @@
         <v>34</v>
       </c>
       <c r="C2051">
-        <v>6330</v>
+        <v>6230</v>
       </c>
       <c r="D2051" t="s">
         <v>2053</v>
@@ -37179,7 +37179,7 @@
         <v>35</v>
       </c>
       <c r="C2052">
-        <v>6340</v>
+        <v>6260</v>
       </c>
       <c r="D2052" t="s">
         <v>2054</v>
@@ -37193,7 +37193,7 @@
         <v>36</v>
       </c>
       <c r="C2053">
-        <v>6350</v>
+        <v>6280</v>
       </c>
       <c r="D2053" t="s">
         <v>2055</v>
@@ -37207,7 +37207,7 @@
         <v>37</v>
       </c>
       <c r="C2054">
-        <v>6320</v>
+        <v>6290</v>
       </c>
       <c r="D2054" t="s">
         <v>2056</v>
@@ -37235,7 +37235,7 @@
         <v>39</v>
       </c>
       <c r="C2056">
-        <v>6250</v>
+        <v>6270</v>
       </c>
       <c r="D2056" t="s">
         <v>2058</v>
@@ -37249,7 +37249,7 @@
         <v>40</v>
       </c>
       <c r="C2057">
-        <v>6200</v>
+        <v>6240</v>
       </c>
       <c r="D2057" t="s">
         <v>2059</v>
@@ -37263,7 +37263,7 @@
         <v>41</v>
       </c>
       <c r="C2058">
-        <v>6140</v>
+        <v>6200</v>
       </c>
       <c r="D2058" t="s">
         <v>2060</v>
@@ -37277,7 +37277,7 @@
         <v>42</v>
       </c>
       <c r="C2059">
-        <v>6090</v>
+        <v>6150</v>
       </c>
       <c r="D2059" t="s">
         <v>2061</v>
@@ -37291,7 +37291,7 @@
         <v>43</v>
       </c>
       <c r="C2060">
-        <v>6030</v>
+        <v>6100</v>
       </c>
       <c r="D2060" t="s">
         <v>2062</v>
@@ -37305,7 +37305,7 @@
         <v>44</v>
       </c>
       <c r="C2061">
-        <v>5980</v>
+        <v>6050</v>
       </c>
       <c r="D2061" t="s">
         <v>2063</v>
@@ -37319,7 +37319,7 @@
         <v>45</v>
       </c>
       <c r="C2062">
-        <v>5940</v>
+        <v>6010</v>
       </c>
       <c r="D2062" t="s">
         <v>2064</v>
@@ -37333,7 +37333,7 @@
         <v>46</v>
       </c>
       <c r="C2063">
-        <v>5900</v>
+        <v>5970</v>
       </c>
       <c r="D2063" t="s">
         <v>2065</v>
@@ -37347,7 +37347,7 @@
         <v>47</v>
       </c>
       <c r="C2064">
-        <v>5880</v>
+        <v>5950</v>
       </c>
       <c r="D2064" t="s">
         <v>2066</v>
@@ -37361,7 +37361,7 @@
         <v>48</v>
       </c>
       <c r="C2065">
-        <v>5860</v>
+        <v>5930</v>
       </c>
       <c r="D2065" t="s">
         <v>2067</v>
@@ -37375,7 +37375,7 @@
         <v>49</v>
       </c>
       <c r="C2066">
-        <v>5840</v>
+        <v>5910</v>
       </c>
       <c r="D2066" t="s">
         <v>2068</v>
@@ -37389,7 +37389,7 @@
         <v>50</v>
       </c>
       <c r="C2067">
-        <v>5830</v>
+        <v>5890</v>
       </c>
       <c r="D2067" t="s">
         <v>2069</v>
@@ -37403,7 +37403,7 @@
         <v>51</v>
       </c>
       <c r="C2068">
-        <v>5820</v>
+        <v>5870</v>
       </c>
       <c r="D2068" t="s">
         <v>2070</v>
@@ -37417,7 +37417,7 @@
         <v>52</v>
       </c>
       <c r="C2069">
-        <v>5820</v>
+        <v>5860</v>
       </c>
       <c r="D2069" t="s">
         <v>2071</v>
@@ -37431,7 +37431,7 @@
         <v>53</v>
       </c>
       <c r="C2070">
-        <v>5810</v>
+        <v>5850</v>
       </c>
       <c r="D2070" t="s">
         <v>2072</v>
@@ -37445,7 +37445,7 @@
         <v>54</v>
       </c>
       <c r="C2071">
-        <v>5810</v>
+        <v>5830</v>
       </c>
       <c r="D2071" t="s">
         <v>2073</v>
@@ -37459,7 +37459,7 @@
         <v>55</v>
       </c>
       <c r="C2072">
-        <v>5800</v>
+        <v>5830</v>
       </c>
       <c r="D2072" t="s">
         <v>2074</v>
@@ -37473,7 +37473,7 @@
         <v>56</v>
       </c>
       <c r="C2073">
-        <v>5810</v>
+        <v>5820</v>
       </c>
       <c r="D2073" t="s">
         <v>2075</v>
@@ -37487,7 +37487,7 @@
         <v>57</v>
       </c>
       <c r="C2074">
-        <v>5810</v>
+        <v>5830</v>
       </c>
       <c r="D2074" t="s">
         <v>2076</v>
@@ -37501,7 +37501,7 @@
         <v>58</v>
       </c>
       <c r="C2075">
-        <v>5830</v>
+        <v>5850</v>
       </c>
       <c r="D2075" t="s">
         <v>2077</v>
@@ -37515,7 +37515,7 @@
         <v>59</v>
       </c>
       <c r="C2076">
-        <v>5860</v>
+        <v>5870</v>
       </c>
       <c r="D2076" t="s">
         <v>2078</v>
@@ -37529,7 +37529,7 @@
         <v>60</v>
       </c>
       <c r="C2077">
-        <v>5890</v>
+        <v>5900</v>
       </c>
       <c r="D2077" t="s">
         <v>2079</v>
@@ -37543,7 +37543,7 @@
         <v>61</v>
       </c>
       <c r="C2078">
-        <v>5950</v>
+        <v>5940</v>
       </c>
       <c r="D2078" t="s">
         <v>2080</v>
@@ -37557,7 +37557,7 @@
         <v>62</v>
       </c>
       <c r="C2079">
-        <v>6010</v>
+        <v>6000</v>
       </c>
       <c r="D2079" t="s">
         <v>2081</v>
@@ -37571,7 +37571,7 @@
         <v>63</v>
       </c>
       <c r="C2080">
-        <v>6090</v>
+        <v>6070</v>
       </c>
       <c r="D2080" t="s">
         <v>2082</v>
@@ -37585,7 +37585,7 @@
         <v>64</v>
       </c>
       <c r="C2081">
-        <v>6180</v>
+        <v>6140</v>
       </c>
       <c r="D2081" t="s">
         <v>2083</v>
@@ -37599,7 +37599,7 @@
         <v>65</v>
       </c>
       <c r="C2082">
-        <v>6280</v>
+        <v>6230</v>
       </c>
       <c r="D2082" t="s">
         <v>2084</v>
@@ -37613,7 +37613,7 @@
         <v>66</v>
       </c>
       <c r="C2083">
-        <v>6390</v>
+        <v>6320</v>
       </c>
       <c r="D2083" t="s">
         <v>2085</v>
@@ -37627,7 +37627,7 @@
         <v>67</v>
       </c>
       <c r="C2084">
-        <v>6510</v>
+        <v>6430</v>
       </c>
       <c r="D2084" t="s">
         <v>2086</v>
@@ -37641,7 +37641,7 @@
         <v>68</v>
       </c>
       <c r="C2085">
-        <v>6640</v>
+        <v>6560</v>
       </c>
       <c r="D2085" t="s">
         <v>2087</v>
@@ -37655,7 +37655,7 @@
         <v>69</v>
       </c>
       <c r="C2086">
-        <v>6770</v>
+        <v>6690</v>
       </c>
       <c r="D2086" t="s">
         <v>2088</v>
@@ -37669,7 +37669,7 @@
         <v>70</v>
       </c>
       <c r="C2087">
-        <v>6900</v>
+        <v>6830</v>
       </c>
       <c r="D2087" t="s">
         <v>2089</v>
@@ -37683,7 +37683,7 @@
         <v>71</v>
       </c>
       <c r="C2088">
-        <v>7030</v>
+        <v>6970</v>
       </c>
       <c r="D2088" t="s">
         <v>2090</v>
@@ -37697,7 +37697,7 @@
         <v>72</v>
       </c>
       <c r="C2089">
-        <v>7150</v>
+        <v>7100</v>
       </c>
       <c r="D2089" t="s">
         <v>2091</v>
@@ -37711,7 +37711,7 @@
         <v>73</v>
       </c>
       <c r="C2090">
-        <v>7250</v>
+        <v>7210</v>
       </c>
       <c r="D2090" t="s">
         <v>2092</v>
@@ -37725,7 +37725,7 @@
         <v>74</v>
       </c>
       <c r="C2091">
-        <v>7340</v>
+        <v>7290</v>
       </c>
       <c r="D2091" t="s">
         <v>2093</v>
@@ -37739,7 +37739,7 @@
         <v>75</v>
       </c>
       <c r="C2092">
-        <v>7410</v>
+        <v>7350</v>
       </c>
       <c r="D2092" t="s">
         <v>2094</v>
@@ -37753,7 +37753,7 @@
         <v>76</v>
       </c>
       <c r="C2093">
-        <v>7450</v>
+        <v>7400</v>
       </c>
       <c r="D2093" t="s">
         <v>2095</v>
@@ -37767,7 +37767,7 @@
         <v>77</v>
       </c>
       <c r="C2094">
-        <v>7450</v>
+        <v>7420</v>
       </c>
       <c r="D2094" t="s">
         <v>2096</v>
@@ -37781,7 +37781,7 @@
         <v>78</v>
       </c>
       <c r="C2095">
-        <v>7450</v>
+        <v>7420</v>
       </c>
       <c r="D2095" t="s">
         <v>2097</v>
@@ -37795,7 +37795,7 @@
         <v>79</v>
       </c>
       <c r="C2096">
-        <v>7450</v>
+        <v>7410</v>
       </c>
       <c r="D2096" t="s">
         <v>2098</v>
@@ -37809,7 +37809,7 @@
         <v>80</v>
       </c>
       <c r="C2097">
-        <v>7430</v>
+        <v>7400</v>
       </c>
       <c r="D2097" t="s">
         <v>2099</v>
@@ -37823,7 +37823,7 @@
         <v>81</v>
       </c>
       <c r="C2098">
-        <v>7420</v>
+        <v>7380</v>
       </c>
       <c r="D2098" t="s">
         <v>2100</v>
@@ -37837,7 +37837,7 @@
         <v>82</v>
       </c>
       <c r="C2099">
-        <v>7410</v>
+        <v>7350</v>
       </c>
       <c r="D2099" t="s">
         <v>2101</v>
@@ -37851,7 +37851,7 @@
         <v>83</v>
       </c>
       <c r="C2100">
-        <v>7370</v>
+        <v>7300</v>
       </c>
       <c r="D2100" t="s">
         <v>2102</v>
@@ -37865,7 +37865,7 @@
         <v>84</v>
       </c>
       <c r="C2101">
-        <v>7320</v>
+        <v>7240</v>
       </c>
       <c r="D2101" t="s">
         <v>2103</v>
@@ -37879,7 +37879,7 @@
         <v>85</v>
       </c>
       <c r="C2102">
-        <v>7200</v>
+        <v>7160</v>
       </c>
       <c r="D2102" t="s">
         <v>2104</v>
@@ -37893,7 +37893,7 @@
         <v>86</v>
       </c>
       <c r="C2103">
-        <v>7060</v>
+        <v>7070</v>
       </c>
       <c r="D2103" t="s">
         <v>2105</v>
@@ -37907,7 +37907,7 @@
         <v>87</v>
       </c>
       <c r="C2104">
-        <v>6990</v>
+        <v>6970</v>
       </c>
       <c r="D2104" t="s">
         <v>2106</v>
@@ -37921,7 +37921,7 @@
         <v>88</v>
       </c>
       <c r="C2105">
-        <v>6940</v>
+        <v>6860</v>
       </c>
       <c r="D2105" t="s">
         <v>2107</v>
@@ -37935,7 +37935,7 @@
         <v>89</v>
       </c>
       <c r="C2106">
-        <v>6840</v>
+        <v>6760</v>
       </c>
       <c r="D2106" t="s">
         <v>2108</v>
@@ -37949,7 +37949,7 @@
         <v>90</v>
       </c>
       <c r="C2107">
-        <v>6750</v>
+        <v>6640</v>
       </c>
       <c r="D2107" t="s">
         <v>2109</v>
@@ -37963,7 +37963,7 @@
         <v>91</v>
       </c>
       <c r="C2108">
-        <v>6580</v>
+        <v>6510</v>
       </c>
       <c r="D2108" t="s">
         <v>2110</v>
@@ -37977,7 +37977,7 @@
         <v>92</v>
       </c>
       <c r="C2109">
-        <v>6470</v>
+        <v>6400</v>
       </c>
       <c r="D2109" t="s">
         <v>2111</v>
@@ -37991,7 +37991,7 @@
         <v>93</v>
       </c>
       <c r="C2110">
-        <v>6390</v>
+        <v>6300</v>
       </c>
       <c r="D2110" t="s">
         <v>2112</v>
@@ -38005,7 +38005,7 @@
         <v>94</v>
       </c>
       <c r="C2111">
-        <v>6240</v>
+        <v>6180</v>
       </c>
       <c r="D2111" t="s">
         <v>2113</v>
@@ -38019,7 +38019,7 @@
         <v>95</v>
       </c>
       <c r="C2112">
-        <v>6150</v>
+        <v>6080</v>
       </c>
       <c r="D2112" t="s">
         <v>2114</v>
@@ -38033,7 +38033,7 @@
         <v>96</v>
       </c>
       <c r="C2113">
-        <v>6040</v>
+        <v>5970</v>
       </c>
       <c r="D2113" t="s">
         <v>2115</v>
@@ -38047,7 +38047,7 @@
         <v>1</v>
       </c>
       <c r="C2114">
-        <v>5980</v>
+        <v>5940</v>
       </c>
       <c r="D2114" t="s">
         <v>2116</v>
@@ -38061,7 +38061,7 @@
         <v>2</v>
       </c>
       <c r="C2115">
-        <v>5950</v>
+        <v>5890</v>
       </c>
       <c r="D2115" t="s">
         <v>2117</v>
@@ -38075,7 +38075,7 @@
         <v>3</v>
       </c>
       <c r="C2116">
-        <v>5890</v>
+        <v>5840</v>
       </c>
       <c r="D2116" t="s">
         <v>2118</v>
@@ -38089,7 +38089,7 @@
         <v>4</v>
       </c>
       <c r="C2117">
-        <v>5830</v>
+        <v>5790</v>
       </c>
       <c r="D2117" t="s">
         <v>2119</v>
@@ -38103,7 +38103,7 @@
         <v>5</v>
       </c>
       <c r="C2118">
-        <v>5790</v>
+        <v>5750</v>
       </c>
       <c r="D2118" t="s">
         <v>2120</v>
@@ -38117,7 +38117,7 @@
         <v>6</v>
       </c>
       <c r="C2119">
-        <v>5760</v>
+        <v>5720</v>
       </c>
       <c r="D2119" t="s">
         <v>2121</v>
@@ -38131,7 +38131,7 @@
         <v>7</v>
       </c>
       <c r="C2120">
-        <v>5730</v>
+        <v>5680</v>
       </c>
       <c r="D2120" t="s">
         <v>2122</v>
@@ -38145,7 +38145,7 @@
         <v>8</v>
       </c>
       <c r="C2121">
-        <v>5690</v>
+        <v>5670</v>
       </c>
       <c r="D2121" t="s">
         <v>2123</v>
@@ -38159,7 +38159,7 @@
         <v>9</v>
       </c>
       <c r="C2122">
-        <v>5660</v>
+        <v>5650</v>
       </c>
       <c r="D2122" t="s">
         <v>2124</v>
@@ -38187,7 +38187,7 @@
         <v>11</v>
       </c>
       <c r="C2124">
-        <v>5620</v>
+        <v>5630</v>
       </c>
       <c r="D2124" t="s">
         <v>2126</v>
@@ -38201,7 +38201,7 @@
         <v>12</v>
       </c>
       <c r="C2125">
-        <v>5610</v>
+        <v>5630</v>
       </c>
       <c r="D2125" t="s">
         <v>2127</v>
@@ -38215,7 +38215,7 @@
         <v>13</v>
       </c>
       <c r="C2126">
-        <v>5600</v>
+        <v>5630</v>
       </c>
       <c r="D2126" t="s">
         <v>2128</v>
@@ -38229,7 +38229,7 @@
         <v>14</v>
       </c>
       <c r="C2127">
-        <v>5610</v>
+        <v>5630</v>
       </c>
       <c r="D2127" t="s">
         <v>2129</v>
@@ -38243,7 +38243,7 @@
         <v>15</v>
       </c>
       <c r="C2128">
-        <v>5630</v>
+        <v>5640</v>
       </c>
       <c r="D2128" t="s">
         <v>2130</v>
@@ -38257,7 +38257,7 @@
         <v>16</v>
       </c>
       <c r="C2129">
-        <v>5630</v>
+        <v>5640</v>
       </c>
       <c r="D2129" t="s">
         <v>2131</v>
@@ -38271,7 +38271,7 @@
         <v>17</v>
       </c>
       <c r="C2130">
-        <v>5640</v>
+        <v>5650</v>
       </c>
       <c r="D2130" t="s">
         <v>2132</v>
@@ -38285,7 +38285,7 @@
         <v>18</v>
       </c>
       <c r="C2131">
-        <v>5650</v>
+        <v>5670</v>
       </c>
       <c r="D2131" t="s">
         <v>2133</v>
@@ -38299,7 +38299,7 @@
         <v>19</v>
       </c>
       <c r="C2132">
-        <v>5680</v>
+        <v>5700</v>
       </c>
       <c r="D2132" t="s">
         <v>2134</v>
@@ -38313,7 +38313,7 @@
         <v>20</v>
       </c>
       <c r="C2133">
-        <v>5740</v>
+        <v>5760</v>
       </c>
       <c r="D2133" t="s">
         <v>2135</v>
@@ -38327,7 +38327,7 @@
         <v>21</v>
       </c>
       <c r="C2134">
-        <v>5820</v>
+        <v>5850</v>
       </c>
       <c r="D2134" t="s">
         <v>2136</v>
@@ -38341,7 +38341,7 @@
         <v>22</v>
       </c>
       <c r="C2135">
-        <v>5940</v>
+        <v>5960</v>
       </c>
       <c r="D2135" t="s">
         <v>2137</v>
@@ -38355,7 +38355,7 @@
         <v>23</v>
       </c>
       <c r="C2136">
-        <v>6090</v>
+        <v>6080</v>
       </c>
       <c r="D2136" t="s">
         <v>2138</v>
@@ -38369,7 +38369,7 @@
         <v>24</v>
       </c>
       <c r="C2137">
-        <v>6280</v>
+        <v>6230</v>
       </c>
       <c r="D2137" t="s">
         <v>2139</v>
@@ -38383,7 +38383,7 @@
         <v>25</v>
       </c>
       <c r="C2138">
-        <v>6500</v>
+        <v>6430</v>
       </c>
       <c r="D2138" t="s">
         <v>2140</v>
@@ -38397,7 +38397,7 @@
         <v>26</v>
       </c>
       <c r="C2139">
-        <v>6730</v>
+        <v>6620</v>
       </c>
       <c r="D2139" t="s">
         <v>2141</v>
@@ -38411,7 +38411,7 @@
         <v>27</v>
       </c>
       <c r="C2140">
-        <v>6970</v>
+        <v>6810</v>
       </c>
       <c r="D2140" t="s">
         <v>2142</v>
@@ -38425,7 +38425,7 @@
         <v>28</v>
       </c>
       <c r="C2141">
-        <v>7210</v>
+        <v>7010</v>
       </c>
       <c r="D2141" t="s">
         <v>2143</v>
@@ -38439,7 +38439,7 @@
         <v>29</v>
       </c>
       <c r="C2142">
-        <v>7440</v>
+        <v>7210</v>
       </c>
       <c r="D2142" t="s">
         <v>2144</v>
@@ -38453,7 +38453,7 @@
         <v>30</v>
       </c>
       <c r="C2143">
-        <v>7650</v>
+        <v>7400</v>
       </c>
       <c r="D2143" t="s">
         <v>2145</v>
@@ -38467,7 +38467,7 @@
         <v>31</v>
       </c>
       <c r="C2144">
-        <v>7830</v>
+        <v>7580</v>
       </c>
       <c r="D2144" t="s">
         <v>2146</v>
@@ -38481,7 +38481,7 @@
         <v>32</v>
       </c>
       <c r="C2145">
-        <v>7980</v>
+        <v>7750</v>
       </c>
       <c r="D2145" t="s">
         <v>2147</v>
@@ -38495,7 +38495,7 @@
         <v>33</v>
       </c>
       <c r="C2146">
-        <v>8100</v>
+        <v>7900</v>
       </c>
       <c r="D2146" t="s">
         <v>2148</v>
@@ -38509,7 +38509,7 @@
         <v>34</v>
       </c>
       <c r="C2147">
-        <v>8170</v>
+        <v>8030</v>
       </c>
       <c r="D2147" t="s">
         <v>2149</v>
@@ -38523,7 +38523,7 @@
         <v>35</v>
       </c>
       <c r="C2148">
-        <v>8200</v>
+        <v>8140</v>
       </c>
       <c r="D2148" t="s">
         <v>2150</v>
@@ -38537,7 +38537,7 @@
         <v>36</v>
       </c>
       <c r="C2149">
-        <v>8200</v>
+        <v>8230</v>
       </c>
       <c r="D2149" t="s">
         <v>2151</v>
@@ -38551,7 +38551,7 @@
         <v>37</v>
       </c>
       <c r="C2150">
-        <v>8200</v>
+        <v>8300</v>
       </c>
       <c r="D2150" t="s">
         <v>2152</v>
@@ -38565,7 +38565,7 @@
         <v>38</v>
       </c>
       <c r="C2151">
-        <v>8200</v>
+        <v>8350</v>
       </c>
       <c r="D2151" t="s">
         <v>2153</v>
@@ -38579,7 +38579,7 @@
         <v>39</v>
       </c>
       <c r="C2152">
-        <v>8160</v>
+        <v>8380</v>
       </c>
       <c r="D2152" t="s">
         <v>2154</v>
@@ -38593,7 +38593,7 @@
         <v>40</v>
       </c>
       <c r="C2153">
-        <v>8120</v>
+        <v>8380</v>
       </c>
       <c r="D2153" t="s">
         <v>2155</v>
@@ -38607,7 +38607,7 @@
         <v>41</v>
       </c>
       <c r="C2154">
-        <v>8070</v>
+        <v>8370</v>
       </c>
       <c r="D2154" t="s">
         <v>2156</v>
@@ -38621,7 +38621,7 @@
         <v>42</v>
       </c>
       <c r="C2155">
-        <v>8030</v>
+        <v>8330</v>
       </c>
       <c r="D2155" t="s">
         <v>2157</v>
@@ -38635,7 +38635,7 @@
         <v>43</v>
       </c>
       <c r="C2156">
-        <v>7980</v>
+        <v>8290</v>
       </c>
       <c r="D2156" t="s">
         <v>2158</v>
@@ -38649,7 +38649,7 @@
         <v>44</v>
       </c>
       <c r="C2157">
-        <v>7940</v>
+        <v>8230</v>
       </c>
       <c r="D2157" t="s">
         <v>2159</v>
@@ -38663,7 +38663,7 @@
         <v>45</v>
       </c>
       <c r="C2158">
-        <v>7910</v>
+        <v>8180</v>
       </c>
       <c r="D2158" t="s">
         <v>2160</v>
@@ -38677,7 +38677,7 @@
         <v>46</v>
       </c>
       <c r="C2159">
-        <v>7880</v>
+        <v>8120</v>
       </c>
       <c r="D2159" t="s">
         <v>2161</v>
@@ -38691,7 +38691,7 @@
         <v>47</v>
       </c>
       <c r="C2160">
-        <v>7850</v>
+        <v>8060</v>
       </c>
       <c r="D2160" t="s">
         <v>2162</v>
@@ -38705,7 +38705,7 @@
         <v>48</v>
       </c>
       <c r="C2161">
-        <v>7820</v>
+        <v>8010</v>
       </c>
       <c r="D2161" t="s">
         <v>2163</v>
@@ -38719,7 +38719,7 @@
         <v>49</v>
       </c>
       <c r="C2162">
-        <v>7800</v>
+        <v>7970</v>
       </c>
       <c r="D2162" t="s">
         <v>2164</v>
@@ -38733,7 +38733,7 @@
         <v>50</v>
       </c>
       <c r="C2163">
-        <v>7770</v>
+        <v>7940</v>
       </c>
       <c r="D2163" t="s">
         <v>2165</v>
@@ -38747,7 +38747,7 @@
         <v>51</v>
       </c>
       <c r="C2164">
-        <v>7750</v>
+        <v>7920</v>
       </c>
       <c r="D2164" t="s">
         <v>2166</v>
@@ -38761,7 +38761,7 @@
         <v>52</v>
       </c>
       <c r="C2165">
-        <v>7730</v>
+        <v>7900</v>
       </c>
       <c r="D2165" t="s">
         <v>2167</v>
@@ -38775,7 +38775,7 @@
         <v>53</v>
       </c>
       <c r="C2166">
-        <v>7710</v>
+        <v>7890</v>
       </c>
       <c r="D2166" t="s">
         <v>2168</v>
@@ -38789,7 +38789,7 @@
         <v>54</v>
       </c>
       <c r="C2167">
-        <v>7700</v>
+        <v>7890</v>
       </c>
       <c r="D2167" t="s">
         <v>2169</v>
@@ -38803,7 +38803,7 @@
         <v>55</v>
       </c>
       <c r="C2168">
-        <v>7690</v>
+        <v>7880</v>
       </c>
       <c r="D2168" t="s">
         <v>2170</v>
@@ -38817,7 +38817,7 @@
         <v>56</v>
       </c>
       <c r="C2169">
-        <v>7680</v>
+        <v>7880</v>
       </c>
       <c r="D2169" t="s">
         <v>2171</v>
@@ -38831,7 +38831,7 @@
         <v>57</v>
       </c>
       <c r="C2170">
-        <v>7680</v>
+        <v>7880</v>
       </c>
       <c r="D2170" t="s">
         <v>2172</v>
@@ -38845,7 +38845,7 @@
         <v>58</v>
       </c>
       <c r="C2171">
-        <v>7670</v>
+        <v>7870</v>
       </c>
       <c r="D2171" t="s">
         <v>2173</v>
@@ -38859,7 +38859,7 @@
         <v>59</v>
       </c>
       <c r="C2172">
-        <v>7670</v>
+        <v>7860</v>
       </c>
       <c r="D2172" t="s">
         <v>2174</v>
@@ -38873,7 +38873,7 @@
         <v>60</v>
       </c>
       <c r="C2173">
-        <v>7660</v>
+        <v>7860</v>
       </c>
       <c r="D2173" t="s">
         <v>2175</v>
@@ -38887,7 +38887,7 @@
         <v>61</v>
       </c>
       <c r="C2174">
-        <v>7650</v>
+        <v>7850</v>
       </c>
       <c r="D2174" t="s">
         <v>2176</v>
@@ -38901,7 +38901,7 @@
         <v>62</v>
       </c>
       <c r="C2175">
-        <v>7640</v>
+        <v>7850</v>
       </c>
       <c r="D2175" t="s">
         <v>2177</v>
@@ -38915,7 +38915,7 @@
         <v>63</v>
       </c>
       <c r="C2176">
-        <v>7630</v>
+        <v>7860</v>
       </c>
       <c r="D2176" t="s">
         <v>2178</v>
@@ -38929,7 +38929,7 @@
         <v>64</v>
       </c>
       <c r="C2177">
-        <v>7630</v>
+        <v>7880</v>
       </c>
       <c r="D2177" t="s">
         <v>2179</v>
@@ -38943,7 +38943,7 @@
         <v>65</v>
       </c>
       <c r="C2178">
-        <v>7650</v>
+        <v>7920</v>
       </c>
       <c r="D2178" t="s">
         <v>2180</v>
@@ -38957,7 +38957,7 @@
         <v>66</v>
       </c>
       <c r="C2179">
-        <v>7680</v>
+        <v>7970</v>
       </c>
       <c r="D2179" t="s">
         <v>2181</v>
@@ -38971,7 +38971,7 @@
         <v>67</v>
       </c>
       <c r="C2180">
-        <v>7730</v>
+        <v>8030</v>
       </c>
       <c r="D2180" t="s">
         <v>2182</v>
@@ -38985,7 +38985,7 @@
         <v>68</v>
       </c>
       <c r="C2181">
-        <v>7800</v>
+        <v>8100</v>
       </c>
       <c r="D2181" t="s">
         <v>2183</v>
@@ -38999,7 +38999,7 @@
         <v>69</v>
       </c>
       <c r="C2182">
-        <v>7880</v>
+        <v>8170</v>
       </c>
       <c r="D2182" t="s">
         <v>2184</v>
@@ -39013,7 +39013,7 @@
         <v>70</v>
       </c>
       <c r="C2183">
-        <v>7970</v>
+        <v>8240</v>
       </c>
       <c r="D2183" t="s">
         <v>2185</v>
@@ -39027,7 +39027,7 @@
         <v>71</v>
       </c>
       <c r="C2184">
-        <v>8060</v>
+        <v>8300</v>
       </c>
       <c r="D2184" t="s">
         <v>2186</v>
@@ -39041,7 +39041,7 @@
         <v>72</v>
       </c>
       <c r="C2185">
-        <v>8150</v>
+        <v>8360</v>
       </c>
       <c r="D2185" t="s">
         <v>2187</v>
@@ -39055,7 +39055,7 @@
         <v>73</v>
       </c>
       <c r="C2186">
-        <v>8220</v>
+        <v>8400</v>
       </c>
       <c r="D2186" t="s">
         <v>2188</v>
@@ -39069,7 +39069,7 @@
         <v>74</v>
       </c>
       <c r="C2187">
-        <v>8290</v>
+        <v>8440</v>
       </c>
       <c r="D2187" t="s">
         <v>2189</v>
@@ -39083,7 +39083,7 @@
         <v>75</v>
       </c>
       <c r="C2188">
-        <v>8350</v>
+        <v>8470</v>
       </c>
       <c r="D2188" t="s">
         <v>2190</v>
@@ -39097,7 +39097,7 @@
         <v>76</v>
       </c>
       <c r="C2189">
-        <v>8400</v>
+        <v>8500</v>
       </c>
       <c r="D2189" t="s">
         <v>2191</v>
@@ -39111,7 +39111,7 @@
         <v>77</v>
       </c>
       <c r="C2190">
-        <v>8440</v>
+        <v>8510</v>
       </c>
       <c r="D2190" t="s">
         <v>2192</v>
@@ -39125,7 +39125,7 @@
         <v>78</v>
       </c>
       <c r="C2191">
-        <v>8450</v>
+        <v>8500</v>
       </c>
       <c r="D2191" t="s">
         <v>2193</v>
@@ -39139,7 +39139,7 @@
         <v>79</v>
       </c>
       <c r="C2192">
-        <v>8450</v>
+        <v>8470</v>
       </c>
       <c r="D2192" t="s">
         <v>2194</v>
@@ -39167,7 +39167,7 @@
         <v>81</v>
       </c>
       <c r="C2194">
-        <v>8390</v>
+        <v>8380</v>
       </c>
       <c r="D2194" t="s">
         <v>2196</v>
@@ -39181,7 +39181,7 @@
         <v>82</v>
       </c>
       <c r="C2195">
-        <v>8350</v>
+        <v>8320</v>
       </c>
       <c r="D2195" t="s">
         <v>2197</v>
@@ -39195,7 +39195,7 @@
         <v>83</v>
       </c>
       <c r="C2196">
-        <v>8280</v>
+        <v>8230</v>
       </c>
       <c r="D2196" t="s">
         <v>2198</v>
@@ -39209,7 +39209,7 @@
         <v>84</v>
       </c>
       <c r="C2197">
-        <v>8210</v>
+        <v>8130</v>
       </c>
       <c r="D2197" t="s">
         <v>2199</v>
@@ -39223,7 +39223,7 @@
         <v>85</v>
       </c>
       <c r="C2198">
-        <v>8090</v>
+        <v>8020</v>
       </c>
       <c r="D2198" t="s">
         <v>2200</v>
@@ -39237,7 +39237,7 @@
         <v>86</v>
       </c>
       <c r="C2199">
-        <v>7930</v>
+        <v>7890</v>
       </c>
       <c r="D2199" t="s">
         <v>2201</v>
@@ -39251,7 +39251,7 @@
         <v>87</v>
       </c>
       <c r="C2200">
-        <v>7830</v>
+        <v>7770</v>
       </c>
       <c r="D2200" t="s">
         <v>2202</v>
@@ -39265,7 +39265,7 @@
         <v>88</v>
       </c>
       <c r="C2201">
-        <v>7710</v>
+        <v>7650</v>
       </c>
       <c r="D2201" t="s">
         <v>2203</v>
@@ -39279,7 +39279,7 @@
         <v>89</v>
       </c>
       <c r="C2202">
-        <v>7560</v>
+        <v>7520</v>
       </c>
       <c r="D2202" t="s">
         <v>2204</v>
@@ -39293,7 +39293,7 @@
         <v>90</v>
       </c>
       <c r="C2203">
-        <v>7440</v>
+        <v>7380</v>
       </c>
       <c r="D2203" t="s">
         <v>2205</v>
@@ -39307,7 +39307,7 @@
         <v>91</v>
       </c>
       <c r="C2204">
-        <v>7270</v>
+        <v>7220</v>
       </c>
       <c r="D2204" t="s">
         <v>2206</v>
@@ -39321,7 +39321,7 @@
         <v>92</v>
       </c>
       <c r="C2205">
-        <v>7100</v>
+        <v>7080</v>
       </c>
       <c r="D2205" t="s">
         <v>2207</v>
@@ -39335,7 +39335,7 @@
         <v>93</v>
       </c>
       <c r="C2206">
-        <v>6910</v>
+        <v>6920</v>
       </c>
       <c r="D2206" t="s">
         <v>2208</v>
@@ -39349,7 +39349,7 @@
         <v>94</v>
       </c>
       <c r="C2207">
-        <v>6710</v>
+        <v>6780</v>
       </c>
       <c r="D2207" t="s">
         <v>2209</v>
@@ -39363,7 +39363,7 @@
         <v>95</v>
       </c>
       <c r="C2208">
-        <v>6630</v>
+        <v>6660</v>
       </c>
       <c r="D2208" t="s">
         <v>2210</v>
@@ -39377,7 +39377,7 @@
         <v>96</v>
       </c>
       <c r="C2209">
-        <v>6520</v>
+        <v>6550</v>
       </c>
       <c r="D2209" t="s">
         <v>2211</v>
@@ -39391,7 +39391,7 @@
         <v>1</v>
       </c>
       <c r="C2210">
-        <v>6500</v>
+        <v>6370</v>
       </c>
       <c r="D2210" t="s">
         <v>2212</v>
@@ -39405,7 +39405,7 @@
         <v>2</v>
       </c>
       <c r="C2211">
-        <v>6440</v>
+        <v>6300</v>
       </c>
       <c r="D2211" t="s">
         <v>2213</v>
@@ -39419,7 +39419,7 @@
         <v>3</v>
       </c>
       <c r="C2212">
-        <v>6390</v>
+        <v>6250</v>
       </c>
       <c r="D2212" t="s">
         <v>2214</v>
@@ -39433,7 +39433,7 @@
         <v>4</v>
       </c>
       <c r="C2213">
-        <v>6330</v>
+        <v>6210</v>
       </c>
       <c r="D2213" t="s">
         <v>2215</v>
@@ -39447,7 +39447,7 @@
         <v>5</v>
       </c>
       <c r="C2214">
-        <v>6280</v>
+        <v>6160</v>
       </c>
       <c r="D2214" t="s">
         <v>2216</v>
@@ -39461,7 +39461,7 @@
         <v>6</v>
       </c>
       <c r="C2215">
-        <v>6230</v>
+        <v>6130</v>
       </c>
       <c r="D2215" t="s">
         <v>2217</v>
@@ -39475,7 +39475,7 @@
         <v>7</v>
       </c>
       <c r="C2216">
-        <v>6190</v>
+        <v>6120</v>
       </c>
       <c r="D2216" t="s">
         <v>2218</v>
@@ -39489,7 +39489,7 @@
         <v>8</v>
       </c>
       <c r="C2217">
-        <v>6160</v>
+        <v>6090</v>
       </c>
       <c r="D2217" t="s">
         <v>2219</v>
@@ -39503,7 +39503,7 @@
         <v>9</v>
       </c>
       <c r="C2218">
-        <v>6140</v>
+        <v>6050</v>
       </c>
       <c r="D2218" t="s">
         <v>2220</v>
@@ -39517,7 +39517,7 @@
         <v>10</v>
       </c>
       <c r="C2219">
-        <v>6130</v>
+        <v>6030</v>
       </c>
       <c r="D2219" t="s">
         <v>2221</v>
@@ -39531,7 +39531,7 @@
         <v>11</v>
       </c>
       <c r="C2220">
-        <v>6100</v>
+        <v>6010</v>
       </c>
       <c r="D2220" t="s">
         <v>2222</v>
@@ -39545,7 +39545,7 @@
         <v>12</v>
       </c>
       <c r="C2221">
-        <v>6100</v>
+        <v>5990</v>
       </c>
       <c r="D2221" t="s">
         <v>2223</v>
@@ -39559,7 +39559,7 @@
         <v>13</v>
       </c>
       <c r="C2222">
-        <v>6100</v>
+        <v>5970</v>
       </c>
       <c r="D2222" t="s">
         <v>2224</v>
@@ -39573,7 +39573,7 @@
         <v>14</v>
       </c>
       <c r="C2223">
-        <v>6100</v>
+        <v>5970</v>
       </c>
       <c r="D2223" t="s">
         <v>2225</v>
@@ -39587,7 +39587,7 @@
         <v>15</v>
       </c>
       <c r="C2224">
-        <v>6110</v>
+        <v>5970</v>
       </c>
       <c r="D2224" t="s">
         <v>2226</v>
@@ -39601,7 +39601,7 @@
         <v>16</v>
       </c>
       <c r="C2225">
-        <v>6110</v>
+        <v>5980</v>
       </c>
       <c r="D2225" t="s">
         <v>2227</v>
@@ -39615,7 +39615,7 @@
         <v>17</v>
       </c>
       <c r="C2226">
-        <v>6120</v>
+        <v>6010</v>
       </c>
       <c r="D2226" t="s">
         <v>2228</v>
@@ -39629,7 +39629,7 @@
         <v>18</v>
       </c>
       <c r="C2227">
-        <v>6140</v>
+        <v>6030</v>
       </c>
       <c r="D2227" t="s">
         <v>2229</v>
@@ -39643,7 +39643,7 @@
         <v>19</v>
       </c>
       <c r="C2228">
-        <v>6170</v>
+        <v>6060</v>
       </c>
       <c r="D2228" t="s">
         <v>2230</v>
@@ -39657,7 +39657,7 @@
         <v>20</v>
       </c>
       <c r="C2229">
-        <v>6220</v>
+        <v>6110</v>
       </c>
       <c r="D2229" t="s">
         <v>2231</v>
@@ -39671,7 +39671,7 @@
         <v>21</v>
       </c>
       <c r="C2230">
-        <v>6280</v>
+        <v>6170</v>
       </c>
       <c r="D2230" t="s">
         <v>2232</v>
@@ -39685,7 +39685,7 @@
         <v>22</v>
       </c>
       <c r="C2231">
-        <v>6360</v>
+        <v>6260</v>
       </c>
       <c r="D2231" t="s">
         <v>2233</v>
@@ -39699,7 +39699,7 @@
         <v>23</v>
       </c>
       <c r="C2232">
-        <v>6470</v>
+        <v>6360</v>
       </c>
       <c r="D2232" t="s">
         <v>2234</v>
@@ -39713,7 +39713,7 @@
         <v>24</v>
       </c>
       <c r="C2233">
-        <v>6590</v>
+        <v>6480</v>
       </c>
       <c r="D2233" t="s">
         <v>2235</v>
@@ -39727,7 +39727,7 @@
         <v>25</v>
       </c>
       <c r="C2234">
-        <v>6730</v>
+        <v>6610</v>
       </c>
       <c r="D2234" t="s">
         <v>2236</v>
@@ -39741,7 +39741,7 @@
         <v>26</v>
       </c>
       <c r="C2235">
-        <v>6890</v>
+        <v>6770</v>
       </c>
       <c r="D2235" t="s">
         <v>2237</v>
@@ -39755,7 +39755,7 @@
         <v>27</v>
       </c>
       <c r="C2236">
-        <v>7050</v>
+        <v>6940</v>
       </c>
       <c r="D2236" t="s">
         <v>2238</v>
@@ -39769,7 +39769,7 @@
         <v>28</v>
       </c>
       <c r="C2237">
-        <v>7220</v>
+        <v>7120</v>
       </c>
       <c r="D2237" t="s">
         <v>2239</v>
@@ -39783,7 +39783,7 @@
         <v>29</v>
       </c>
       <c r="C2238">
-        <v>7400</v>
+        <v>7370</v>
       </c>
       <c r="D2238" t="s">
         <v>2240</v>
@@ -39825,7 +39825,7 @@
         <v>32</v>
       </c>
       <c r="C2241">
-        <v>7850</v>
+        <v>7870</v>
       </c>
       <c r="D2241" t="s">
         <v>2243</v>
@@ -39839,7 +39839,7 @@
         <v>33</v>
       </c>
       <c r="C2242">
-        <v>7960</v>
+        <v>8010</v>
       </c>
       <c r="D2242" t="s">
         <v>2244</v>
@@ -39853,7 +39853,7 @@
         <v>34</v>
       </c>
       <c r="C2243">
-        <v>8000</v>
+        <v>8110</v>
       </c>
       <c r="D2243" t="s">
         <v>2245</v>
@@ -39867,7 +39867,7 @@
         <v>35</v>
       </c>
       <c r="C2244">
-        <v>8000</v>
+        <v>8170</v>
       </c>
       <c r="D2244" t="s">
         <v>2246</v>
@@ -39881,7 +39881,7 @@
         <v>36</v>
       </c>
       <c r="C2245">
-        <v>8000</v>
+        <v>8230</v>
       </c>
       <c r="D2245" t="s">
         <v>2247</v>
@@ -39895,7 +39895,7 @@
         <v>37</v>
       </c>
       <c r="C2246">
-        <v>8000</v>
+        <v>8290</v>
       </c>
       <c r="D2246" t="s">
         <v>2248</v>
@@ -39909,7 +39909,7 @@
         <v>38</v>
       </c>
       <c r="C2247">
-        <v>7960</v>
+        <v>8290</v>
       </c>
       <c r="D2247" t="s">
         <v>2249</v>
@@ -39923,7 +39923,7 @@
         <v>39</v>
       </c>
       <c r="C2248">
-        <v>7900</v>
+        <v>8280</v>
       </c>
       <c r="D2248" t="s">
         <v>2250</v>
@@ -39937,7 +39937,7 @@
         <v>40</v>
       </c>
       <c r="C2249">
-        <v>7840</v>
+        <v>8240</v>
       </c>
       <c r="D2249" t="s">
         <v>2251</v>
@@ -39951,7 +39951,7 @@
         <v>41</v>
       </c>
       <c r="C2250">
-        <v>7820</v>
+        <v>8200</v>
       </c>
       <c r="D2250" t="s">
         <v>2252</v>
@@ -39965,7 +39965,7 @@
         <v>42</v>
       </c>
       <c r="C2251">
-        <v>7750</v>
+        <v>8140</v>
       </c>
       <c r="D2251" t="s">
         <v>2253</v>
@@ -39979,7 +39979,7 @@
         <v>43</v>
       </c>
       <c r="C2252">
-        <v>7650</v>
+        <v>8090</v>
       </c>
       <c r="D2252" t="s">
         <v>2254</v>
@@ -39993,7 +39993,7 @@
         <v>44</v>
       </c>
       <c r="C2253">
-        <v>7560</v>
+        <v>8030</v>
       </c>
       <c r="D2253" t="s">
         <v>2255</v>
@@ -40007,7 +40007,7 @@
         <v>45</v>
       </c>
       <c r="C2254">
-        <v>7470</v>
+        <v>7970</v>
       </c>
       <c r="D2254" t="s">
         <v>2256</v>
@@ -40021,7 +40021,7 @@
         <v>46</v>
       </c>
       <c r="C2255">
-        <v>7390</v>
+        <v>7920</v>
       </c>
       <c r="D2255" t="s">
         <v>2257</v>
@@ -40035,7 +40035,7 @@
         <v>47</v>
       </c>
       <c r="C2256">
-        <v>7330</v>
+        <v>7880</v>
       </c>
       <c r="D2256" t="s">
         <v>2258</v>
@@ -40049,7 +40049,7 @@
         <v>48</v>
       </c>
       <c r="C2257">
-        <v>7270</v>
+        <v>7850</v>
       </c>
       <c r="D2257" t="s">
         <v>2259</v>
@@ -40063,7 +40063,7 @@
         <v>49</v>
       </c>
       <c r="C2258">
-        <v>7230</v>
+        <v>7800</v>
       </c>
       <c r="D2258" t="s">
         <v>2260</v>
@@ -40077,7 +40077,7 @@
         <v>50</v>
       </c>
       <c r="C2259">
-        <v>7190</v>
+        <v>7780</v>
       </c>
       <c r="D2259" t="s">
         <v>2261</v>
@@ -40091,7 +40091,7 @@
         <v>51</v>
       </c>
       <c r="C2260">
-        <v>7160</v>
+        <v>7770</v>
       </c>
       <c r="D2260" t="s">
         <v>2262</v>
@@ -40105,7 +40105,7 @@
         <v>52</v>
       </c>
       <c r="C2261">
-        <v>7140</v>
+        <v>7760</v>
       </c>
       <c r="D2261" t="s">
         <v>2263</v>
@@ -40119,7 +40119,7 @@
         <v>53</v>
       </c>
       <c r="C2262">
-        <v>7120</v>
+        <v>7760</v>
       </c>
       <c r="D2262" t="s">
         <v>2264</v>
@@ -40133,7 +40133,7 @@
         <v>54</v>
       </c>
       <c r="C2263">
-        <v>7110</v>
+        <v>7760</v>
       </c>
       <c r="D2263" t="s">
         <v>2265</v>
@@ -40147,7 +40147,7 @@
         <v>55</v>
       </c>
       <c r="C2264">
-        <v>7100</v>
+        <v>7760</v>
       </c>
       <c r="D2264" t="s">
         <v>2266</v>
@@ -40161,7 +40161,7 @@
         <v>56</v>
       </c>
       <c r="C2265">
-        <v>7100</v>
+        <v>7750</v>
       </c>
       <c r="D2265" t="s">
         <v>2267</v>
@@ -40175,7 +40175,7 @@
         <v>57</v>
       </c>
       <c r="C2266">
-        <v>7100</v>
+        <v>7740</v>
       </c>
       <c r="D2266" t="s">
         <v>2268</v>
@@ -40189,7 +40189,7 @@
         <v>58</v>
       </c>
       <c r="C2267">
-        <v>7100</v>
+        <v>7740</v>
       </c>
       <c r="D2267" t="s">
         <v>2269</v>
@@ -40203,7 +40203,7 @@
         <v>59</v>
       </c>
       <c r="C2268">
-        <v>7100</v>
+        <v>7740</v>
       </c>
       <c r="D2268" t="s">
         <v>2270</v>
@@ -40217,7 +40217,7 @@
         <v>60</v>
       </c>
       <c r="C2269">
-        <v>7100</v>
+        <v>7740</v>
       </c>
       <c r="D2269" t="s">
         <v>2271</v>
@@ -40231,7 +40231,7 @@
         <v>61</v>
       </c>
       <c r="C2270">
-        <v>7110</v>
+        <v>7730</v>
       </c>
       <c r="D2270" t="s">
         <v>2272</v>
@@ -40245,7 +40245,7 @@
         <v>62</v>
       </c>
       <c r="C2271">
-        <v>7130</v>
+        <v>7730</v>
       </c>
       <c r="D2271" t="s">
         <v>2273</v>
@@ -40259,7 +40259,7 @@
         <v>63</v>
       </c>
       <c r="C2272">
-        <v>7150</v>
+        <v>7730</v>
       </c>
       <c r="D2272" t="s">
         <v>2274</v>
@@ -40273,7 +40273,7 @@
         <v>64</v>
       </c>
       <c r="C2273">
-        <v>7200</v>
+        <v>7740</v>
       </c>
       <c r="D2273" t="s">
         <v>2275</v>
@@ -40287,7 +40287,7 @@
         <v>65</v>
       </c>
       <c r="C2274">
-        <v>7260</v>
+        <v>7780</v>
       </c>
       <c r="D2274" t="s">
         <v>2276</v>
@@ -40301,7 +40301,7 @@
         <v>66</v>
       </c>
       <c r="C2275">
-        <v>7350</v>
+        <v>7820</v>
       </c>
       <c r="D2275" t="s">
         <v>2277</v>
@@ -40315,7 +40315,7 @@
         <v>67</v>
       </c>
       <c r="C2276">
-        <v>7450</v>
+        <v>7870</v>
       </c>
       <c r="D2276" t="s">
         <v>2278</v>
@@ -40329,7 +40329,7 @@
         <v>68</v>
       </c>
       <c r="C2277">
-        <v>7580</v>
+        <v>7930</v>
       </c>
       <c r="D2277" t="s">
         <v>2279</v>
@@ -40343,7 +40343,7 @@
         <v>69</v>
       </c>
       <c r="C2278">
-        <v>7710</v>
+        <v>7980</v>
       </c>
       <c r="D2278" t="s">
         <v>2280</v>
@@ -40357,7 +40357,7 @@
         <v>70</v>
       </c>
       <c r="C2279">
-        <v>7840</v>
+        <v>8040</v>
       </c>
       <c r="D2279" t="s">
         <v>2281</v>
@@ -40371,7 +40371,7 @@
         <v>71</v>
       </c>
       <c r="C2280">
-        <v>7960</v>
+        <v>8110</v>
       </c>
       <c r="D2280" t="s">
         <v>2282</v>
@@ -40385,7 +40385,7 @@
         <v>72</v>
       </c>
       <c r="C2281">
-        <v>8070</v>
+        <v>8180</v>
       </c>
       <c r="D2281" t="s">
         <v>2283</v>
@@ -40399,7 +40399,7 @@
         <v>73</v>
       </c>
       <c r="C2282">
-        <v>8160</v>
+        <v>8260</v>
       </c>
       <c r="D2282" t="s">
         <v>2284</v>
@@ -40413,7 +40413,7 @@
         <v>74</v>
       </c>
       <c r="C2283">
-        <v>8240</v>
+        <v>8310</v>
       </c>
       <c r="D2283" t="s">
         <v>2285</v>
@@ -40427,7 +40427,7 @@
         <v>75</v>
       </c>
       <c r="C2284">
-        <v>8300</v>
+        <v>8340</v>
       </c>
       <c r="D2284" t="s">
         <v>2286</v>
@@ -40441,7 +40441,7 @@
         <v>76</v>
       </c>
       <c r="C2285">
-        <v>8350</v>
+        <v>8360</v>
       </c>
       <c r="D2285" t="s">
         <v>2287</v>
@@ -40455,7 +40455,7 @@
         <v>77</v>
       </c>
       <c r="C2286">
-        <v>8390</v>
+        <v>8360</v>
       </c>
       <c r="D2286" t="s">
         <v>2288</v>
@@ -40469,7 +40469,7 @@
         <v>78</v>
       </c>
       <c r="C2287">
-        <v>8400</v>
+        <v>8350</v>
       </c>
       <c r="D2287" t="s">
         <v>2289</v>
@@ -40483,7 +40483,7 @@
         <v>79</v>
       </c>
       <c r="C2288">
-        <v>8400</v>
+        <v>8330</v>
       </c>
       <c r="D2288" t="s">
         <v>2290</v>
@@ -40497,7 +40497,7 @@
         <v>80</v>
       </c>
       <c r="C2289">
-        <v>8380</v>
+        <v>8290</v>
       </c>
       <c r="D2289" t="s">
         <v>2291</v>
@@ -40511,7 +40511,7 @@
         <v>81</v>
       </c>
       <c r="C2290">
-        <v>8330</v>
+        <v>8220</v>
       </c>
       <c r="D2290" t="s">
         <v>2292</v>
@@ -40525,7 +40525,7 @@
         <v>82</v>
       </c>
       <c r="C2291">
-        <v>8290</v>
+        <v>8150</v>
       </c>
       <c r="D2291" t="s">
         <v>2293</v>
@@ -40539,7 +40539,7 @@
         <v>83</v>
       </c>
       <c r="C2292">
-        <v>8210</v>
+        <v>8080</v>
       </c>
       <c r="D2292" t="s">
         <v>2294</v>
@@ -40553,7 +40553,7 @@
         <v>84</v>
       </c>
       <c r="C2293">
-        <v>8130</v>
+        <v>8010</v>
       </c>
       <c r="D2293" t="s">
         <v>2295</v>
@@ -40567,7 +40567,7 @@
         <v>85</v>
       </c>
       <c r="C2294">
-        <v>8010</v>
+        <v>7900</v>
       </c>
       <c r="D2294" t="s">
         <v>2296</v>
@@ -40581,7 +40581,7 @@
         <v>86</v>
       </c>
       <c r="C2295">
-        <v>7850</v>
+        <v>7750</v>
       </c>
       <c r="D2295" t="s">
         <v>2297</v>
@@ -40595,7 +40595,7 @@
         <v>87</v>
       </c>
       <c r="C2296">
-        <v>7750</v>
+        <v>7650</v>
       </c>
       <c r="D2296" t="s">
         <v>2298</v>
@@ -40609,7 +40609,7 @@
         <v>88</v>
       </c>
       <c r="C2297">
-        <v>7640</v>
+        <v>7510</v>
       </c>
       <c r="D2297" t="s">
         <v>2299</v>
@@ -40623,7 +40623,7 @@
         <v>89</v>
       </c>
       <c r="C2298">
-        <v>7480</v>
+        <v>7320</v>
       </c>
       <c r="D2298" t="s">
         <v>2300</v>
@@ -40637,7 +40637,7 @@
         <v>90</v>
       </c>
       <c r="C2299">
-        <v>7370</v>
+        <v>7170</v>
       </c>
       <c r="D2299" t="s">
         <v>2301</v>
@@ -40651,7 +40651,7 @@
         <v>91</v>
       </c>
       <c r="C2300">
-        <v>7200</v>
+        <v>7000</v>
       </c>
       <c r="D2300" t="s">
         <v>2302</v>
@@ -40665,7 +40665,7 @@
         <v>92</v>
       </c>
       <c r="C2301">
-        <v>7040</v>
+        <v>6860</v>
       </c>
       <c r="D2301" t="s">
         <v>2303</v>
@@ -40679,7 +40679,7 @@
         <v>93</v>
       </c>
       <c r="C2302">
-        <v>6850</v>
+        <v>6750</v>
       </c>
       <c r="D2302" t="s">
         <v>2304</v>
@@ -40693,7 +40693,7 @@
         <v>94</v>
       </c>
       <c r="C2303">
-        <v>6660</v>
+        <v>6620</v>
       </c>
       <c r="D2303" t="s">
         <v>2305</v>
@@ -40707,7 +40707,7 @@
         <v>95</v>
       </c>
       <c r="C2304">
-        <v>6580</v>
+        <v>6500</v>
       </c>
       <c r="D2304" t="s">
         <v>2306</v>
@@ -40721,7 +40721,7 @@
         <v>96</v>
       </c>
       <c r="C2305">
-        <v>6470</v>
+        <v>6390</v>
       </c>
       <c r="D2305" t="s">
         <v>2307</v>
@@ -40735,7 +40735,7 @@
         <v>1</v>
       </c>
       <c r="C2306">
-        <v>6340</v>
+        <v>6220</v>
       </c>
       <c r="D2306" t="s">
         <v>2308</v>
@@ -40749,7 +40749,7 @@
         <v>2</v>
       </c>
       <c r="C2307">
-        <v>6290</v>
+        <v>6170</v>
       </c>
       <c r="D2307" t="s">
         <v>2309</v>
@@ -40763,7 +40763,7 @@
         <v>3</v>
       </c>
       <c r="C2308">
-        <v>6240</v>
+        <v>6130</v>
       </c>
       <c r="D2308" t="s">
         <v>2310</v>
@@ -40777,7 +40777,7 @@
         <v>4</v>
       </c>
       <c r="C2309">
-        <v>6180</v>
+        <v>6100</v>
       </c>
       <c r="D2309" t="s">
         <v>2311</v>
@@ -40791,7 +40791,7 @@
         <v>5</v>
       </c>
       <c r="C2310">
-        <v>6120</v>
+        <v>6050</v>
       </c>
       <c r="D2310" t="s">
         <v>2312</v>
@@ -40805,7 +40805,7 @@
         <v>6</v>
       </c>
       <c r="C2311">
-        <v>6080</v>
+        <v>6020</v>
       </c>
       <c r="D2311" t="s">
         <v>2313</v>
@@ -40819,7 +40819,7 @@
         <v>7</v>
       </c>
       <c r="C2312">
-        <v>6050</v>
+        <v>6010</v>
       </c>
       <c r="D2312" t="s">
         <v>2314</v>
@@ -40833,7 +40833,7 @@
         <v>8</v>
       </c>
       <c r="C2313">
-        <v>6020</v>
+        <v>6000</v>
       </c>
       <c r="D2313" t="s">
         <v>2315</v>
@@ -40847,7 +40847,7 @@
         <v>9</v>
       </c>
       <c r="C2314">
-        <v>6010</v>
+        <v>5960</v>
       </c>
       <c r="D2314" t="s">
         <v>2316</v>
@@ -40861,7 +40861,7 @@
         <v>10</v>
       </c>
       <c r="C2315">
-        <v>5990</v>
+        <v>5950</v>
       </c>
       <c r="D2315" t="s">
         <v>2317</v>
@@ -40875,7 +40875,7 @@
         <v>11</v>
       </c>
       <c r="C2316">
-        <v>5990</v>
+        <v>5950</v>
       </c>
       <c r="D2316" t="s">
         <v>2318</v>
@@ -40889,7 +40889,7 @@
         <v>12</v>
       </c>
       <c r="C2317">
-        <v>5980</v>
+        <v>5940</v>
       </c>
       <c r="D2317" t="s">
         <v>2319</v>
@@ -40903,7 +40903,7 @@
         <v>13</v>
       </c>
       <c r="C2318">
-        <v>5980</v>
+        <v>5940</v>
       </c>
       <c r="D2318" t="s">
         <v>2320</v>
@@ -40917,7 +40917,7 @@
         <v>14</v>
       </c>
       <c r="C2319">
-        <v>5990</v>
+        <v>5940</v>
       </c>
       <c r="D2319" t="s">
         <v>2321</v>
@@ -40931,7 +40931,7 @@
         <v>15</v>
       </c>
       <c r="C2320">
-        <v>5990</v>
+        <v>5940</v>
       </c>
       <c r="D2320" t="s">
         <v>2322</v>
@@ -40945,7 +40945,7 @@
         <v>16</v>
       </c>
       <c r="C2321">
-        <v>6000</v>
+        <v>5960</v>
       </c>
       <c r="D2321" t="s">
         <v>2323</v>
@@ -40959,7 +40959,7 @@
         <v>17</v>
       </c>
       <c r="C2322">
-        <v>6010</v>
+        <v>5980</v>
       </c>
       <c r="D2322" t="s">
         <v>2324</v>
@@ -40973,7 +40973,7 @@
         <v>18</v>
       </c>
       <c r="C2323">
-        <v>6040</v>
+        <v>6000</v>
       </c>
       <c r="D2323" t="s">
         <v>2325</v>
@@ -40987,7 +40987,7 @@
         <v>19</v>
       </c>
       <c r="C2324">
-        <v>6080</v>
+        <v>6030</v>
       </c>
       <c r="D2324" t="s">
         <v>2326</v>
@@ -41001,7 +41001,7 @@
         <v>20</v>
       </c>
       <c r="C2325">
-        <v>6130</v>
+        <v>6070</v>
       </c>
       <c r="D2325" t="s">
         <v>2327</v>
@@ -41015,7 +41015,7 @@
         <v>21</v>
       </c>
       <c r="C2326">
-        <v>6200</v>
+        <v>6120</v>
       </c>
       <c r="D2326" t="s">
         <v>2328</v>
@@ -41029,7 +41029,7 @@
         <v>22</v>
       </c>
       <c r="C2327">
-        <v>6290</v>
+        <v>6200</v>
       </c>
       <c r="D2327" t="s">
         <v>2329</v>
@@ -41043,7 +41043,7 @@
         <v>23</v>
       </c>
       <c r="C2328">
-        <v>6390</v>
+        <v>6310</v>
       </c>
       <c r="D2328" t="s">
         <v>2330</v>
@@ -41057,7 +41057,7 @@
         <v>24</v>
       </c>
       <c r="C2329">
-        <v>6520</v>
+        <v>6450</v>
       </c>
       <c r="D2329" t="s">
         <v>2331</v>
@@ -41071,7 +41071,7 @@
         <v>25</v>
       </c>
       <c r="C2330">
-        <v>6660</v>
+        <v>6610</v>
       </c>
       <c r="D2330" t="s">
         <v>2332</v>
@@ -41085,7 +41085,7 @@
         <v>26</v>
       </c>
       <c r="C2331">
-        <v>6810</v>
+        <v>6770</v>
       </c>
       <c r="D2331" t="s">
         <v>2333</v>
@@ -41099,7 +41099,7 @@
         <v>27</v>
       </c>
       <c r="C2332">
-        <v>6970</v>
+        <v>6940</v>
       </c>
       <c r="D2332" t="s">
         <v>2334</v>
@@ -41113,7 +41113,7 @@
         <v>28</v>
       </c>
       <c r="C2333">
-        <v>7140</v>
+        <v>7120</v>
       </c>
       <c r="D2333" t="s">
         <v>2335</v>
@@ -41127,7 +41127,7 @@
         <v>29</v>
       </c>
       <c r="C2334">
-        <v>7310</v>
+        <v>7350</v>
       </c>
       <c r="D2334" t="s">
         <v>2336</v>
@@ -41141,7 +41141,7 @@
         <v>30</v>
       </c>
       <c r="C2335">
-        <v>7480</v>
+        <v>7510</v>
       </c>
       <c r="D2335" t="s">
         <v>2337</v>
@@ -41155,7 +41155,7 @@
         <v>31</v>
       </c>
       <c r="C2336">
-        <v>7630</v>
+        <v>7650</v>
       </c>
       <c r="D2336" t="s">
         <v>2338</v>
@@ -41169,7 +41169,7 @@
         <v>32</v>
       </c>
       <c r="C2337">
-        <v>7770</v>
+        <v>7760</v>
       </c>
       <c r="D2337" t="s">
         <v>2339</v>
@@ -41183,7 +41183,7 @@
         <v>33</v>
       </c>
       <c r="C2338">
-        <v>7880</v>
+        <v>7850</v>
       </c>
       <c r="D2338" t="s">
         <v>2340</v>
@@ -41197,7 +41197,7 @@
         <v>34</v>
       </c>
       <c r="C2339">
-        <v>7970</v>
+        <v>7910</v>
       </c>
       <c r="D2339" t="s">
         <v>2341</v>
@@ -41211,7 +41211,7 @@
         <v>35</v>
       </c>
       <c r="C2340">
-        <v>8030</v>
+        <v>7950</v>
       </c>
       <c r="D2340" t="s">
         <v>2342</v>
@@ -41225,7 +41225,7 @@
         <v>36</v>
       </c>
       <c r="C2341">
-        <v>8060</v>
+        <v>7970</v>
       </c>
       <c r="D2341" t="s">
         <v>2343</v>
@@ -41239,7 +41239,7 @@
         <v>37</v>
       </c>
       <c r="C2342">
-        <v>8060</v>
+        <v>7940</v>
       </c>
       <c r="D2342" t="s">
         <v>2344</v>
@@ -41253,7 +41253,7 @@
         <v>38</v>
       </c>
       <c r="C2343">
-        <v>8030</v>
+        <v>7900</v>
       </c>
       <c r="D2343" t="s">
         <v>2345</v>
@@ -41267,7 +41267,7 @@
         <v>39</v>
       </c>
       <c r="C2344">
-        <v>7970</v>
+        <v>7840</v>
       </c>
       <c r="D2344" t="s">
         <v>2346</v>
@@ -41281,7 +41281,7 @@
         <v>40</v>
       </c>
       <c r="C2345">
-        <v>7900</v>
+        <v>7770</v>
       </c>
       <c r="D2345" t="s">
         <v>2347</v>
@@ -41295,7 +41295,7 @@
         <v>41</v>
       </c>
       <c r="C2346">
-        <v>7820</v>
+        <v>7700</v>
       </c>
       <c r="D2346" t="s">
         <v>2348</v>
@@ -41309,7 +41309,7 @@
         <v>42</v>
       </c>
       <c r="C2347">
-        <v>7740</v>
+        <v>7620</v>
       </c>
       <c r="D2347" t="s">
         <v>2349</v>
@@ -41323,7 +41323,7 @@
         <v>43</v>
       </c>
       <c r="C2348">
-        <v>7660</v>
+        <v>7570</v>
       </c>
       <c r="D2348" t="s">
         <v>2350</v>
@@ -41337,7 +41337,7 @@
         <v>44</v>
       </c>
       <c r="C2349">
-        <v>7590</v>
+        <v>7480</v>
       </c>
       <c r="D2349" t="s">
         <v>2351</v>
@@ -41351,7 +41351,7 @@
         <v>45</v>
       </c>
       <c r="C2350">
-        <v>7530</v>
+        <v>7360</v>
       </c>
       <c r="D2350" t="s">
         <v>2352</v>
@@ -41365,7 +41365,7 @@
         <v>46</v>
       </c>
       <c r="C2351">
-        <v>7480</v>
+        <v>7290</v>
       </c>
       <c r="D2351" t="s">
         <v>2353</v>
@@ -41379,7 +41379,7 @@
         <v>47</v>
       </c>
       <c r="C2352">
-        <v>7440</v>
+        <v>7240</v>
       </c>
       <c r="D2352" t="s">
         <v>2354</v>
@@ -41393,7 +41393,7 @@
         <v>48</v>
       </c>
       <c r="C2353">
-        <v>7410</v>
+        <v>7200</v>
       </c>
       <c r="D2353" t="s">
         <v>2355</v>
@@ -41407,7 +41407,7 @@
         <v>49</v>
       </c>
       <c r="C2354">
-        <v>7390</v>
+        <v>7170</v>
       </c>
       <c r="D2354" t="s">
         <v>2356</v>
@@ -41421,7 +41421,7 @@
         <v>50</v>
       </c>
       <c r="C2355">
-        <v>7380</v>
+        <v>7160</v>
       </c>
       <c r="D2355" t="s">
         <v>2357</v>
@@ -41435,7 +41435,7 @@
         <v>51</v>
       </c>
       <c r="C2356">
-        <v>7370</v>
+        <v>7160</v>
       </c>
       <c r="D2356" t="s">
         <v>2358</v>
@@ -41449,7 +41449,7 @@
         <v>52</v>
       </c>
       <c r="C2357">
-        <v>7360</v>
+        <v>7170</v>
       </c>
       <c r="D2357" t="s">
         <v>2359</v>
@@ -41463,7 +41463,7 @@
         <v>53</v>
       </c>
       <c r="C2358">
-        <v>7350</v>
+        <v>7210</v>
       </c>
       <c r="D2358" t="s">
         <v>2360</v>
@@ -41477,7 +41477,7 @@
         <v>54</v>
       </c>
       <c r="C2359">
-        <v>7340</v>
+        <v>7220</v>
       </c>
       <c r="D2359" t="s">
         <v>2361</v>
@@ -41491,7 +41491,7 @@
         <v>55</v>
       </c>
       <c r="C2360">
-        <v>7330</v>
+        <v>7220</v>
       </c>
       <c r="D2360" t="s">
         <v>2362</v>
@@ -41505,7 +41505,7 @@
         <v>56</v>
       </c>
       <c r="C2361">
-        <v>7330</v>
+        <v>7220</v>
       </c>
       <c r="D2361" t="s">
         <v>2363</v>
@@ -41519,7 +41519,7 @@
         <v>57</v>
       </c>
       <c r="C2362">
-        <v>7320</v>
+        <v>7200</v>
       </c>
       <c r="D2362" t="s">
         <v>2364</v>
@@ -41533,7 +41533,7 @@
         <v>58</v>
       </c>
       <c r="C2363">
-        <v>7320</v>
+        <v>7200</v>
       </c>
       <c r="D2363" t="s">
         <v>2365</v>
@@ -41547,7 +41547,7 @@
         <v>59</v>
       </c>
       <c r="C2364">
-        <v>7310</v>
+        <v>7200</v>
       </c>
       <c r="D2364" t="s">
         <v>2366</v>
@@ -41561,7 +41561,7 @@
         <v>60</v>
       </c>
       <c r="C2365">
-        <v>7310</v>
+        <v>7200</v>
       </c>
       <c r="D2365" t="s">
         <v>2367</v>
@@ -41575,7 +41575,7 @@
         <v>61</v>
       </c>
       <c r="C2366">
-        <v>7310</v>
+        <v>7210</v>
       </c>
       <c r="D2366" t="s">
         <v>2368</v>
@@ -41589,7 +41589,7 @@
         <v>62</v>
       </c>
       <c r="C2367">
-        <v>7310</v>
+        <v>7230</v>
       </c>
       <c r="D2367" t="s">
         <v>2369</v>
@@ -41603,7 +41603,7 @@
         <v>63</v>
       </c>
       <c r="C2368">
-        <v>7330</v>
+        <v>7260</v>
       </c>
       <c r="D2368" t="s">
         <v>2370</v>
@@ -41617,7 +41617,7 @@
         <v>64</v>
       </c>
       <c r="C2369">
-        <v>7350</v>
+        <v>7310</v>
       </c>
       <c r="D2369" t="s">
         <v>2371</v>
@@ -41631,7 +41631,7 @@
         <v>65</v>
       </c>
       <c r="C2370">
-        <v>7400</v>
+        <v>7390</v>
       </c>
       <c r="D2370" t="s">
         <v>2372</v>
@@ -41645,7 +41645,7 @@
         <v>66</v>
       </c>
       <c r="C2371">
-        <v>7460</v>
+        <v>7480</v>
       </c>
       <c r="D2371" t="s">
         <v>2373</v>
@@ -41659,7 +41659,7 @@
         <v>67</v>
       </c>
       <c r="C2372">
-        <v>7540</v>
+        <v>7570</v>
       </c>
       <c r="D2372" t="s">
         <v>2374</v>
@@ -41673,7 +41673,7 @@
         <v>68</v>
       </c>
       <c r="C2373">
-        <v>7640</v>
+        <v>7670</v>
       </c>
       <c r="D2373" t="s">
         <v>2375</v>
@@ -41687,7 +41687,7 @@
         <v>69</v>
       </c>
       <c r="C2374">
-        <v>7740</v>
+        <v>7770</v>
       </c>
       <c r="D2374" t="s">
         <v>2376</v>
@@ -41701,7 +41701,7 @@
         <v>70</v>
       </c>
       <c r="C2375">
-        <v>7840</v>
+        <v>7880</v>
       </c>
       <c r="D2375" t="s">
         <v>2377</v>
@@ -41715,7 +41715,7 @@
         <v>71</v>
       </c>
       <c r="C2376">
-        <v>7940</v>
+        <v>7980</v>
       </c>
       <c r="D2376" t="s">
         <v>2378</v>
@@ -41729,7 +41729,7 @@
         <v>72</v>
       </c>
       <c r="C2377">
-        <v>8020</v>
+        <v>8070</v>
       </c>
       <c r="D2377" t="s">
         <v>2379</v>
@@ -41743,7 +41743,7 @@
         <v>73</v>
       </c>
       <c r="C2378">
-        <v>8090</v>
+        <v>8200</v>
       </c>
       <c r="D2378" t="s">
         <v>2380</v>
@@ -41757,7 +41757,7 @@
         <v>74</v>
       </c>
       <c r="C2379">
-        <v>8150</v>
+        <v>8300</v>
       </c>
       <c r="D2379" t="s">
         <v>2381</v>
@@ -41771,7 +41771,7 @@
         <v>75</v>
       </c>
       <c r="C2380">
-        <v>8200</v>
+        <v>8340</v>
       </c>
       <c r="D2380" t="s">
         <v>2382</v>
@@ -41785,7 +41785,7 @@
         <v>76</v>
       </c>
       <c r="C2381">
-        <v>8250</v>
+        <v>8360</v>
       </c>
       <c r="D2381" t="s">
         <v>2383</v>
@@ -41799,7 +41799,7 @@
         <v>77</v>
       </c>
       <c r="C2382">
-        <v>8290</v>
+        <v>8360</v>
       </c>
       <c r="D2382" t="s">
         <v>2384</v>
@@ -41813,7 +41813,7 @@
         <v>78</v>
       </c>
       <c r="C2383">
-        <v>8310</v>
+        <v>8350</v>
       </c>
       <c r="D2383" t="s">
         <v>2385</v>
@@ -41827,7 +41827,7 @@
         <v>79</v>
       </c>
       <c r="C2384">
-        <v>8310</v>
+        <v>8330</v>
       </c>
       <c r="D2384" t="s">
         <v>2386</v>
@@ -41855,7 +41855,7 @@
         <v>81</v>
       </c>
       <c r="C2386">
-        <v>8250</v>
+        <v>8240</v>
       </c>
       <c r="D2386" t="s">
         <v>2388</v>
@@ -41869,7 +41869,7 @@
         <v>82</v>
       </c>
       <c r="C2387">
-        <v>8200</v>
+        <v>8190</v>
       </c>
       <c r="D2387" t="s">
         <v>2389</v>
@@ -41883,7 +41883,7 @@
         <v>83</v>
       </c>
       <c r="C2388">
-        <v>8130</v>
+        <v>8120</v>
       </c>
       <c r="D2388" t="s">
         <v>2390</v>
@@ -41897,7 +41897,7 @@
         <v>84</v>
       </c>
       <c r="C2389">
-        <v>8050</v>
+        <v>8040</v>
       </c>
       <c r="D2389" t="s">
         <v>2391</v>
@@ -41925,7 +41925,7 @@
         <v>86</v>
       </c>
       <c r="C2391">
-        <v>7770</v>
+        <v>7790</v>
       </c>
       <c r="D2391" t="s">
         <v>2393</v>
@@ -41939,7 +41939,7 @@
         <v>87</v>
       </c>
       <c r="C2392">
-        <v>7670</v>
+        <v>7650</v>
       </c>
       <c r="D2392" t="s">
         <v>2394</v>
@@ -41953,7 +41953,7 @@
         <v>88</v>
       </c>
       <c r="C2393">
-        <v>7560</v>
+        <v>7510</v>
       </c>
       <c r="D2393" t="s">
         <v>2395</v>
@@ -41967,7 +41967,7 @@
         <v>89</v>
       </c>
       <c r="C2394">
-        <v>7400</v>
+        <v>7320</v>
       </c>
       <c r="D2394" t="s">
         <v>2396</v>
@@ -41981,7 +41981,7 @@
         <v>90</v>
       </c>
       <c r="C2395">
-        <v>7290</v>
+        <v>7160</v>
       </c>
       <c r="D2395" t="s">
         <v>2397</v>
@@ -41995,7 +41995,7 @@
         <v>91</v>
       </c>
       <c r="C2396">
-        <v>7120</v>
+        <v>6990</v>
       </c>
       <c r="D2396" t="s">
         <v>2398</v>
@@ -42009,7 +42009,7 @@
         <v>92</v>
       </c>
       <c r="C2397">
-        <v>6960</v>
+        <v>6850</v>
       </c>
       <c r="D2397" t="s">
         <v>2399</v>
@@ -42023,7 +42023,7 @@
         <v>93</v>
       </c>
       <c r="C2398">
-        <v>6770</v>
+        <v>6740</v>
       </c>
       <c r="D2398" t="s">
         <v>2400</v>
@@ -42037,7 +42037,7 @@
         <v>94</v>
       </c>
       <c r="C2399">
-        <v>6580</v>
+        <v>6590</v>
       </c>
       <c r="D2399" t="s">
         <v>2401</v>
@@ -42051,7 +42051,7 @@
         <v>95</v>
       </c>
       <c r="C2400">
-        <v>6500</v>
+        <v>6480</v>
       </c>
       <c r="D2400" t="s">
         <v>2402</v>
@@ -42065,7 +42065,7 @@
         <v>96</v>
       </c>
       <c r="C2401">
-        <v>6390</v>
+        <v>6370</v>
       </c>
       <c r="D2401" t="s">
         <v>2403</v>
@@ -42093,7 +42093,7 @@
         <v>2</v>
       </c>
       <c r="C2403">
-        <v>6220</v>
+        <v>6230</v>
       </c>
       <c r="D2403" t="s">
         <v>2405</v>
@@ -42107,7 +42107,7 @@
         <v>3</v>
       </c>
       <c r="C2404">
-        <v>6160</v>
+        <v>6180</v>
       </c>
       <c r="D2404" t="s">
         <v>2406</v>
@@ -42121,7 +42121,7 @@
         <v>4</v>
       </c>
       <c r="C2405">
-        <v>6110</v>
+        <v>6130</v>
       </c>
       <c r="D2405" t="s">
         <v>2407</v>
@@ -42135,7 +42135,7 @@
         <v>5</v>
       </c>
       <c r="C2406">
-        <v>6070</v>
+        <v>6090</v>
       </c>
       <c r="D2406" t="s">
         <v>2408</v>
@@ -42149,7 +42149,7 @@
         <v>6</v>
       </c>
       <c r="C2407">
-        <v>6030</v>
+        <v>6060</v>
       </c>
       <c r="D2407" t="s">
         <v>2409</v>
@@ -42163,7 +42163,7 @@
         <v>7</v>
       </c>
       <c r="C2408">
-        <v>6000</v>
+        <v>6030</v>
       </c>
       <c r="D2408" t="s">
         <v>2410</v>
@@ -42177,7 +42177,7 @@
         <v>8</v>
       </c>
       <c r="C2409">
-        <v>5980</v>
+        <v>6000</v>
       </c>
       <c r="D2409" t="s">
         <v>2411</v>
@@ -42191,7 +42191,7 @@
         <v>9</v>
       </c>
       <c r="C2410">
-        <v>5950</v>
+        <v>5980</v>
       </c>
       <c r="D2410" t="s">
         <v>2412</v>
@@ -42205,7 +42205,7 @@
         <v>10</v>
       </c>
       <c r="C2411">
-        <v>5940</v>
+        <v>5960</v>
       </c>
       <c r="D2411" t="s">
         <v>2413</v>
@@ -42219,7 +42219,7 @@
         <v>11</v>
       </c>
       <c r="C2412">
-        <v>5930</v>
+        <v>5950</v>
       </c>
       <c r="D2412" t="s">
         <v>2414</v>
@@ -42233,7 +42233,7 @@
         <v>12</v>
       </c>
       <c r="C2413">
-        <v>5920</v>
+        <v>5950</v>
       </c>
       <c r="D2413" t="s">
         <v>2415</v>
@@ -42247,7 +42247,7 @@
         <v>13</v>
       </c>
       <c r="C2414">
-        <v>5920</v>
+        <v>5950</v>
       </c>
       <c r="D2414" t="s">
         <v>2416</v>
@@ -42261,7 +42261,7 @@
         <v>14</v>
       </c>
       <c r="C2415">
-        <v>5920</v>
+        <v>5960</v>
       </c>
       <c r="D2415" t="s">
         <v>2417</v>
@@ -42275,7 +42275,7 @@
         <v>15</v>
       </c>
       <c r="C2416">
-        <v>5930</v>
+        <v>5970</v>
       </c>
       <c r="D2416" t="s">
         <v>2418</v>
@@ -42289,7 +42289,7 @@
         <v>16</v>
       </c>
       <c r="C2417">
-        <v>5940</v>
+        <v>5990</v>
       </c>
       <c r="D2417" t="s">
         <v>2419</v>
@@ -42303,7 +42303,7 @@
         <v>17</v>
       </c>
       <c r="C2418">
-        <v>5950</v>
+        <v>6010</v>
       </c>
       <c r="D2418" t="s">
         <v>2420</v>
@@ -42317,7 +42317,7 @@
         <v>18</v>
       </c>
       <c r="C2419">
-        <v>5980</v>
+        <v>6040</v>
       </c>
       <c r="D2419" t="s">
         <v>2421</v>
@@ -42331,7 +42331,7 @@
         <v>19</v>
       </c>
       <c r="C2420">
-        <v>6010</v>
+        <v>6070</v>
       </c>
       <c r="D2420" t="s">
         <v>2422</v>
@@ -42345,7 +42345,7 @@
         <v>20</v>
       </c>
       <c r="C2421">
-        <v>6060</v>
+        <v>6110</v>
       </c>
       <c r="D2421" t="s">
         <v>2423</v>
@@ -42359,7 +42359,7 @@
         <v>21</v>
       </c>
       <c r="C2422">
-        <v>6110</v>
+        <v>6160</v>
       </c>
       <c r="D2422" t="s">
         <v>2424</v>
@@ -42373,7 +42373,7 @@
         <v>22</v>
       </c>
       <c r="C2423">
-        <v>6180</v>
+        <v>6240</v>
       </c>
       <c r="D2423" t="s">
         <v>2425</v>
@@ -42387,7 +42387,7 @@
         <v>23</v>
       </c>
       <c r="C2424">
-        <v>6280</v>
+        <v>6330</v>
       </c>
       <c r="D2424" t="s">
         <v>2426</v>
@@ -42401,7 +42401,7 @@
         <v>24</v>
       </c>
       <c r="C2425">
-        <v>6390</v>
+        <v>6450</v>
       </c>
       <c r="D2425" t="s">
         <v>2427</v>
@@ -42415,7 +42415,7 @@
         <v>25</v>
       </c>
       <c r="C2426">
-        <v>6520</v>
+        <v>6590</v>
       </c>
       <c r="D2426" t="s">
         <v>2428</v>
@@ -42429,7 +42429,7 @@
         <v>26</v>
       </c>
       <c r="C2427">
-        <v>6680</v>
+        <v>6760</v>
       </c>
       <c r="D2427" t="s">
         <v>2429</v>
@@ -42443,7 +42443,7 @@
         <v>27</v>
       </c>
       <c r="C2428">
-        <v>6870</v>
+        <v>6940</v>
       </c>
       <c r="D2428" t="s">
         <v>2430</v>
@@ -42457,7 +42457,7 @@
         <v>28</v>
       </c>
       <c r="C2429">
-        <v>7090</v>
+        <v>7140</v>
       </c>
       <c r="D2429" t="s">
         <v>2431</v>
@@ -42471,7 +42471,7 @@
         <v>29</v>
       </c>
       <c r="C2430">
-        <v>7340</v>
+        <v>7330</v>
       </c>
       <c r="D2430" t="s">
         <v>2432</v>
@@ -42485,7 +42485,7 @@
         <v>30</v>
       </c>
       <c r="C2431">
-        <v>7530</v>
+        <v>7520</v>
       </c>
       <c r="D2431" t="s">
         <v>2433</v>
@@ -42499,7 +42499,7 @@
         <v>31</v>
       </c>
       <c r="C2432">
-        <v>7670</v>
+        <v>7700</v>
       </c>
       <c r="D2432" t="s">
         <v>2434</v>
@@ -42513,7 +42513,7 @@
         <v>32</v>
       </c>
       <c r="C2433">
-        <v>7740</v>
+        <v>7850</v>
       </c>
       <c r="D2433" t="s">
         <v>2435</v>
@@ -42527,7 +42527,7 @@
         <v>33</v>
       </c>
       <c r="C2434">
-        <v>7760</v>
+        <v>7970</v>
       </c>
       <c r="D2434" t="s">
         <v>2436</v>
@@ -42541,7 +42541,7 @@
         <v>34</v>
       </c>
       <c r="C2435">
-        <v>7750</v>
+        <v>8060</v>
       </c>
       <c r="D2435" t="s">
         <v>2437</v>
@@ -42555,7 +42555,7 @@
         <v>35</v>
       </c>
       <c r="C2436">
-        <v>7730</v>
+        <v>8100</v>
       </c>
       <c r="D2436" t="s">
         <v>2438</v>
@@ -42569,7 +42569,7 @@
         <v>36</v>
       </c>
       <c r="C2437">
-        <v>7690</v>
+        <v>8100</v>
       </c>
       <c r="D2437" t="s">
         <v>2439</v>
@@ -42583,7 +42583,7 @@
         <v>37</v>
       </c>
       <c r="C2438">
-        <v>7640</v>
+        <v>8070</v>
       </c>
       <c r="D2438" t="s">
         <v>2440</v>
@@ -42597,7 +42597,7 @@
         <v>38</v>
       </c>
       <c r="C2439">
-        <v>7570</v>
+        <v>8000</v>
       </c>
       <c r="D2439" t="s">
         <v>2441</v>
@@ -42611,7 +42611,7 @@
         <v>39</v>
       </c>
       <c r="C2440">
-        <v>7480</v>
+        <v>7910</v>
       </c>
       <c r="D2440" t="s">
         <v>2442</v>
@@ -42625,7 +42625,7 @@
         <v>40</v>
       </c>
       <c r="C2441">
-        <v>7380</v>
+        <v>7790</v>
       </c>
       <c r="D2441" t="s">
         <v>2443</v>
@@ -42639,7 +42639,7 @@
         <v>41</v>
       </c>
       <c r="C2442">
-        <v>7270</v>
+        <v>7660</v>
       </c>
       <c r="D2442" t="s">
         <v>2444</v>
@@ -42653,7 +42653,7 @@
         <v>42</v>
       </c>
       <c r="C2443">
-        <v>7160</v>
+        <v>7520</v>
       </c>
       <c r="D2443" t="s">
         <v>2445</v>
@@ -42667,7 +42667,7 @@
         <v>43</v>
       </c>
       <c r="C2444">
-        <v>7040</v>
+        <v>7390</v>
       </c>
       <c r="D2444" t="s">
         <v>2446</v>
@@ -42681,7 +42681,7 @@
         <v>44</v>
       </c>
       <c r="C2445">
-        <v>6920</v>
+        <v>7270</v>
       </c>
       <c r="D2445" t="s">
         <v>2447</v>
@@ -42695,7 +42695,7 @@
         <v>45</v>
       </c>
       <c r="C2446">
-        <v>6800</v>
+        <v>7160</v>
       </c>
       <c r="D2446" t="s">
         <v>2448</v>
@@ -42709,7 +42709,7 @@
         <v>46</v>
       </c>
       <c r="C2447">
-        <v>6700</v>
+        <v>7060</v>
       </c>
       <c r="D2447" t="s">
         <v>2449</v>
@@ -42723,7 +42723,7 @@
         <v>47</v>
       </c>
       <c r="C2448">
-        <v>6630</v>
+        <v>6990</v>
       </c>
       <c r="D2448" t="s">
         <v>2450</v>
@@ -42737,7 +42737,7 @@
         <v>48</v>
       </c>
       <c r="C2449">
-        <v>6570</v>
+        <v>6920</v>
       </c>
       <c r="D2449" t="s">
         <v>2451</v>
@@ -42751,7 +42751,7 @@
         <v>49</v>
       </c>
       <c r="C2450">
-        <v>6540</v>
+        <v>6880</v>
       </c>
       <c r="D2450" t="s">
         <v>2452</v>
@@ -42765,7 +42765,7 @@
         <v>50</v>
       </c>
       <c r="C2451">
-        <v>6520</v>
+        <v>6840</v>
       </c>
       <c r="D2451" t="s">
         <v>2453</v>
@@ -42779,7 +42779,7 @@
         <v>51</v>
       </c>
       <c r="C2452">
-        <v>6500</v>
+        <v>6820</v>
       </c>
       <c r="D2452" t="s">
         <v>2454</v>
@@ -42793,7 +42793,7 @@
         <v>52</v>
       </c>
       <c r="C2453">
-        <v>6480</v>
+        <v>6800</v>
       </c>
       <c r="D2453" t="s">
         <v>2455</v>
@@ -42807,7 +42807,7 @@
         <v>53</v>
       </c>
       <c r="C2454">
-        <v>6480</v>
+        <v>6790</v>
       </c>
       <c r="D2454" t="s">
         <v>2456</v>
@@ -42821,7 +42821,7 @@
         <v>54</v>
       </c>
       <c r="C2455">
-        <v>6470</v>
+        <v>6780</v>
       </c>
       <c r="D2455" t="s">
         <v>2457</v>
@@ -42835,7 +42835,7 @@
         <v>55</v>
       </c>
       <c r="C2456">
-        <v>6470</v>
+        <v>6780</v>
       </c>
       <c r="D2456" t="s">
         <v>2458</v>
@@ -42849,7 +42849,7 @@
         <v>56</v>
       </c>
       <c r="C2457">
-        <v>6470</v>
+        <v>6790</v>
       </c>
       <c r="D2457" t="s">
         <v>2459</v>
@@ -42863,7 +42863,7 @@
         <v>57</v>
       </c>
       <c r="C2458">
-        <v>6480</v>
+        <v>6800</v>
       </c>
       <c r="D2458" t="s">
         <v>2460</v>
@@ -42877,7 +42877,7 @@
         <v>58</v>
       </c>
       <c r="C2459">
-        <v>6500</v>
+        <v>6820</v>
       </c>
       <c r="D2459" t="s">
         <v>2461</v>
@@ -42891,7 +42891,7 @@
         <v>59</v>
       </c>
       <c r="C2460">
-        <v>6540</v>
+        <v>6850</v>
       </c>
       <c r="D2460" t="s">
         <v>2462</v>
@@ -42905,7 +42905,7 @@
         <v>60</v>
       </c>
       <c r="C2461">
-        <v>6600</v>
+        <v>6880</v>
       </c>
       <c r="D2461" t="s">
         <v>2463</v>
@@ -42919,7 +42919,7 @@
         <v>61</v>
       </c>
       <c r="C2462">
-        <v>6670</v>
+        <v>6920</v>
       </c>
       <c r="D2462" t="s">
         <v>2464</v>
@@ -42933,7 +42933,7 @@
         <v>62</v>
       </c>
       <c r="C2463">
-        <v>6750</v>
+        <v>6980</v>
       </c>
       <c r="D2463" t="s">
         <v>2465</v>
@@ -42947,7 +42947,7 @@
         <v>63</v>
       </c>
       <c r="C2464">
-        <v>6840</v>
+        <v>7040</v>
       </c>
       <c r="D2464" t="s">
         <v>2466</v>
@@ -42961,7 +42961,7 @@
         <v>64</v>
       </c>
       <c r="C2465">
-        <v>6930</v>
+        <v>7120</v>
       </c>
       <c r="D2465" t="s">
         <v>2467</v>
@@ -42975,7 +42975,7 @@
         <v>65</v>
       </c>
       <c r="C2466">
-        <v>7030</v>
+        <v>7210</v>
       </c>
       <c r="D2466" t="s">
         <v>2468</v>
@@ -42989,7 +42989,7 @@
         <v>66</v>
       </c>
       <c r="C2467">
-        <v>7140</v>
+        <v>7300</v>
       </c>
       <c r="D2467" t="s">
         <v>2469</v>
@@ -43003,7 +43003,7 @@
         <v>67</v>
       </c>
       <c r="C2468">
-        <v>7240</v>
+        <v>7410</v>
       </c>
       <c r="D2468" t="s">
         <v>2470</v>
@@ -43017,7 +43017,7 @@
         <v>68</v>
       </c>
       <c r="C2469">
-        <v>7350</v>
+        <v>7530</v>
       </c>
       <c r="D2469" t="s">
         <v>2471</v>
@@ -43031,7 +43031,7 @@
         <v>69</v>
       </c>
       <c r="C2470">
-        <v>7460</v>
+        <v>7650</v>
       </c>
       <c r="D2470" t="s">
         <v>2472</v>
@@ -43045,7 +43045,7 @@
         <v>70</v>
       </c>
       <c r="C2471">
-        <v>7570</v>
+        <v>7770</v>
       </c>
       <c r="D2471" t="s">
         <v>2473</v>
@@ -43059,7 +43059,7 @@
         <v>71</v>
       </c>
       <c r="C2472">
-        <v>7690</v>
+        <v>7880</v>
       </c>
       <c r="D2472" t="s">
         <v>2474</v>
@@ -43073,7 +43073,7 @@
         <v>72</v>
       </c>
       <c r="C2473">
-        <v>7820</v>
+        <v>7990</v>
       </c>
       <c r="D2473" t="s">
         <v>2475</v>
@@ -43087,7 +43087,7 @@
         <v>73</v>
       </c>
       <c r="C2474">
-        <v>7950</v>
+        <v>8090</v>
       </c>
       <c r="D2474" t="s">
         <v>2476</v>
@@ -43101,7 +43101,7 @@
         <v>74</v>
       </c>
       <c r="C2475">
-        <v>8060</v>
+        <v>8180</v>
       </c>
       <c r="D2475" t="s">
         <v>2477</v>
@@ -43115,7 +43115,7 @@
         <v>75</v>
       </c>
       <c r="C2476">
-        <v>8140</v>
+        <v>8250</v>
       </c>
       <c r="D2476" t="s">
         <v>2478</v>
@@ -43129,7 +43129,7 @@
         <v>76</v>
       </c>
       <c r="C2477">
-        <v>8180</v>
+        <v>8310</v>
       </c>
       <c r="D2477" t="s">
         <v>2479</v>
@@ -43143,7 +43143,7 @@
         <v>77</v>
       </c>
       <c r="C2478">
-        <v>8200</v>
+        <v>8350</v>
       </c>
       <c r="D2478" t="s">
         <v>2480</v>
@@ -43157,7 +43157,7 @@
         <v>78</v>
       </c>
       <c r="C2479">
-        <v>8210</v>
+        <v>8350</v>
       </c>
       <c r="D2479" t="s">
         <v>2481</v>
@@ -43171,7 +43171,7 @@
         <v>79</v>
       </c>
       <c r="C2480">
-        <v>8200</v>
+        <v>8350</v>
       </c>
       <c r="D2480" t="s">
         <v>2482</v>
@@ -43185,7 +43185,7 @@
         <v>80</v>
       </c>
       <c r="C2481">
-        <v>8180</v>
+        <v>8320</v>
       </c>
       <c r="D2481" t="s">
         <v>2483</v>
@@ -43199,7 +43199,7 @@
         <v>81</v>
       </c>
       <c r="C2482">
-        <v>8140</v>
+        <v>8280</v>
       </c>
       <c r="D2482" t="s">
         <v>2484</v>
@@ -43213,7 +43213,7 @@
         <v>82</v>
       </c>
       <c r="C2483">
-        <v>8090</v>
+        <v>8230</v>
       </c>
       <c r="D2483" t="s">
         <v>2485</v>
@@ -43227,7 +43227,7 @@
         <v>83</v>
       </c>
       <c r="C2484">
-        <v>8020</v>
+        <v>8160</v>
       </c>
       <c r="D2484" t="s">
         <v>2486</v>
@@ -43241,7 +43241,7 @@
         <v>84</v>
       </c>
       <c r="C2485">
-        <v>7930</v>
+        <v>8090</v>
       </c>
       <c r="D2485" t="s">
         <v>2487</v>
@@ -43255,7 +43255,7 @@
         <v>85</v>
       </c>
       <c r="C2486">
-        <v>7830</v>
+        <v>7970</v>
       </c>
       <c r="D2486" t="s">
         <v>2488</v>
@@ -43269,7 +43269,7 @@
         <v>86</v>
       </c>
       <c r="C2487">
-        <v>7720</v>
+        <v>7810</v>
       </c>
       <c r="D2487" t="s">
         <v>2489</v>
@@ -43283,7 +43283,7 @@
         <v>87</v>
       </c>
       <c r="C2488">
-        <v>7580</v>
+        <v>7710</v>
       </c>
       <c r="D2488" t="s">
         <v>2490</v>
@@ -43297,7 +43297,7 @@
         <v>88</v>
       </c>
       <c r="C2489">
-        <v>7430</v>
+        <v>7590</v>
       </c>
       <c r="D2489" t="s">
         <v>2491</v>
@@ -43311,7 +43311,7 @@
         <v>89</v>
       </c>
       <c r="C2490">
-        <v>7270</v>
+        <v>7430</v>
       </c>
       <c r="D2490" t="s">
         <v>2492</v>
@@ -43325,7 +43325,7 @@
         <v>90</v>
       </c>
       <c r="C2491">
-        <v>7110</v>
+        <v>7290</v>
       </c>
       <c r="D2491" t="s">
         <v>2493</v>
@@ -43339,7 +43339,7 @@
         <v>91</v>
       </c>
       <c r="C2492">
-        <v>6960</v>
+        <v>7110</v>
       </c>
       <c r="D2492" t="s">
         <v>2494</v>
@@ -43353,7 +43353,7 @@
         <v>92</v>
       </c>
       <c r="C2493">
-        <v>6820</v>
+        <v>6970</v>
       </c>
       <c r="D2493" t="s">
         <v>2495</v>
@@ -43367,7 +43367,7 @@
         <v>93</v>
       </c>
       <c r="C2494">
-        <v>6690</v>
+        <v>6840</v>
       </c>
       <c r="D2494" t="s">
         <v>2496</v>
@@ -43381,7 +43381,7 @@
         <v>94</v>
       </c>
       <c r="C2495">
-        <v>6570</v>
+        <v>6660</v>
       </c>
       <c r="D2495" t="s">
         <v>2497</v>
@@ -43395,7 +43395,7 @@
         <v>95</v>
       </c>
       <c r="C2496">
-        <v>6460</v>
+        <v>6580</v>
       </c>
       <c r="D2496" t="s">
         <v>2498</v>
@@ -43409,7 +43409,7 @@
         <v>96</v>
       </c>
       <c r="C2497">
-        <v>6370</v>
+        <v>6470</v>
       </c>
       <c r="D2497" t="s">
         <v>2499</v>
@@ -43423,7 +43423,7 @@
         <v>1</v>
       </c>
       <c r="C2498">
-        <v>6220</v>
+        <v>6330</v>
       </c>
       <c r="D2498" t="s">
         <v>2500</v>
@@ -43437,7 +43437,7 @@
         <v>2</v>
       </c>
       <c r="C2499">
-        <v>6150</v>
+        <v>6280</v>
       </c>
       <c r="D2499" t="s">
         <v>2501</v>
@@ -43451,7 +43451,7 @@
         <v>3</v>
       </c>
       <c r="C2500">
-        <v>6090</v>
+        <v>6230</v>
       </c>
       <c r="D2500" t="s">
         <v>2502</v>
@@ -43465,7 +43465,7 @@
         <v>4</v>
       </c>
       <c r="C2501">
-        <v>6030</v>
+        <v>6180</v>
       </c>
       <c r="D2501" t="s">
         <v>2503</v>
@@ -43479,7 +43479,7 @@
         <v>5</v>
       </c>
       <c r="C2502">
-        <v>5990</v>
+        <v>6140</v>
       </c>
       <c r="D2502" t="s">
         <v>2504</v>
@@ -43493,7 +43493,7 @@
         <v>6</v>
       </c>
       <c r="C2503">
-        <v>5960</v>
+        <v>6110</v>
       </c>
       <c r="D2503" t="s">
         <v>2505</v>
@@ -43507,7 +43507,7 @@
         <v>7</v>
       </c>
       <c r="C2504">
-        <v>5920</v>
+        <v>6080</v>
       </c>
       <c r="D2504" t="s">
         <v>2506</v>
@@ -43521,7 +43521,7 @@
         <v>8</v>
       </c>
       <c r="C2505">
-        <v>5890</v>
+        <v>6050</v>
       </c>
       <c r="D2505" t="s">
         <v>2507</v>
@@ -43535,7 +43535,7 @@
         <v>9</v>
       </c>
       <c r="C2506">
-        <v>5870</v>
+        <v>6030</v>
       </c>
       <c r="D2506" t="s">
         <v>2508</v>
@@ -43549,7 +43549,7 @@
         <v>10</v>
       </c>
       <c r="C2507">
-        <v>5850</v>
+        <v>6010</v>
       </c>
       <c r="D2507" t="s">
         <v>2509</v>
@@ -43563,7 +43563,7 @@
         <v>11</v>
       </c>
       <c r="C2508">
-        <v>5840</v>
+        <v>6000</v>
       </c>
       <c r="D2508" t="s">
         <v>2510</v>
@@ -43577,7 +43577,7 @@
         <v>12</v>
       </c>
       <c r="C2509">
-        <v>5830</v>
+        <v>6000</v>
       </c>
       <c r="D2509" t="s">
         <v>2511</v>
@@ -43591,7 +43591,7 @@
         <v>13</v>
       </c>
       <c r="C2510">
-        <v>5830</v>
+        <v>6000</v>
       </c>
       <c r="D2510" t="s">
         <v>2512</v>
@@ -43605,7 +43605,7 @@
         <v>14</v>
       </c>
       <c r="C2511">
-        <v>5840</v>
+        <v>6010</v>
       </c>
       <c r="D2511" t="s">
         <v>2513</v>
@@ -43619,7 +43619,7 @@
         <v>15</v>
       </c>
       <c r="C2512">
-        <v>5850</v>
+        <v>6030</v>
       </c>
       <c r="D2512" t="s">
         <v>2514</v>
@@ -43633,7 +43633,7 @@
         <v>16</v>
       </c>
       <c r="C2513">
-        <v>5850</v>
+        <v>6040</v>
       </c>
       <c r="D2513" t="s">
         <v>2515</v>
@@ -43647,7 +43647,7 @@
         <v>17</v>
       </c>
       <c r="C2514">
-        <v>5870</v>
+        <v>6060</v>
       </c>
       <c r="D2514" t="s">
         <v>2516</v>
@@ -43661,7 +43661,7 @@
         <v>18</v>
       </c>
       <c r="C2515">
-        <v>5890</v>
+        <v>6090</v>
       </c>
       <c r="D2515" t="s">
         <v>2517</v>
@@ -43675,7 +43675,7 @@
         <v>19</v>
       </c>
       <c r="C2516">
-        <v>5920</v>
+        <v>6120</v>
       </c>
       <c r="D2516" t="s">
         <v>2518</v>
@@ -43689,7 +43689,7 @@
         <v>20</v>
       </c>
       <c r="C2517">
-        <v>5950</v>
+        <v>6160</v>
       </c>
       <c r="D2517" t="s">
         <v>2519</v>
@@ -43703,7 +43703,7 @@
         <v>21</v>
       </c>
       <c r="C2518">
-        <v>6000</v>
+        <v>6210</v>
       </c>
       <c r="D2518" t="s">
         <v>2520</v>
@@ -43717,7 +43717,7 @@
         <v>22</v>
       </c>
       <c r="C2519">
-        <v>6070</v>
+        <v>6290</v>
       </c>
       <c r="D2519" t="s">
         <v>2521</v>
@@ -43731,7 +43731,7 @@
         <v>23</v>
       </c>
       <c r="C2520">
-        <v>6150</v>
+        <v>6380</v>
       </c>
       <c r="D2520" t="s">
         <v>2522</v>
@@ -43745,7 +43745,7 @@
         <v>24</v>
       </c>
       <c r="C2521">
-        <v>6260</v>
+        <v>6500</v>
       </c>
       <c r="D2521" t="s">
         <v>2523</v>
@@ -43759,7 +43759,7 @@
         <v>25</v>
       </c>
       <c r="C2522">
-        <v>6380</v>
+        <v>6650</v>
       </c>
       <c r="D2522" t="s">
         <v>2524</v>
@@ -43773,7 +43773,7 @@
         <v>26</v>
       </c>
       <c r="C2523">
-        <v>6530</v>
+        <v>6810</v>
       </c>
       <c r="D2523" t="s">
         <v>2525</v>
@@ -43787,7 +43787,7 @@
         <v>27</v>
       </c>
       <c r="C2524">
-        <v>6710</v>
+        <v>6990</v>
       </c>
       <c r="D2524" t="s">
         <v>2526</v>
@@ -43801,7 +43801,7 @@
         <v>28</v>
       </c>
       <c r="C2525">
-        <v>6920</v>
+        <v>7170</v>
       </c>
       <c r="D2525" t="s">
         <v>2527</v>
@@ -43815,7 +43815,7 @@
         <v>29</v>
       </c>
       <c r="C2526">
-        <v>7140</v>
+        <v>7360</v>
       </c>
       <c r="D2526" t="s">
         <v>2528</v>
@@ -43829,7 +43829,7 @@
         <v>30</v>
       </c>
       <c r="C2527">
-        <v>7320</v>
+        <v>7530</v>
       </c>
       <c r="D2527" t="s">
         <v>2529</v>
@@ -43843,7 +43843,7 @@
         <v>31</v>
       </c>
       <c r="C2528">
-        <v>7450</v>
+        <v>7690</v>
       </c>
       <c r="D2528" t="s">
         <v>2530</v>
@@ -43857,7 +43857,7 @@
         <v>32</v>
       </c>
       <c r="C2529">
-        <v>7520</v>
+        <v>7810</v>
       </c>
       <c r="D2529" t="s">
         <v>2531</v>
@@ -43871,7 +43871,7 @@
         <v>33</v>
       </c>
       <c r="C2530">
-        <v>7560</v>
+        <v>7910</v>
       </c>
       <c r="D2530" t="s">
         <v>2532</v>
@@ -43885,7 +43885,7 @@
         <v>34</v>
       </c>
       <c r="C2531">
-        <v>7560</v>
+        <v>7970</v>
       </c>
       <c r="D2531" t="s">
         <v>2533</v>
@@ -43899,7 +43899,7 @@
         <v>35</v>
       </c>
       <c r="C2532">
-        <v>7550</v>
+        <v>8000</v>
       </c>
       <c r="D2532" t="s">
         <v>2534</v>
@@ -43913,7 +43913,7 @@
         <v>36</v>
       </c>
       <c r="C2533">
-        <v>7520</v>
+        <v>7970</v>
       </c>
       <c r="D2533" t="s">
         <v>2535</v>
@@ -43927,7 +43927,7 @@
         <v>37</v>
       </c>
       <c r="C2534">
-        <v>7480</v>
+        <v>7910</v>
       </c>
       <c r="D2534" t="s">
         <v>2536</v>
@@ -43941,7 +43941,7 @@
         <v>38</v>
       </c>
       <c r="C2535">
-        <v>7410</v>
+        <v>7820</v>
       </c>
       <c r="D2535" t="s">
         <v>2537</v>
@@ -43955,7 +43955,7 @@
         <v>39</v>
       </c>
       <c r="C2536">
-        <v>7340</v>
+        <v>7710</v>
       </c>
       <c r="D2536" t="s">
         <v>2538</v>
@@ -43969,7 +43969,7 @@
         <v>40</v>
       </c>
       <c r="C2537">
-        <v>7250</v>
+        <v>7580</v>
       </c>
       <c r="D2537" t="s">
         <v>2539</v>
@@ -43983,7 +43983,7 @@
         <v>41</v>
       </c>
       <c r="C2538">
-        <v>7160</v>
+        <v>7440</v>
       </c>
       <c r="D2538" t="s">
         <v>2540</v>
@@ -43997,7 +43997,7 @@
         <v>42</v>
       </c>
       <c r="C2539">
-        <v>7060</v>
+        <v>7300</v>
       </c>
       <c r="D2539" t="s">
         <v>2541</v>
@@ -44011,7 +44011,7 @@
         <v>43</v>
       </c>
       <c r="C2540">
-        <v>6960</v>
+        <v>7160</v>
       </c>
       <c r="D2540" t="s">
         <v>2542</v>
@@ -44025,7 +44025,7 @@
         <v>44</v>
       </c>
       <c r="C2541">
-        <v>6850</v>
+        <v>7030</v>
       </c>
       <c r="D2541" t="s">
         <v>2543</v>
@@ -44039,7 +44039,7 @@
         <v>45</v>
       </c>
       <c r="C2542">
-        <v>6750</v>
+        <v>6920</v>
       </c>
       <c r="D2542" t="s">
         <v>2544</v>
@@ -44053,7 +44053,7 @@
         <v>46</v>
       </c>
       <c r="C2543">
-        <v>6670</v>
+        <v>6820</v>
       </c>
       <c r="D2543" t="s">
         <v>2545</v>
@@ -44067,7 +44067,7 @@
         <v>47</v>
       </c>
       <c r="C2544">
-        <v>6600</v>
+        <v>6730</v>
       </c>
       <c r="D2544" t="s">
         <v>2546</v>
@@ -44081,7 +44081,7 @@
         <v>48</v>
       </c>
       <c r="C2545">
-        <v>6540</v>
+        <v>6660</v>
       </c>
       <c r="D2545" t="s">
         <v>2547</v>
@@ -44095,7 +44095,7 @@
         <v>49</v>
       </c>
       <c r="C2546">
-        <v>6500</v>
+        <v>6600</v>
       </c>
       <c r="D2546" t="s">
         <v>2548</v>
@@ -44109,7 +44109,7 @@
         <v>50</v>
       </c>
       <c r="C2547">
-        <v>6480</v>
+        <v>6550</v>
       </c>
       <c r="D2547" t="s">
         <v>2549</v>
@@ -44123,7 +44123,7 @@
         <v>51</v>
       </c>
       <c r="C2548">
-        <v>6460</v>
+        <v>6520</v>
       </c>
       <c r="D2548" t="s">
         <v>2550</v>
@@ -44137,7 +44137,7 @@
         <v>52</v>
       </c>
       <c r="C2549">
-        <v>6450</v>
+        <v>6490</v>
       </c>
       <c r="D2549" t="s">
         <v>2551</v>
@@ -44151,7 +44151,7 @@
         <v>53</v>
       </c>
       <c r="C2550">
-        <v>6450</v>
+        <v>6480</v>
       </c>
       <c r="D2550" t="s">
         <v>2552</v>
@@ -44165,7 +44165,7 @@
         <v>54</v>
       </c>
       <c r="C2551">
-        <v>6460</v>
+        <v>6470</v>
       </c>
       <c r="D2551" t="s">
         <v>2553</v>
@@ -44207,7 +44207,7 @@
         <v>57</v>
       </c>
       <c r="C2554">
-        <v>6510</v>
+        <v>6500</v>
       </c>
       <c r="D2554" t="s">
         <v>2556</v>
@@ -44235,7 +44235,7 @@
         <v>59</v>
       </c>
       <c r="C2556">
-        <v>6570</v>
+        <v>6560</v>
       </c>
       <c r="D2556" t="s">
         <v>2558</v>
@@ -44249,7 +44249,7 @@
         <v>60</v>
       </c>
       <c r="C2557">
-        <v>6620</v>
+        <v>6600</v>
       </c>
       <c r="D2557" t="s">
         <v>2559</v>
@@ -44263,7 +44263,7 @@
         <v>61</v>
       </c>
       <c r="C2558">
-        <v>6670</v>
+        <v>6650</v>
       </c>
       <c r="D2558" t="s">
         <v>2560</v>
@@ -44277,7 +44277,7 @@
         <v>62</v>
       </c>
       <c r="C2559">
-        <v>6730</v>
+        <v>6710</v>
       </c>
       <c r="D2559" t="s">
         <v>2561</v>
@@ -44291,7 +44291,7 @@
         <v>63</v>
       </c>
       <c r="C2560">
-        <v>6800</v>
+        <v>6780</v>
       </c>
       <c r="D2560" t="s">
         <v>2562</v>
@@ -44305,7 +44305,7 @@
         <v>64</v>
       </c>
       <c r="C2561">
-        <v>6880</v>
+        <v>6870</v>
       </c>
       <c r="D2561" t="s">
         <v>2563</v>
@@ -44319,7 +44319,7 @@
         <v>65</v>
       </c>
       <c r="C2562">
-        <v>6970</v>
+        <v>6980</v>
       </c>
       <c r="D2562" t="s">
         <v>2564</v>
@@ -44333,7 +44333,7 @@
         <v>66</v>
       </c>
       <c r="C2563">
-        <v>7050</v>
+        <v>7100</v>
       </c>
       <c r="D2563" t="s">
         <v>2565</v>
@@ -44347,7 +44347,7 @@
         <v>67</v>
       </c>
       <c r="C2564">
-        <v>7140</v>
+        <v>7230</v>
       </c>
       <c r="D2564" t="s">
         <v>2566</v>
@@ -44361,7 +44361,7 @@
         <v>68</v>
       </c>
       <c r="C2565">
-        <v>7220</v>
+        <v>7380</v>
       </c>
       <c r="D2565" t="s">
         <v>2567</v>
@@ -44375,7 +44375,7 @@
         <v>69</v>
       </c>
       <c r="C2566">
-        <v>7310</v>
+        <v>7520</v>
       </c>
       <c r="D2566" t="s">
         <v>2568</v>
@@ -44389,7 +44389,7 @@
         <v>70</v>
       </c>
       <c r="C2567">
-        <v>7410</v>
+        <v>7660</v>
       </c>
       <c r="D2567" t="s">
         <v>2569</v>
@@ -44403,7 +44403,7 @@
         <v>71</v>
       </c>
       <c r="C2568">
-        <v>7520</v>
+        <v>7790</v>
       </c>
       <c r="D2568" t="s">
         <v>2570</v>
@@ -44417,7 +44417,7 @@
         <v>72</v>
       </c>
       <c r="C2569">
-        <v>7640</v>
+        <v>7900</v>
       </c>
       <c r="D2569" t="s">
         <v>2571</v>
@@ -44431,7 +44431,7 @@
         <v>73</v>
       </c>
       <c r="C2570">
-        <v>7760</v>
+        <v>7990</v>
       </c>
       <c r="D2570" t="s">
         <v>2572</v>
@@ -44445,7 +44445,7 @@
         <v>74</v>
       </c>
       <c r="C2571">
-        <v>7870</v>
+        <v>8070</v>
       </c>
       <c r="D2571" t="s">
         <v>2573</v>
@@ -44459,7 +44459,7 @@
         <v>75</v>
       </c>
       <c r="C2572">
-        <v>7940</v>
+        <v>8140</v>
       </c>
       <c r="D2572" t="s">
         <v>2574</v>
@@ -44473,7 +44473,7 @@
         <v>76</v>
       </c>
       <c r="C2573">
-        <v>7980</v>
+        <v>8200</v>
       </c>
       <c r="D2573" t="s">
         <v>2575</v>
@@ -44487,7 +44487,7 @@
         <v>77</v>
       </c>
       <c r="C2574">
-        <v>8000</v>
+        <v>8240</v>
       </c>
       <c r="D2574" t="s">
         <v>2576</v>
@@ -44501,7 +44501,7 @@
         <v>78</v>
       </c>
       <c r="C2575">
-        <v>8000</v>
+        <v>8250</v>
       </c>
       <c r="D2575" t="s">
         <v>2577</v>
@@ -44515,7 +44515,7 @@
         <v>79</v>
       </c>
       <c r="C2576">
-        <v>7980</v>
+        <v>8250</v>
       </c>
       <c r="D2576" t="s">
         <v>2578</v>
@@ -44529,7 +44529,7 @@
         <v>80</v>
       </c>
       <c r="C2577">
-        <v>7960</v>
+        <v>8230</v>
       </c>
       <c r="D2577" t="s">
         <v>2579</v>
@@ -44543,7 +44543,7 @@
         <v>81</v>
       </c>
       <c r="C2578">
-        <v>7910</v>
+        <v>8190</v>
       </c>
       <c r="D2578" t="s">
         <v>2580</v>
@@ -44557,7 +44557,7 @@
         <v>82</v>
       </c>
       <c r="C2579">
-        <v>7860</v>
+        <v>8150</v>
       </c>
       <c r="D2579" t="s">
         <v>2581</v>
@@ -44571,7 +44571,7 @@
         <v>83</v>
       </c>
       <c r="C2580">
-        <v>7790</v>
+        <v>8080</v>
       </c>
       <c r="D2580" t="s">
         <v>2582</v>
@@ -44585,7 +44585,7 @@
         <v>84</v>
       </c>
       <c r="C2581">
-        <v>7710</v>
+        <v>8020</v>
       </c>
       <c r="D2581" t="s">
         <v>2583</v>
@@ -44599,7 +44599,7 @@
         <v>85</v>
       </c>
       <c r="C2582">
-        <v>7620</v>
+        <v>7900</v>
       </c>
       <c r="D2582" t="s">
         <v>2584</v>
@@ -44613,7 +44613,7 @@
         <v>86</v>
       </c>
       <c r="C2583">
-        <v>7510</v>
+        <v>7750</v>
       </c>
       <c r="D2583" t="s">
         <v>2585</v>
@@ -44627,7 +44627,7 @@
         <v>87</v>
       </c>
       <c r="C2584">
-        <v>7380</v>
+        <v>7650</v>
       </c>
       <c r="D2584" t="s">
         <v>2586</v>
@@ -44641,7 +44641,7 @@
         <v>88</v>
       </c>
       <c r="C2585">
-        <v>7240</v>
+        <v>7530</v>
       </c>
       <c r="D2585" t="s">
         <v>2587</v>
@@ -44655,7 +44655,7 @@
         <v>89</v>
       </c>
       <c r="C2586">
-        <v>7090</v>
+        <v>7370</v>
       </c>
       <c r="D2586" t="s">
         <v>2588</v>
@@ -44669,7 +44669,7 @@
         <v>90</v>
       </c>
       <c r="C2587">
-        <v>6940</v>
+        <v>7240</v>
       </c>
       <c r="D2587" t="s">
         <v>2589</v>
@@ -44683,7 +44683,7 @@
         <v>91</v>
       </c>
       <c r="C2588">
-        <v>6800</v>
+        <v>7060</v>
       </c>
       <c r="D2588" t="s">
         <v>2590</v>
@@ -44697,7 +44697,7 @@
         <v>92</v>
       </c>
       <c r="C2589">
-        <v>6670</v>
+        <v>6930</v>
       </c>
       <c r="D2589" t="s">
         <v>2591</v>
@@ -44711,7 +44711,7 @@
         <v>93</v>
       </c>
       <c r="C2590">
-        <v>6550</v>
+        <v>6790</v>
       </c>
       <c r="D2590" t="s">
         <v>2592</v>
@@ -44725,7 +44725,7 @@
         <v>94</v>
       </c>
       <c r="C2591">
-        <v>6440</v>
+        <v>6610</v>
       </c>
       <c r="D2591" t="s">
         <v>2593</v>
@@ -44739,7 +44739,7 @@
         <v>95</v>
       </c>
       <c r="C2592">
-        <v>6330</v>
+        <v>6530</v>
       </c>
       <c r="D2592" t="s">
         <v>2594</v>
@@ -44753,7 +44753,7 @@
         <v>96</v>
       </c>
       <c r="C2593">
-        <v>6220</v>
+        <v>6420</v>
       </c>
       <c r="D2593" t="s">
         <v>2595</v>
